--- a/2019-Accounts-Local.xlsx
+++ b/2019-Accounts-Local.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Myworks\SaiPragnaEnclave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Myworks\SaiPragnaEnclave\SPEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD94AC0E-87B9-4E65-AFF5-88F8A9272EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3A0DAF-653B-4697-88C7-96BF634E80D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="732" windowWidth="22920" windowHeight="12228" tabRatio="747" activeTab="4" xr2:uid="{43043216-F16B-4478-BC9B-74E33D699851}"/>
+    <workbookView xWindow="120" yWindow="732" windowWidth="22920" windowHeight="12228" tabRatio="747" activeTab="6" xr2:uid="{43043216-F16B-4478-BC9B-74E33D699851}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance Collection Summary" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="406">
   <si>
     <t>Date</t>
   </si>
@@ -1261,9 +1261,6 @@
     <t>Monthly Dues Count</t>
   </si>
   <si>
-    <t>F302 (Paid by ChandraSekhar)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1277,15 +1274,6 @@
   </si>
   <si>
     <t>F104 (Paid through Security to Noor)</t>
-  </si>
-  <si>
-    <t>F304 (Paid directly to Noor with 260 expense deducted)</t>
-  </si>
-  <si>
-    <t>F001 (Paid directly to Noor)</t>
-  </si>
-  <si>
-    <t>F103 (Paid directly to Noor)</t>
   </si>
   <si>
     <t>Maintenance Collection for Feb-2020</t>
@@ -1319,6 +1307,18 @@
   </si>
   <si>
     <t>(100*2) + (50*1 )+ (10*1)</t>
+  </si>
+  <si>
+    <t>F302 (Paid by ChandraSekhar to Noor)</t>
+  </si>
+  <si>
+    <t>F001 (Paid by Rajnish directly to Noor)</t>
+  </si>
+  <si>
+    <t>F103 (Paid by Aravind directly to Noor)</t>
+  </si>
+  <si>
+    <t>F304 (Paid by Aditya directly to Noor with 260 expense deducted)</t>
   </si>
 </sst>
 </file>
@@ -2436,6 +2436,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2499,14 +2502,11 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="849">
+  <dxfs count="866">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2559,6 +2559,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2579,6 +2589,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2619,6 +2639,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2639,6 +2679,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2649,6 +2699,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -5439,6 +5499,116 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16743,35 +16913,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="str">
+      <c r="A1" s="125" t="str">
         <f>"Monthly Maintenance Fund Collection Summary for the Year " &amp;O1</f>
         <v>Monthly Maintenance Fund Collection Summary for the Year 2020</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="122">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="123">
         <v>2020</v>
       </c>
-      <c r="P1" s="123"/>
+      <c r="P1" s="124"/>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="43">
         <v>2800</v>
       </c>
@@ -17420,12 +17590,12 @@
       <c r="P23" s="66"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="134" t="s">
+      <c r="A24" s="135" t="s">
         <v>262</v>
       </c>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="137"/>
       <c r="E24" s="69">
         <f>COUNTIFS(E4:E23,"PAID")*E2</f>
         <v>39200</v>
@@ -17476,12 +17646,12 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="137" t="s">
+      <c r="A25" s="138" t="s">
         <v>263</v>
       </c>
-      <c r="B25" s="138"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="139"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="140"/>
       <c r="E25" s="70">
         <f>COUNTIFS(E4:E23,"DUE")*E2</f>
         <v>16800</v>
@@ -17532,12 +17702,12 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="127" t="s">
         <v>264</v>
       </c>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="128"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="71">
         <f>SUM(E24:E25)</f>
         <v>56000</v>
@@ -17588,12 +17758,12 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="129" t="s">
+      <c r="A27" s="130" t="s">
         <v>265</v>
       </c>
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="131"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="72">
         <f>E26</f>
         <v>56000</v>
@@ -17645,35 +17815,35 @@
     </row>
     <row r="29" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A30" s="124" t="str">
+      <c r="A30" s="125" t="str">
         <f>"Monthly Maintenance Fund Collection Summary for the Year " &amp;O30</f>
         <v>Monthly Maintenance Fund Collection Summary for the Year 2019</v>
       </c>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="122">
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="123">
         <v>2019</v>
       </c>
-      <c r="P30" s="123"/>
+      <c r="P30" s="124"/>
     </row>
     <row r="31" spans="1:16" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
       <c r="E31" s="43">
         <v>2800</v>
       </c>
@@ -18763,12 +18933,12 @@
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="134" t="s">
+      <c r="A53" s="135" t="s">
         <v>262</v>
       </c>
-      <c r="B53" s="135"/>
-      <c r="C53" s="135"/>
-      <c r="D53" s="136"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="137"/>
       <c r="E53" s="69">
         <f>SUMPRODUCT((MONTH($B$33:$B$52)&lt;=MONTH(DATEVALUE(E$32&amp;"1"))) *E$31) + SUMPRODUCT((MONTH($B$33:$B$52)&gt;MONTH(DATEVALUE(E$32&amp;"1"))) *E$31/2)</f>
         <v>54600</v>
@@ -18819,12 +18989,12 @@
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="137" t="s">
+      <c r="A54" s="138" t="s">
         <v>263</v>
       </c>
-      <c r="B54" s="138"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="139"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="140"/>
       <c r="E54" s="70">
         <f>E$31*COUNTIF(E$33:E$52,"DUE")</f>
         <v>0</v>
@@ -18875,12 +19045,12 @@
       </c>
     </row>
     <row r="55" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="126" t="s">
+      <c r="A55" s="127" t="s">
         <v>264</v>
       </c>
-      <c r="B55" s="127"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="128"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="129"/>
       <c r="E55" s="71">
         <f t="shared" ref="E55:P55" si="15">SUM(E53:E54)</f>
         <v>54600</v>
@@ -18931,12 +19101,12 @@
       </c>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="129" t="s">
+      <c r="A56" s="130" t="s">
         <v>265</v>
       </c>
-      <c r="B56" s="130"/>
-      <c r="C56" s="130"/>
-      <c r="D56" s="131"/>
+      <c r="B56" s="131"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="132"/>
       <c r="E56" s="72">
         <f>E55</f>
         <v>54600</v>
@@ -19004,110 +19174,110 @@
     <mergeCell ref="A26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="E33:P52">
-    <cfRule type="containsText" dxfId="848" priority="52" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="865" priority="52" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="847" priority="53" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="864" priority="53" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="846" priority="54" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="863" priority="54" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",E33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="containsText" dxfId="845" priority="49" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="862" priority="49" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="844" priority="50" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="861" priority="50" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="843" priority="51" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="860" priority="51" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="842" priority="46" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="859" priority="46" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="841" priority="47" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="858" priority="47" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="840" priority="48" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="857" priority="48" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:P54">
-    <cfRule type="cellIs" dxfId="839" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="856" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="838" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="855" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:P53">
-    <cfRule type="cellIs" dxfId="837" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="854" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="836" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="853" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D52">
-    <cfRule type="cellIs" dxfId="835" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="852" priority="16" operator="equal">
       <formula>"Tenant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:P23">
-    <cfRule type="containsText" dxfId="834" priority="12" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="851" priority="12" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="833" priority="13" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="850" priority="13" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="832" priority="14" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="849" priority="14" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="831" priority="9" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="848" priority="9" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="830" priority="10" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="847" priority="10" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="829" priority="11" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="846" priority="11" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="containsText" dxfId="828" priority="6" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="845" priority="6" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="827" priority="7" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="844" priority="7" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="826" priority="8" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="843" priority="8" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:P25">
-    <cfRule type="cellIs" dxfId="825" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="842" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="824" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="841" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:P24">
-    <cfRule type="cellIs" dxfId="823" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="840" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="839" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D23">
-    <cfRule type="cellIs" dxfId="821" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="838" priority="1" operator="equal">
       <formula>"Tenant"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24336,906 +24506,906 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9 A1:A3 A203:A207 A209:A212 A11">
-    <cfRule type="containsText" dxfId="212" priority="201" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="218" priority="201" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="202" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="217" priority="202" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A33">
-    <cfRule type="containsText" dxfId="210" priority="189" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="216" priority="189" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="190" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="215" priority="190" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A298">
-    <cfRule type="containsText" dxfId="208" priority="199" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="214" priority="199" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="200" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="213" priority="200" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="containsText" dxfId="206" priority="197" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="212" priority="197" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="198" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="211" priority="198" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="204" priority="195" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="210" priority="195" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="196" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="209" priority="196" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="containsText" dxfId="202" priority="193" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="208" priority="193" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="194" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="207" priority="194" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="200" priority="191" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="206" priority="191" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="192" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="205" priority="192" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="198" priority="187" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="204" priority="187" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="188" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="203" priority="188" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A65">
-    <cfRule type="containsText" dxfId="196" priority="185" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="202" priority="185" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="186" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="201" priority="186" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="194" priority="183" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="200" priority="183" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="184" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="199" priority="184" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="192" priority="181" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="198" priority="181" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="182" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="197" priority="182" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="190" priority="179" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="196" priority="179" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="180" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="195" priority="180" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="188" priority="177" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="194" priority="177" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="178" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="193" priority="178" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F298">
-    <cfRule type="cellIs" dxfId="186" priority="176" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="176" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G306:G1048576 G2:G298">
-    <cfRule type="cellIs" dxfId="185" priority="175" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="175" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306:F1048576 F2:F298">
-    <cfRule type="cellIs" dxfId="184" priority="174" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="174" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="183" priority="172" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="189" priority="172" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="173" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="188" priority="173" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="181" priority="170" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="187" priority="170" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="171" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="186" priority="171" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="179" priority="168" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="185" priority="168" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="169" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="184" priority="169" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="177" priority="167" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="167" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="176" priority="166" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="166" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="175" priority="165" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="181" priority="165" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="174" priority="163" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="180" priority="163" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="164" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="179" priority="164" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="172" priority="161" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="178" priority="161" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="162" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="177" priority="162" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="containsText" dxfId="170" priority="159" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="176" priority="159" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="160" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="175" priority="160" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="168" priority="157" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="174" priority="157" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="158" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="173" priority="158" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="containsText" dxfId="166" priority="155" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="172" priority="155" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="156" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="171" priority="156" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="164" priority="153" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="170" priority="153" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="154" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="169" priority="154" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="162" priority="152" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="152" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="161" priority="151" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="151" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="160" priority="150" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="150" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="containsText" dxfId="159" priority="148" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="165" priority="148" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="149" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="164" priority="149" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="157" priority="147" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="147" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G224">
-    <cfRule type="cellIs" dxfId="156" priority="146" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="146" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="155" priority="145" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="145" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="154" priority="143" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="160" priority="143" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="144" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="159" priority="144" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="152" priority="142" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="142" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="151" priority="141" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="141" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="150" priority="140" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="140" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="149" priority="138" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="155" priority="138" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="139" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="154" priority="139" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208">
-    <cfRule type="cellIs" dxfId="147" priority="137" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="137" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208">
-    <cfRule type="cellIs" dxfId="146" priority="136" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="136" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A226">
-    <cfRule type="containsText" dxfId="145" priority="134" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="151" priority="134" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="135" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="150" priority="135" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F226">
-    <cfRule type="cellIs" dxfId="143" priority="133" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="133" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G226">
-    <cfRule type="cellIs" dxfId="142" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="132" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="141" priority="131" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="131" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G299">
-    <cfRule type="cellIs" dxfId="140" priority="130" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="130" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="139" priority="128" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="145" priority="128" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="129" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="144" priority="129" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="cellIs" dxfId="137" priority="127" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="127" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="cellIs" dxfId="136" priority="126" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="126" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="135" priority="124" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="141" priority="124" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="125" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="140" priority="125" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="133" priority="122" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="139" priority="122" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="123" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="138" priority="123" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F301">
-    <cfRule type="cellIs" dxfId="131" priority="121" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="121" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301">
-    <cfRule type="cellIs" dxfId="130" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="120" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="containsText" dxfId="129" priority="118" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="135" priority="118" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="119" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="134" priority="119" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F302">
-    <cfRule type="cellIs" dxfId="127" priority="117" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="117" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302">
-    <cfRule type="cellIs" dxfId="126" priority="116" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="116" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="125" priority="114" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="131" priority="114" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="115" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="130" priority="115" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="123" priority="113" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="113" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="122" priority="112" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="112" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="121" priority="110" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="127" priority="110" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="111" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="126" priority="111" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="119" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="109" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="118" priority="108" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="108" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="117" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="107" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="116" priority="105" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="122" priority="105" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="106" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="121" priority="106" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="114" priority="104" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="104" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="113" priority="103" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="103" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="112" priority="101" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="118" priority="101" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="102" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="117" priority="102" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="110" priority="100" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="100" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="109" priority="99" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="99" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="108" priority="98" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="98" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G17">
-    <cfRule type="cellIs" dxfId="107" priority="97" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="97" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="106" priority="96" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="96" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="105" priority="95" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="95" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="104" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="94" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="103" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="93" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="102" priority="91" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="108" priority="91" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="92" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="107" priority="92" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="100" priority="89" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="106" priority="89" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="90" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="105" priority="90" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="98" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="88" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="97" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="87" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="96" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="95" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="85" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="94" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="84" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="93" priority="83" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="83" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="92" priority="81" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="98" priority="81" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="82" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="97" priority="82" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="90" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="89" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="79" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="88" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="78" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="87" priority="76" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="93" priority="76" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="77" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="92" priority="77" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="85" priority="74" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="91" priority="74" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="75" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="90" priority="75" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="83" priority="72" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="89" priority="72" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="73" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="88" priority="73" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="81" priority="70" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="87" priority="70" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="71" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="86" priority="71" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="79" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="69" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="78" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="68" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="77" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="67" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="76" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="75" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="65" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="74" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="64" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="73" priority="62" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="79" priority="62" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="63" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="78" priority="63" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="71" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="70" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="69" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="68" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="67" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="57" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="66" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="65" priority="54" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="71" priority="54" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="55" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="70" priority="55" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="63" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="62" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="61" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="60" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="59" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="58" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="57" priority="46" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="63" priority="46" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="47" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="62" priority="47" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="55" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="54" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="53" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="52" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="51" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="50" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="49" priority="38" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="55" priority="38" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="39" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="47" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="46" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="45" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="44" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="42" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="41" priority="30" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="47" priority="30" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="31" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="46" priority="31" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="39" priority="28" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="45" priority="28" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="29" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="44" priority="29" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="37" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:G28">
-    <cfRule type="cellIs" dxfId="36" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="35" priority="24" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="41" priority="24" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="32" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="containsText" dxfId="31" priority="20" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="37" priority="20" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="36" priority="21" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="27" priority="16" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="33" priority="16" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="17" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="32" priority="17" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="23" priority="12" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30573,499 +30743,499 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9:A11 A13 A1 A15:A23 A203:A207 A209:A212 A3">
-    <cfRule type="containsText" dxfId="820" priority="114" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="837" priority="114" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="819" priority="115" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="836" priority="115" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="818" priority="112" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="835" priority="112" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="817" priority="113" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="834" priority="113" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A33">
-    <cfRule type="containsText" dxfId="816" priority="94" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="833" priority="94" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="815" priority="95" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="832" priority="95" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A298">
-    <cfRule type="containsText" dxfId="814" priority="110" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="831" priority="110" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="813" priority="111" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="830" priority="111" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A28">
-    <cfRule type="containsText" dxfId="812" priority="108" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="829" priority="108" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="811" priority="109" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="828" priority="109" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="810" priority="106" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="827" priority="106" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="809" priority="107" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="826" priority="107" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="808" priority="96" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="825" priority="96" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="807" priority="97" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="824" priority="97" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="806" priority="104" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="823" priority="104" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="805" priority="105" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="822" priority="105" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="804" priority="102" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="821" priority="102" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="803" priority="103" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="820" priority="103" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="containsText" dxfId="802" priority="100" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="819" priority="100" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="801" priority="101" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="818" priority="101" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="800" priority="98" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="817" priority="98" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="799" priority="99" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="816" priority="99" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="798" priority="92" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="815" priority="92" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="797" priority="93" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="814" priority="93" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A65">
-    <cfRule type="containsText" dxfId="796" priority="90" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="813" priority="90" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="795" priority="91" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="812" priority="91" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="794" priority="88" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="811" priority="88" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="793" priority="89" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="810" priority="89" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="792" priority="86" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="809" priority="86" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="791" priority="87" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="808" priority="87" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="790" priority="84" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="807" priority="84" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="789" priority="85" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="806" priority="85" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="788" priority="82" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="805" priority="82" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="787" priority="83" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="804" priority="83" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F298">
-    <cfRule type="cellIs" dxfId="786" priority="81" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="803" priority="81" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G306:G1048576 G3:G298">
-    <cfRule type="cellIs" dxfId="785" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="802" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306:F1048576 F3:F298">
-    <cfRule type="cellIs" dxfId="784" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="801" priority="79" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="783" priority="77" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="800" priority="77" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="782" priority="78" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="799" priority="78" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="781" priority="75" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="798" priority="75" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="780" priority="76" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="797" priority="76" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="779" priority="73" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="796" priority="73" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="778" priority="74" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="795" priority="74" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="777" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="794" priority="72" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="776" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="793" priority="71" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="775" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="792" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="774" priority="68" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="791" priority="68" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="773" priority="69" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="790" priority="69" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="772" priority="66" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="789" priority="66" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="771" priority="67" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="788" priority="67" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="770" priority="64" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="787" priority="64" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="769" priority="65" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="786" priority="65" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="containsText" dxfId="768" priority="62" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="785" priority="62" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="767" priority="63" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="784" priority="63" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="766" priority="60" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="783" priority="60" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="765" priority="61" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="782" priority="61" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="containsText" dxfId="764" priority="58" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="781" priority="58" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="763" priority="59" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="780" priority="59" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="762" priority="56" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="779" priority="56" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="761" priority="57" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="778" priority="57" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="760" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="777" priority="55" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="759" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="776" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="758" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="775" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="containsText" dxfId="757" priority="51" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="774" priority="51" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="756" priority="52" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="773" priority="52" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="755" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="772" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G224">
-    <cfRule type="cellIs" dxfId="754" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="771" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="753" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="770" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="752" priority="46" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="769" priority="46" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="751" priority="47" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="768" priority="47" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="750" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="767" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="749" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="766" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="748" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="765" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="747" priority="41" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="764" priority="41" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="746" priority="42" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="763" priority="42" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208">
-    <cfRule type="cellIs" dxfId="745" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="762" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208">
-    <cfRule type="cellIs" dxfId="744" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="761" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A226">
-    <cfRule type="containsText" dxfId="743" priority="37" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="760" priority="37" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="742" priority="38" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="759" priority="38" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F226">
-    <cfRule type="cellIs" dxfId="741" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="758" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G226">
-    <cfRule type="cellIs" dxfId="740" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="757" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="739" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="756" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G299">
-    <cfRule type="cellIs" dxfId="738" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="755" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="737" priority="31" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="754" priority="31" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="736" priority="32" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="753" priority="32" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="cellIs" dxfId="735" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="752" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="cellIs" dxfId="734" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="751" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="733" priority="27" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="750" priority="27" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="732" priority="28" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="749" priority="28" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="731" priority="25" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="748" priority="25" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="730" priority="26" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="747" priority="26" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F301">
-    <cfRule type="cellIs" dxfId="729" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="746" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301">
-    <cfRule type="cellIs" dxfId="728" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="745" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="containsText" dxfId="727" priority="21" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="744" priority="21" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="726" priority="22" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="743" priority="22" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F302">
-    <cfRule type="cellIs" dxfId="725" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="742" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302">
-    <cfRule type="cellIs" dxfId="724" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="741" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="723" priority="17" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="740" priority="17" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="722" priority="18" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="739" priority="18" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="721" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="738" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="720" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="737" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="719" priority="13" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="736" priority="13" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="718" priority="14" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="735" priority="14" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="717" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="734" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="716" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="733" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="715" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="732" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="714" priority="8" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="731" priority="8" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="713" priority="9" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="730" priority="9" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="712" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="729" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="711" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="728" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="710" priority="4" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="727" priority="4" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="709" priority="5" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="726" priority="5" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="708" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="725" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="707" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="724" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="706" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="723" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31105,7 +31275,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E208" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F228" sqref="F228"/>
+      <selection pane="bottomRight" activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36899,7 +37069,7 @@
         <v>5600</v>
       </c>
       <c r="H220" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -38508,622 +38678,622 @@
     <sortCondition ref="F2:F309"/>
   </sortState>
   <conditionalFormatting sqref="A9:A11 A13 A1:A3 A15:A16 A203:A207 A209:A212 A18:A24">
-    <cfRule type="containsText" dxfId="705" priority="163" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="722" priority="163" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="704" priority="164" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="721" priority="164" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="703" priority="161" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="720" priority="161" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="702" priority="162" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="719" priority="162" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A34">
-    <cfRule type="containsText" dxfId="701" priority="133" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="718" priority="133" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="700" priority="134" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="717" priority="134" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A37:A61 A66:A68 A70 A180:A201 A73:A163 A214:A218 A165:A178 A220:A222 A227 A237:A298">
-    <cfRule type="containsText" dxfId="699" priority="157" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="716" priority="157" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="698" priority="158" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="715" priority="158" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A29">
-    <cfRule type="containsText" dxfId="697" priority="155" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="714" priority="155" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="696" priority="156" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="713" priority="156" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="695" priority="153" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="712" priority="153" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="694" priority="154" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="711" priority="154" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="693" priority="137" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="710" priority="137" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="692" priority="138" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="709" priority="138" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="691" priority="149" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="708" priority="149" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="690" priority="150" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="707" priority="150" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="689" priority="147" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="706" priority="147" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="688" priority="148" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="705" priority="148" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="containsText" dxfId="687" priority="141" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="704" priority="141" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="686" priority="142" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="703" priority="142" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="685" priority="139" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="702" priority="139" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="684" priority="140" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="701" priority="140" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="683" priority="131" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="700" priority="131" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="682" priority="132" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="699" priority="132" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A65">
-    <cfRule type="containsText" dxfId="681" priority="129" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="698" priority="129" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="680" priority="130" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="697" priority="130" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="679" priority="127" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="696" priority="127" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="678" priority="128" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="695" priority="128" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="677" priority="125" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="694" priority="125" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="676" priority="126" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="693" priority="126" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="675" priority="123" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="692" priority="123" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="674" priority="124" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="691" priority="124" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="673" priority="121" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="690" priority="121" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="672" priority="122" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="689" priority="122" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F227 F2:F16 F177:F207 F209:F212 F237:F298 F214:F222 F18:F175">
-    <cfRule type="cellIs" dxfId="671" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="688" priority="120" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G227 G2:G16 G177:G207 G209:G212 G310:G1048576 G237:G298 G214:G222 G18:G175">
-    <cfRule type="cellIs" dxfId="670" priority="119" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="687" priority="119" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F227 F310:F1048576 F237:F298">
-    <cfRule type="cellIs" dxfId="669" priority="118" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="686" priority="118" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="668" priority="116" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="685" priority="116" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="667" priority="117" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="684" priority="117" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="666" priority="114" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="683" priority="114" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="665" priority="115" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="682" priority="115" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="664" priority="112" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="681" priority="112" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="663" priority="113" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="680" priority="113" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="662" priority="111" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="679" priority="111" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="661" priority="110" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="678" priority="110" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="660" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="677" priority="109" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="659" priority="107" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="676" priority="107" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="658" priority="108" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="675" priority="108" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="657" priority="105" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="674" priority="105" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="656" priority="106" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="673" priority="106" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="containsText" dxfId="655" priority="99" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="672" priority="99" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="654" priority="100" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="671" priority="100" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="653" priority="97" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="670" priority="97" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="652" priority="98" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="669" priority="98" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="containsText" dxfId="651" priority="95" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="668" priority="95" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="650" priority="96" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="667" priority="96" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="649" priority="93" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="666" priority="93" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="648" priority="94" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="665" priority="94" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="647" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="664" priority="92" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="646" priority="91" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="663" priority="91" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="645" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="662" priority="90" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="containsText" dxfId="644" priority="88" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="661" priority="88" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="643" priority="89" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="660" priority="89" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="642" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="659" priority="87" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G224">
-    <cfRule type="cellIs" dxfId="641" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="658" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="640" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="657" priority="85" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="639" priority="83" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="656" priority="83" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="638" priority="84" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="655" priority="84" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="637" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="654" priority="82" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="636" priority="81" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="653" priority="81" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="635" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="652" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="634" priority="78" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="651" priority="78" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="633" priority="79" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="650" priority="79" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208">
-    <cfRule type="cellIs" dxfId="632" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="649" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208">
-    <cfRule type="cellIs" dxfId="631" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="648" priority="76" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A226">
-    <cfRule type="containsText" dxfId="630" priority="74" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="647" priority="74" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="629" priority="75" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="646" priority="75" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F226">
-    <cfRule type="cellIs" dxfId="628" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="645" priority="73" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G226">
-    <cfRule type="cellIs" dxfId="627" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="644" priority="72" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="626" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="643" priority="71" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G299">
-    <cfRule type="cellIs" dxfId="625" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="642" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="624" priority="68" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="641" priority="68" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="623" priority="69" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="640" priority="69" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="cellIs" dxfId="622" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="639" priority="67" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="cellIs" dxfId="621" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="638" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="620" priority="64" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="637" priority="64" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="619" priority="65" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="636" priority="65" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="618" priority="62" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="635" priority="62" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="617" priority="63" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="634" priority="63" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F301">
-    <cfRule type="cellIs" dxfId="616" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="633" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301">
-    <cfRule type="cellIs" dxfId="615" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="632" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="containsText" dxfId="614" priority="58" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="631" priority="58" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="613" priority="59" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="630" priority="59" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F302">
-    <cfRule type="cellIs" dxfId="612" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="629" priority="57" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302">
-    <cfRule type="cellIs" dxfId="611" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="628" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="610" priority="54" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="627" priority="54" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="609" priority="55" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="626" priority="55" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="608" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="625" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="607" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="624" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="606" priority="50" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="623" priority="50" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="605" priority="51" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="622" priority="51" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="604" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="621" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="603" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="620" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="602" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="619" priority="47" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="601" priority="45" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="618" priority="45" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="600" priority="46" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="617" priority="46" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="599" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="616" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="598" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="615" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="597" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="614" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="596" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="613" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="595" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="612" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="594" priority="38" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="611" priority="38" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="593" priority="39" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="610" priority="39" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A306">
-    <cfRule type="containsText" dxfId="592" priority="36" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="609" priority="36" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A306)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="591" priority="37" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="608" priority="37" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A306)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306">
-    <cfRule type="cellIs" dxfId="590" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="607" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G306">
-    <cfRule type="cellIs" dxfId="589" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="606" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306">
-    <cfRule type="cellIs" dxfId="588" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="605" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A307">
-    <cfRule type="containsText" dxfId="587" priority="31" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="604" priority="31" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A307)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="586" priority="32" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="603" priority="32" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F307">
-    <cfRule type="cellIs" dxfId="585" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="602" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G307">
-    <cfRule type="cellIs" dxfId="584" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="601" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A228 A230:A236">
-    <cfRule type="containsText" dxfId="583" priority="19" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="600" priority="19" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="582" priority="20" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="599" priority="20" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F228:F236">
-    <cfRule type="cellIs" dxfId="581" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="598" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G228:G236">
-    <cfRule type="cellIs" dxfId="580" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="597" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F228:F236">
-    <cfRule type="cellIs" dxfId="579" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="596" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="578" priority="14" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="595" priority="14" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="577" priority="15" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="594" priority="15" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F213">
-    <cfRule type="cellIs" dxfId="576" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="593" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G213">
-    <cfRule type="cellIs" dxfId="575" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="592" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F213">
-    <cfRule type="cellIs" dxfId="574" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="591" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A308">
-    <cfRule type="containsText" dxfId="573" priority="9" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="590" priority="9" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A308)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="572" priority="10" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="589" priority="10" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A308)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F308">
-    <cfRule type="cellIs" dxfId="571" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="588" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G308">
-    <cfRule type="cellIs" dxfId="570" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="587" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A309">
-    <cfRule type="containsText" dxfId="569" priority="5" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="586" priority="5" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A309)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="568" priority="6" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="585" priority="6" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A309)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F309">
-    <cfRule type="cellIs" dxfId="567" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="584" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G309">
-    <cfRule type="cellIs" dxfId="566" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="583" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A229">
-    <cfRule type="containsText" dxfId="565" priority="1" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="582" priority="1" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="564" priority="2" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="581" priority="2" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A229)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39160,10 +39330,10 @@
   <dimension ref="A1:H305"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40005,7 +40175,7 @@
         <v>43866</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="F32" s="16">
         <v>0</v>
@@ -40174,7 +40344,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -40201,7 +40371,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="80" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -40252,7 +40422,7 @@
         <v>2800</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -40278,7 +40448,7 @@
         <v>2800</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -40295,7 +40465,7 @@
         <v>43885</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="F43" s="16">
         <v>0</v>
@@ -40304,7 +40474,7 @@
         <v>2800</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -40321,7 +40491,7 @@
         <v>43891</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F44" s="16">
         <v>0</v>
@@ -40330,7 +40500,7 @@
         <v>2800</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -40347,7 +40517,7 @@
         <v>43891</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F45" s="16">
         <v>0</v>
@@ -40356,7 +40526,7 @@
         <v>2800</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -40373,7 +40543,7 @@
         <v>43891</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F46" s="16">
         <v>0</v>
@@ -40382,7 +40552,7 @@
         <v>2800</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -40409,7 +40579,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -40436,7 +40606,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -40453,7 +40623,7 @@
         <v>43892</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F49" s="16">
         <v>0</v>
@@ -40462,42 +40632,61 @@
         <v>2800</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="18"/>
+      <c r="B50" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="17">
+        <v>43894</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>366</v>
+      </c>
       <c r="F50" s="16">
-        <v>0</v>
+        <v>2850</v>
       </c>
       <c r="G50" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="21"/>
+        <f>IF(A50="Expense / Out-Flow","-",0)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" s="17">
+        <v>43895</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>391</v>
+      </c>
       <c r="F51" s="16">
         <v>0</v>
       </c>
       <c r="G51" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="21"/>
+        <v>2800</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
@@ -44823,1241 +45012,1318 @@
     <sortCondition descending="1" ref="A2:A305"/>
   </sortState>
   <conditionalFormatting sqref="A9 A1:A3 A203:A207 A209:A212 A11">
-    <cfRule type="containsText" dxfId="563" priority="348" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="580" priority="365" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="562" priority="349" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="579" priority="366" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11 A43:A45 A47:A48 A50:A298">
-    <cfRule type="containsText" dxfId="561" priority="344" operator="containsText" text="Revenue (Cash-In)">
+  <conditionalFormatting sqref="A11 A43:A45 A47:A48 A52:A298">
+    <cfRule type="containsText" dxfId="578" priority="361" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="560" priority="345" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="577" priority="362" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="containsText" dxfId="559" priority="334" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="576" priority="351" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="558" priority="335" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="575" priority="352" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="557" priority="332" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="574" priority="349" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="556" priority="333" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="573" priority="350" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A65">
+    <cfRule type="containsText" dxfId="572" priority="341" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="571" priority="342" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="containsText" dxfId="570" priority="339" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="569" priority="340" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="containsText" dxfId="568" priority="337" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="567" priority="338" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="containsText" dxfId="566" priority="335" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="565" priority="336" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="containsText" dxfId="564" priority="333" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="563" priority="334" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3 F11 F17 F5:F9 F35:F36 F38:F39 F43:F48 F52:F298">
+    <cfRule type="cellIs" dxfId="562" priority="332" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G306:G1048576 G2:G3 G11 G17 G5:G9 G35:G36 G38:G39 G43:G48 G52:G298">
+    <cfRule type="cellIs" dxfId="561" priority="331" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F306:F1048576 F11 F17 F35:F36 F38:F39 F43:F48 F52:F298">
+    <cfRule type="cellIs" dxfId="560" priority="330" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79">
+    <cfRule type="containsText" dxfId="559" priority="328" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="558" priority="329" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:A85">
+    <cfRule type="containsText" dxfId="557" priority="326" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="556" priority="327" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88:A91">
     <cfRule type="containsText" dxfId="555" priority="324" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="554" priority="325" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="553" priority="322" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="552" priority="323" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="551" priority="320" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="550" priority="321" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="549" priority="318" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="548" priority="319" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="547" priority="316" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="546" priority="317" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3 F11 F17 F5:F9 F35:F36 F38:F39 F43:F48 F50:F298">
-    <cfRule type="cellIs" dxfId="545" priority="315" operator="greaterThan">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F176">
+    <cfRule type="cellIs" dxfId="553" priority="323" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G306:G1048576 G2:G3 G11 G17 G5:G9 G35:G36 G38:G39 G43:G48 G50:G298">
-    <cfRule type="cellIs" dxfId="544" priority="314" operator="greaterThan">
+  <conditionalFormatting sqref="G176">
+    <cfRule type="cellIs" dxfId="552" priority="322" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F306:F1048576 F11 F17 F35:F36 F38:F39 F43:F48 F50:F298">
-    <cfRule type="cellIs" dxfId="543" priority="313" operator="greaterThan">
+  <conditionalFormatting sqref="F176">
+    <cfRule type="cellIs" dxfId="551" priority="321" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="542" priority="311" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="541" priority="312" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="540" priority="309" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="539" priority="310" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="538" priority="307" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="537" priority="308" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="536" priority="306" operator="greaterThan">
+  <conditionalFormatting sqref="A179">
+    <cfRule type="containsText" dxfId="550" priority="319" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="549" priority="320" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213">
+    <cfRule type="containsText" dxfId="548" priority="315" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="547" priority="316" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A164">
+    <cfRule type="containsText" dxfId="546" priority="313" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="545" priority="314" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A202">
+    <cfRule type="containsText" dxfId="544" priority="311" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="543" priority="312" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A219">
+    <cfRule type="containsText" dxfId="542" priority="309" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="541" priority="310" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A223">
+    <cfRule type="containsText" dxfId="540" priority="307" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="539" priority="308" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F223">
+    <cfRule type="cellIs" dxfId="538" priority="306" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="535" priority="305" operator="greaterThan">
+  <conditionalFormatting sqref="G223">
+    <cfRule type="cellIs" dxfId="537" priority="305" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="534" priority="304" operator="greaterThan">
+  <conditionalFormatting sqref="F223">
+    <cfRule type="cellIs" dxfId="536" priority="304" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="533" priority="302" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="532" priority="303" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="531" priority="298" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="530" priority="299" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A164">
-    <cfRule type="containsText" dxfId="529" priority="296" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="528" priority="297" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="527" priority="294" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="526" priority="295" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A219">
+  <conditionalFormatting sqref="A224">
+    <cfRule type="containsText" dxfId="535" priority="302" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="534" priority="303" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F224">
+    <cfRule type="cellIs" dxfId="533" priority="301" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G224">
+    <cfRule type="cellIs" dxfId="532" priority="300" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F224">
+    <cfRule type="cellIs" dxfId="531" priority="299" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A225">
+    <cfRule type="containsText" dxfId="530" priority="297" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="529" priority="298" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F225">
+    <cfRule type="cellIs" dxfId="528" priority="296" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G225">
+    <cfRule type="cellIs" dxfId="527" priority="295" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F225">
+    <cfRule type="cellIs" dxfId="526" priority="294" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208">
     <cfRule type="containsText" dxfId="525" priority="292" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="524" priority="293" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="523" priority="290" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="522" priority="291" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="521" priority="289" operator="greaterThan">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F208">
+    <cfRule type="cellIs" dxfId="523" priority="291" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="520" priority="288" operator="greaterThan">
+  <conditionalFormatting sqref="G208">
+    <cfRule type="cellIs" dxfId="522" priority="290" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F223">
+  <conditionalFormatting sqref="A226">
+    <cfRule type="containsText" dxfId="521" priority="288" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="520" priority="289" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F226">
     <cfRule type="cellIs" dxfId="519" priority="287" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A224">
-    <cfRule type="containsText" dxfId="518" priority="285" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="517" priority="286" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F224">
+  <conditionalFormatting sqref="G226">
+    <cfRule type="cellIs" dxfId="518" priority="286" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F299">
+    <cfRule type="cellIs" dxfId="517" priority="285" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G299">
     <cfRule type="cellIs" dxfId="516" priority="284" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G224">
-    <cfRule type="cellIs" dxfId="515" priority="283" operator="greaterThan">
+  <conditionalFormatting sqref="A299">
+    <cfRule type="containsText" dxfId="515" priority="282" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="514" priority="283" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F300">
+    <cfRule type="cellIs" dxfId="513" priority="281" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="514" priority="282" operator="greaterThan">
+  <conditionalFormatting sqref="G300">
+    <cfRule type="cellIs" dxfId="512" priority="280" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="513" priority="280" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="512" priority="281" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="511" priority="279" operator="greaterThan">
+  <conditionalFormatting sqref="A300">
+    <cfRule type="containsText" dxfId="511" priority="278" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="510" priority="279" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A301">
+    <cfRule type="containsText" dxfId="509" priority="276" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="508" priority="277" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F301">
+    <cfRule type="cellIs" dxfId="507" priority="275" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="510" priority="278" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="509" priority="277" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="508" priority="275" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="507" priority="276" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F208">
+  <conditionalFormatting sqref="G301">
     <cfRule type="cellIs" dxfId="506" priority="274" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G208">
-    <cfRule type="cellIs" dxfId="505" priority="273" operator="greaterThan">
+  <conditionalFormatting sqref="A302">
+    <cfRule type="containsText" dxfId="505" priority="272" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="504" priority="273" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F302">
+    <cfRule type="cellIs" dxfId="503" priority="271" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A226">
-    <cfRule type="containsText" dxfId="504" priority="271" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="503" priority="272" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F226">
+  <conditionalFormatting sqref="G302">
     <cfRule type="cellIs" dxfId="502" priority="270" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G226">
-    <cfRule type="cellIs" dxfId="501" priority="269" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="500" priority="268" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G299">
+  <conditionalFormatting sqref="A303">
+    <cfRule type="containsText" dxfId="501" priority="268" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="500" priority="269" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F303">
     <cfRule type="cellIs" dxfId="499" priority="267" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="498" priority="265" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="497" priority="266" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F300">
-    <cfRule type="cellIs" dxfId="496" priority="264" operator="greaterThan">
+  <conditionalFormatting sqref="G303">
+    <cfRule type="cellIs" dxfId="498" priority="266" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G300">
+  <conditionalFormatting sqref="A304">
+    <cfRule type="containsText" dxfId="497" priority="264" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="496" priority="265" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F304">
     <cfRule type="cellIs" dxfId="495" priority="263" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="494" priority="261" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="493" priority="262" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A301">
+  <conditionalFormatting sqref="G304:G305">
+    <cfRule type="cellIs" dxfId="494" priority="262" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F304">
+    <cfRule type="cellIs" dxfId="493" priority="261" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A305">
     <cfRule type="containsText" dxfId="492" priority="259" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="491" priority="260" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F301">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F305">
     <cfRule type="cellIs" dxfId="490" priority="258" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G301">
+  <conditionalFormatting sqref="F305">
     <cfRule type="cellIs" dxfId="489" priority="257" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A302">
+  <conditionalFormatting sqref="A10">
     <cfRule type="containsText" dxfId="488" priority="255" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A10)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="487" priority="256" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F302">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
     <cfRule type="cellIs" dxfId="486" priority="254" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G302">
+  <conditionalFormatting sqref="G10">
     <cfRule type="cellIs" dxfId="485" priority="253" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="484" priority="251" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="483" priority="252" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="482" priority="250" operator="greaterThan">
+  <conditionalFormatting sqref="F13 F17">
+    <cfRule type="cellIs" dxfId="484" priority="250" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="481" priority="249" operator="greaterThan">
+  <conditionalFormatting sqref="G13 G17">
+    <cfRule type="cellIs" dxfId="483" priority="249" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="480" priority="247" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="479" priority="248" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="478" priority="246" operator="greaterThan">
+  <conditionalFormatting sqref="F13 F17">
+    <cfRule type="cellIs" dxfId="482" priority="248" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="477" priority="245" operator="greaterThan">
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="481" priority="239" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="476" priority="244" operator="greaterThan">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="480" priority="238" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="475" priority="242" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="474" priority="243" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="473" priority="241" operator="greaterThan">
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="479" priority="237" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="472" priority="240" operator="greaterThan">
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="containsText" dxfId="478" priority="235" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="477" priority="236" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="containsText" dxfId="476" priority="233" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="475" priority="234" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F16">
+    <cfRule type="cellIs" dxfId="474" priority="232" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="471" priority="238" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="470" priority="239" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="469" priority="237" operator="greaterThan">
+  <conditionalFormatting sqref="G15:G16">
+    <cfRule type="cellIs" dxfId="473" priority="231" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="468" priority="236" operator="greaterThan">
+  <conditionalFormatting sqref="F15:F16">
+    <cfRule type="cellIs" dxfId="472" priority="230" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="467" priority="233" operator="greaterThan">
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="471" priority="225" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13 G17">
-    <cfRule type="cellIs" dxfId="466" priority="232" operator="greaterThan">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="470" priority="224" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="465" priority="231" operator="greaterThan">
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="469" priority="223" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="464" priority="222" operator="greaterThan">
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="468" priority="221" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="467" priority="222" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="466" priority="220" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="463" priority="221" operator="greaterThan">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="465" priority="219" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="462" priority="220" operator="greaterThan">
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="464" priority="218" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="461" priority="218" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="460" priority="219" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="459" priority="216" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="458" priority="217" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="457" priority="215" operator="greaterThan">
+  <conditionalFormatting sqref="A12">
+    <cfRule type="containsText" dxfId="463" priority="216" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="462" priority="217" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="containsText" dxfId="461" priority="214" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="460" priority="215" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="containsText" dxfId="459" priority="212" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="458" priority="213" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="containsText" dxfId="457" priority="210" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="456" priority="211" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="455" priority="209" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="456" priority="214" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="455" priority="213" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="G18">
     <cfRule type="cellIs" dxfId="454" priority="208" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="F18">
     <cfRule type="cellIs" dxfId="453" priority="207" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="F18">
     <cfRule type="cellIs" dxfId="452" priority="206" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="451" priority="204" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="205" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="449" priority="203" operator="greaterThan">
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="451" priority="205" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="448" priority="202" operator="greaterThan">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="450" priority="204" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="A18">
+    <cfRule type="containsText" dxfId="449" priority="202" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="448" priority="203" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
     <cfRule type="cellIs" dxfId="447" priority="201" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="446" priority="199" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="445" priority="200" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="444" priority="197" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="443" priority="198" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="442" priority="195" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="441" priority="196" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="440" priority="193" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="439" priority="194" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="446" priority="200" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="445" priority="199" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="444" priority="198" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="443" priority="197" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="442" priority="196" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="containsText" dxfId="441" priority="194" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="440" priority="195" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="439" priority="193" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="438" priority="192" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="F20">
     <cfRule type="cellIs" dxfId="437" priority="191" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="F20">
     <cfRule type="cellIs" dxfId="436" priority="190" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="435" priority="189" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="F20">
     <cfRule type="cellIs" dxfId="434" priority="188" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="433" priority="187" operator="greaterThan">
+  <conditionalFormatting sqref="A20">
+    <cfRule type="containsText" dxfId="433" priority="186" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="432" priority="187" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="431" priority="185" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="432" priority="185" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="431" priority="186" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="G21">
     <cfRule type="cellIs" dxfId="430" priority="184" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="F21">
     <cfRule type="cellIs" dxfId="429" priority="183" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="F21">
     <cfRule type="cellIs" dxfId="428" priority="182" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="G21">
     <cfRule type="cellIs" dxfId="427" priority="181" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="F21">
     <cfRule type="cellIs" dxfId="426" priority="180" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="425" priority="179" operator="greaterThan">
+  <conditionalFormatting sqref="A21">
+    <cfRule type="containsText" dxfId="425" priority="178" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="424" priority="179" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="423" priority="177" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="424" priority="177" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="423" priority="178" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="G22">
     <cfRule type="cellIs" dxfId="422" priority="176" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="F22">
     <cfRule type="cellIs" dxfId="421" priority="175" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="F22">
     <cfRule type="cellIs" dxfId="420" priority="174" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="G22">
     <cfRule type="cellIs" dxfId="419" priority="173" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="F22">
     <cfRule type="cellIs" dxfId="418" priority="172" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="417" priority="171" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="416" priority="169" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="415" priority="170" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="414" priority="168" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
+  <conditionalFormatting sqref="A22">
+    <cfRule type="containsText" dxfId="417" priority="170" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="416" priority="171" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="containsText" dxfId="415" priority="168" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="414" priority="169" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
     <cfRule type="cellIs" dxfId="413" priority="167" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="G23:G28">
     <cfRule type="cellIs" dxfId="412" priority="166" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="411" priority="165" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="410" priority="164" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="A24">
+    <cfRule type="containsText" dxfId="411" priority="164" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="410" priority="165" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
     <cfRule type="cellIs" dxfId="409" priority="163" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="408" priority="161" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="407" priority="162" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="406" priority="160" operator="greaterThan">
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="408" priority="162" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="A25">
+    <cfRule type="containsText" dxfId="407" priority="160" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="406" priority="161" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
     <cfRule type="cellIs" dxfId="405" priority="159" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="G25">
     <cfRule type="cellIs" dxfId="404" priority="158" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="403" priority="157" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="402" priority="156" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="A26">
+    <cfRule type="containsText" dxfId="403" priority="156" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="402" priority="157" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
     <cfRule type="cellIs" dxfId="401" priority="155" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="400" priority="153" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="399" priority="154" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="398" priority="151" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="152" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="400" priority="154" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="containsText" dxfId="399" priority="152" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="398" priority="153" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="397" priority="151" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
     <cfRule type="cellIs" dxfId="396" priority="150" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G28">
-    <cfRule type="cellIs" dxfId="395" priority="149" operator="greaterThan">
+  <conditionalFormatting sqref="A28">
+    <cfRule type="containsText" dxfId="395" priority="148" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="394" priority="149" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" dxfId="393" priority="147" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="394" priority="147" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="148" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="G28">
     <cfRule type="cellIs" dxfId="392" priority="146" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="G29">
     <cfRule type="cellIs" dxfId="391" priority="145" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
+  <conditionalFormatting sqref="A29">
     <cfRule type="containsText" dxfId="390" priority="143" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="389" priority="144" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="cellIs" dxfId="388" priority="142" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="G29">
     <cfRule type="cellIs" dxfId="387" priority="141" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="386" priority="139" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="140" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="384" priority="138" operator="greaterThan">
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="386" priority="140" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="A30">
+    <cfRule type="containsText" dxfId="385" priority="138" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="384" priority="139" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
     <cfRule type="cellIs" dxfId="383" priority="137" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="382" priority="135" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="136" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="380" priority="134" operator="greaterThan">
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="382" priority="136" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="379" priority="133" operator="greaterThan">
+  <conditionalFormatting sqref="G31:G32">
+    <cfRule type="cellIs" dxfId="381" priority="135" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="378" priority="131" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="377" priority="132" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="376" priority="130" operator="greaterThan">
+  <conditionalFormatting sqref="A31">
+    <cfRule type="containsText" dxfId="380" priority="133" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="379" priority="134" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="378" priority="132" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="375" priority="129" operator="greaterThan">
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="377" priority="131" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="A32">
+    <cfRule type="containsText" dxfId="376" priority="129" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="375" priority="130" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
     <cfRule type="cellIs" dxfId="374" priority="128" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="373" priority="126" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="127" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="371" priority="125" operator="greaterThan">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="373" priority="127" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="370" priority="124" operator="greaterThan">
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="372" priority="121" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="369" priority="123" operator="greaterThan">
+  <conditionalFormatting sqref="A34">
+    <cfRule type="containsText" dxfId="371" priority="119" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="370" priority="120" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="369" priority="118" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="368" priority="121" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="122" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="366" priority="120" operator="greaterThan">
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="368" priority="117" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="365" priority="119" operator="greaterThan">
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="367" priority="114" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G32">
-    <cfRule type="cellIs" dxfId="364" priority="118" operator="greaterThan">
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="366" priority="113" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="363" priority="116" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="362" priority="117" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="361" priority="115" operator="greaterThan">
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="365" priority="112" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="360" priority="114" operator="greaterThan">
+  <conditionalFormatting sqref="A35">
+    <cfRule type="containsText" dxfId="364" priority="110" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="363" priority="111" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="containsText" dxfId="362" priority="108" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="361" priority="109" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="cellIs" dxfId="360" priority="107" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="359" priority="112" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="113" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="357" priority="111" operator="greaterThan">
+  <conditionalFormatting sqref="A33">
+    <cfRule type="containsText" dxfId="359" priority="105" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="358" priority="106" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="357" priority="104" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="356" priority="110" operator="greaterThan">
+  <conditionalFormatting sqref="G33">
+    <cfRule type="cellIs" dxfId="356" priority="103" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="containsText" dxfId="355" priority="101" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="354" priority="102" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="353" priority="100" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="355" priority="104" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="352" priority="99" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="351" priority="98" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="354" priority="102" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="350" priority="96" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="103" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="349" priority="97" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="352" priority="101" operator="greaterThan">
+  <conditionalFormatting sqref="A35">
+    <cfRule type="containsText" dxfId="348" priority="94" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="347" priority="95" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="containsText" dxfId="346" priority="75" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="345" priority="76" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="containsText" dxfId="344" priority="73" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="343" priority="74" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="342" priority="79" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="351" priority="100" operator="greaterThan">
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="341" priority="78" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="350" priority="97" operator="greaterThan">
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="340" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="349" priority="96" operator="greaterThan">
+  <conditionalFormatting sqref="A38">
+    <cfRule type="containsText" dxfId="339" priority="69" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="338" priority="70" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="containsText" dxfId="337" priority="67" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="336" priority="68" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="containsText" dxfId="335" priority="59" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="334" priority="60" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="333" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="348" priority="95" operator="greaterThan">
+  <conditionalFormatting sqref="G37">
+    <cfRule type="cellIs" dxfId="332" priority="57" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="347" priority="93" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="94" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="345" priority="91" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="344" priority="92" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="343" priority="90" operator="greaterThan">
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="331" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="342" priority="88" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="89" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="340" priority="87" operator="greaterThan">
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="330" priority="55" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="339" priority="86" operator="greaterThan">
+  <conditionalFormatting sqref="A40">
+    <cfRule type="containsText" dxfId="329" priority="53" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="328" priority="54" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="327" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="338" priority="84" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="85" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="336" priority="83" operator="greaterThan">
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="326" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="335" priority="82" operator="greaterThan">
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="325" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="334" priority="81" operator="greaterThan">
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="324" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="333" priority="79" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="80" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="331" priority="77" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="78" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="329" priority="58" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="59" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="327" priority="56" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="57" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="325" priority="62" operator="greaterThan">
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="323" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="324" priority="61" operator="greaterThan">
+  <conditionalFormatting sqref="A41:A45">
+    <cfRule type="containsText" dxfId="322" priority="39" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="321" priority="40" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="containsText" dxfId="320" priority="32" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="319" priority="33" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="318" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="323" priority="60" operator="greaterThan">
+  <conditionalFormatting sqref="G42">
+    <cfRule type="cellIs" dxfId="317" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="322" priority="52" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="53" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="320" priority="50" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="319" priority="51" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="containsText" dxfId="318" priority="42" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="43" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="316" priority="41" operator="greaterThan">
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="316" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="315" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="A46">
+    <cfRule type="containsText" dxfId="315" priority="27" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="314" priority="28" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="containsText" dxfId="313" priority="25" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="312" priority="26" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="311" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="314" priority="39" operator="greaterThan">
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="310" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="313" priority="38" operator="greaterThan">
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="309" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="312" priority="36" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="311" priority="37" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="310" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="A49">
+    <cfRule type="containsText" dxfId="308" priority="20" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="307" priority="21" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="containsText" dxfId="306" priority="18" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="305" priority="19" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="309" priority="34" operator="greaterThan">
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="308" priority="26" operator="greaterThan">
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="307" priority="25" operator="greaterThan">
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="306" priority="24" operator="greaterThan">
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A45">
-    <cfRule type="containsText" dxfId="305" priority="22" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="23" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="303" priority="15" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="16" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="301" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="cellIs" dxfId="300" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="299" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
+  <conditionalFormatting sqref="A50">
     <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
     <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
+  <conditionalFormatting sqref="G51">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -46092,7 +46358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE70253-1826-4643-ADA7-C9655C457177}">
   <dimension ref="A2:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+    <sheetView topLeftCell="D37" workbookViewId="0">
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
@@ -46117,24 +46383,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="141" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="I2" s="140" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="I2" s="141" t="s">
         <v>281</v>
       </c>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
     </row>
     <row r="3" spans="1:15" ht="38.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -46772,24 +47038,24 @@
       <c r="N16" s="73"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="I18" s="140" t="s">
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="I18" s="141" t="s">
         <v>289</v>
       </c>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="140"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="141"/>
     </row>
     <row r="19" spans="1:15" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -47510,24 +47776,24 @@
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="140" t="s">
+      <c r="A34" s="141" t="s">
         <v>267</v>
       </c>
-      <c r="B34" s="140"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="I34" s="140" t="s">
+      <c r="B34" s="141"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="I34" s="141" t="s">
         <v>290</v>
       </c>
-      <c r="J34" s="140"/>
-      <c r="K34" s="140"/>
-      <c r="L34" s="140"/>
-      <c r="M34" s="140"/>
-      <c r="N34" s="140"/>
-      <c r="O34" s="140"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="141"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="141"/>
     </row>
     <row r="35" spans="1:15" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
@@ -47693,20 +47959,20 @@
       </c>
       <c r="D38" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B38&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A38),('2020-CashLedger'!$G$2:$G$1998))</f>
-        <v>11200</v>
+        <v>14000</v>
       </c>
       <c r="E38" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B38&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A38),('2020-CashLedger'!$F$2:$F$1998))</f>
-        <v>0</v>
+        <v>2850</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="10"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122258(N) + 5000(H)</v>
+        <v>122208(N) + 5000(H)</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>29</v>
@@ -47741,7 +48007,7 @@
       </c>
       <c r="C39" s="36">
         <f t="shared" si="13"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="D39" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B39&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A39),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -47753,12 +48019,12 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="10"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122258(N) + 5000(H)</v>
+        <v>122208(N) + 5000(H)</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>6</v>
@@ -47793,7 +48059,7 @@
       </c>
       <c r="C40" s="36">
         <f t="shared" si="13"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="D40" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B40&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A40),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -47805,12 +48071,12 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="10"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122258(N) + 5000(H)</v>
+        <v>122208(N) + 5000(H)</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>30</v>
@@ -47845,7 +48111,7 @@
       </c>
       <c r="C41" s="36">
         <f t="shared" si="13"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="D41" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B41&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A41),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -47857,12 +48123,12 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="10"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="G41" s="29"/>
       <c r="H41" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122258(N) + 5000(H)</v>
+        <v>122208(N) + 5000(H)</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>31</v>
@@ -47897,7 +48163,7 @@
       </c>
       <c r="C42" s="36">
         <f t="shared" si="13"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="D42" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B42&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A42),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -47909,12 +48175,12 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="10"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122258(N) + 5000(H)</v>
+        <v>122208(N) + 5000(H)</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>32</v>
@@ -47949,7 +48215,7 @@
       </c>
       <c r="C43" s="36">
         <f t="shared" si="13"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="D43" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B43&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A43),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -47961,12 +48227,12 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="10"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="G43" s="29"/>
       <c r="H43" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122258(N) + 5000(H)</v>
+        <v>122208(N) + 5000(H)</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>33</v>
@@ -48001,7 +48267,7 @@
       </c>
       <c r="C44" s="36">
         <f t="shared" si="13"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="D44" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B44&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A44),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48013,12 +48279,12 @@
       </c>
       <c r="F44" s="36">
         <f t="shared" si="10"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="G44" s="29"/>
       <c r="H44" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122258(N) + 5000(H)</v>
+        <v>122208(N) + 5000(H)</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>34</v>
@@ -48053,7 +48319,7 @@
       </c>
       <c r="C45" s="36">
         <f t="shared" si="13"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="D45" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B45&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A45),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48065,12 +48331,12 @@
       </c>
       <c r="F45" s="36">
         <f t="shared" si="10"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="G45" s="29"/>
       <c r="H45" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122258(N) + 5000(H)</v>
+        <v>122208(N) + 5000(H)</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>35</v>
@@ -48105,7 +48371,7 @@
       </c>
       <c r="C46" s="36">
         <f t="shared" si="13"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="D46" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B46&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A46),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48117,12 +48383,12 @@
       </c>
       <c r="F46" s="36">
         <f t="shared" si="10"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122258(N) + 5000(H)</v>
+        <v>122208(N) + 5000(H)</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>36</v>
@@ -48157,7 +48423,7 @@
       </c>
       <c r="C47" s="36">
         <f t="shared" si="13"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="D47" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B47&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A47),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48169,12 +48435,12 @@
       </c>
       <c r="F47" s="36">
         <f t="shared" si="10"/>
-        <v>74658</v>
+        <v>74608</v>
       </c>
       <c r="G47" s="29"/>
       <c r="H47" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122258(N) + 5000(H)</v>
+        <v>122208(N) + 5000(H)</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>37</v>
@@ -48207,24 +48473,24 @@
       </c>
       <c r="C48" s="74">
         <f>SUM(C36:C47)/COUNT(C36:C47)</f>
-        <v>69247.916666666672</v>
+        <v>69210.416666666672</v>
       </c>
       <c r="D48" s="74">
         <f>SUM(D36:D47)/COUNT(D36:D47)</f>
-        <v>10033.333333333334</v>
+        <v>10266.666666666666</v>
       </c>
       <c r="E48" s="74">
         <f>SUM(E36:E47)/COUNT(E36:E47)</f>
-        <v>7100.25</v>
+        <v>7337.75</v>
       </c>
       <c r="F48" s="74">
         <f>SUM(F36:F47)/COUNT(F36:F47)</f>
-        <v>72181</v>
+        <v>72139.333333333328</v>
       </c>
       <c r="G48" s="73"/>
       <c r="H48" s="87">
         <f>(5000+H50)-(F47+M47)</f>
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="I48" s="75" t="s">
         <v>266</v>
@@ -48257,8 +48523,8 @@
         <f>SUM(H51:H65)</f>
         <v>122260</v>
       </c>
-      <c r="I50" s="143" t="s">
-        <v>402</v>
+      <c r="I50" s="122" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.3">
@@ -48266,7 +48532,7 @@
         <v>50000</v>
       </c>
       <c r="I51" s="89" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.3">
@@ -48274,7 +48540,7 @@
         <v>20000</v>
       </c>
       <c r="I52" s="89" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.3">
@@ -48282,7 +48548,7 @@
         <v>10000</v>
       </c>
       <c r="I53" s="89" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.3">
@@ -48290,7 +48556,7 @@
         <v>10000</v>
       </c>
       <c r="I54" s="89" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.3">
@@ -48298,7 +48564,7 @@
         <v>10000</v>
       </c>
       <c r="I55" s="89" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.3">
@@ -48306,7 +48572,7 @@
         <v>10000</v>
       </c>
       <c r="I56" s="89" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.3">
@@ -48314,7 +48580,7 @@
         <v>5000</v>
       </c>
       <c r="I57" s="89" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.3">
@@ -48322,7 +48588,7 @@
         <v>5000</v>
       </c>
       <c r="I58" s="89" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.3">
@@ -48330,7 +48596,7 @@
         <v>2000</v>
       </c>
       <c r="I59" s="89" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.3">
@@ -48338,7 +48604,7 @@
         <v>260</v>
       </c>
       <c r="I60" s="89" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.3">
@@ -48355,10 +48621,10 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="298" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="304" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52063,312 +52329,312 @@
     <sortCondition ref="A2:A300"/>
   </sortState>
   <conditionalFormatting sqref="A1 A8 A11:A13 A15 A17:A26">
-    <cfRule type="containsText" dxfId="296" priority="73" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="302" priority="73" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="74" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="301" priority="74" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="294" priority="71" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="300" priority="71" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="72" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="299" priority="72" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="containsText" dxfId="292" priority="53" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="298" priority="53" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="54" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="297" priority="54" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 A39:A64 A69:A71 A73 A183:A204 A76:A166 A216:A220 A168:A181 A206:A214 A222:A224 A226:A300">
-    <cfRule type="containsText" dxfId="290" priority="69" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="296" priority="69" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="70" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="295" priority="70" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A31">
-    <cfRule type="containsText" dxfId="288" priority="67" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="294" priority="67" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="68" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="293" priority="68" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="286" priority="65" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="292" priority="65" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="66" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="291" priority="66" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="284" priority="55" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="290" priority="55" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="56" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="289" priority="56" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="282" priority="63" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="288" priority="63" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="64" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="287" priority="64" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="280" priority="61" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="286" priority="61" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="62" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="285" priority="62" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="278" priority="59" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="284" priority="59" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="60" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="283" priority="60" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="containsText" dxfId="276" priority="57" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="282" priority="57" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="58" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="281" priority="58" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="274" priority="51" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="280" priority="51" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="52" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="279" priority="52" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:A68">
-    <cfRule type="containsText" dxfId="272" priority="49" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="278" priority="49" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="50" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="277" priority="50" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="270" priority="47" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="276" priority="47" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="48" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="275" priority="48" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="268" priority="45" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="274" priority="45" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="46" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="273" priority="46" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="containsText" dxfId="266" priority="43" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="272" priority="43" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="44" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="271" priority="44" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="containsText" dxfId="264" priority="41" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="270" priority="41" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="42" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="269" priority="42" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5 F180:F224 F226:F300 F8:F178">
-    <cfRule type="cellIs" dxfId="262" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="268" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G6 G180:G224 G226:G1048576 G8:G178">
-    <cfRule type="cellIs" dxfId="261" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="267" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5 F180:F224 F226:F1048576 F8:F178">
-    <cfRule type="cellIs" dxfId="260" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="266" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="containsText" dxfId="259" priority="36" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="265" priority="36" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="37" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="264" priority="37" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A88">
-    <cfRule type="containsText" dxfId="257" priority="34" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="263" priority="34" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="35" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="262" priority="35" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:A94">
-    <cfRule type="containsText" dxfId="255" priority="32" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="261" priority="32" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="33" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="260" priority="33" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="cellIs" dxfId="253" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="259" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179">
-    <cfRule type="cellIs" dxfId="252" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="cellIs" dxfId="251" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="257" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="containsText" dxfId="250" priority="27" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="256" priority="27" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="28" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="255" priority="28" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A182)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="248" priority="25" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="254" priority="25" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="26" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="253" priority="26" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="containsText" dxfId="246" priority="23" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="252" priority="23" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="24" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="251" priority="24" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A215">
-    <cfRule type="containsText" dxfId="244" priority="21" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="250" priority="21" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="22" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="249" priority="22" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A167">
-    <cfRule type="containsText" dxfId="242" priority="19" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="248" priority="19" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A167)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="20" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="247" priority="20" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205">
-    <cfRule type="containsText" dxfId="240" priority="17" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="246" priority="17" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A205)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="18" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="245" priority="18" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">
-    <cfRule type="containsText" dxfId="238" priority="15" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="244" priority="15" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A221)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="16" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="243" priority="16" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A221)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="236" priority="13" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="242" priority="13" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="14" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="241" priority="14" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="234" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="233" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="239" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="232" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="238" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="containsText" dxfId="231" priority="8" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="237" priority="8" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="9" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="236" priority="9" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="229" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="235" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="228" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="227" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="233" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="226" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="232" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="225" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="231" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="containsText" dxfId="224" priority="1" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="230" priority="1" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="2" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="229" priority="2" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52403,8 +52669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1867C039-E526-4A80-BC6A-8B7933D83DB8}">
   <dimension ref="A1:AR26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52418,32 +52684,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="142" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
       <c r="Y1" s="120"/>
       <c r="Z1" s="120"/>
       <c r="AA1" s="120"/>
@@ -53688,7 +53954,7 @@
       </c>
       <c r="D14" s="114">
         <f>COUNTIFS('2019-CashLedger'!$H:$H,"*"&amp;D$2&amp;"*",'2019-CashLedger'!$E:$E,"*"&amp;$A14&amp;"-"&amp;$B14&amp;"*") + COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;D$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A14&amp;"-"&amp;$B14&amp;"*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="114">
         <f>COUNTIFS('2019-CashLedger'!$H:$H,"*"&amp;E$2&amp;"*",'2019-CashLedger'!$E:$E,"*"&amp;$A14&amp;"-"&amp;$B14&amp;"*") + COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;E$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A14&amp;"-"&amp;$B14&amp;"*")</f>
@@ -53712,7 +53978,7 @@
       </c>
       <c r="J14" s="114">
         <f>COUNTIFS('2019-CashLedger'!$H:$H,"*"&amp;J$2&amp;"*",'2019-CashLedger'!$E:$E,"*"&amp;$A14&amp;"-"&amp;$B14&amp;"*") + COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;J$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A14&amp;"-"&amp;$B14&amp;"*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="114">
         <f>COUNTIFS('2019-CashLedger'!$H:$H,"*"&amp;K$2&amp;"*",'2019-CashLedger'!$E:$E,"*"&amp;$A14&amp;"-"&amp;$B14&amp;"*") + COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;K$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A14&amp;"-"&amp;$B14&amp;"*")</f>
@@ -53764,11 +54030,11 @@
       </c>
       <c r="W14" s="115">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X14" s="115">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.3">
@@ -53784,7 +54050,7 @@
       </c>
       <c r="D15" s="94">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;D$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A15&amp;"-"&amp;$B15&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;D$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A15&amp;"-"&amp;$B15&amp;"*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="94">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;E$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A15&amp;"-"&amp;$B15&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;E$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A15&amp;"-"&amp;$B15&amp;"*")</f>
@@ -53808,7 +54074,7 @@
       </c>
       <c r="J15" s="94">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;J$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A15&amp;"-"&amp;$B15&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;J$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A15&amp;"-"&amp;$B15&amp;"*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="94">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;K$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A15&amp;"-"&amp;$B15&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;K$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A15&amp;"-"&amp;$B15&amp;"*")</f>
@@ -53860,11 +54126,11 @@
       </c>
       <c r="W15" s="95">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="X15" s="95">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.3">
@@ -53904,7 +54170,7 @@
       </c>
       <c r="J16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;J$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;J$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;K$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;K$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
@@ -53956,11 +54222,11 @@
       </c>
       <c r="W16" s="99">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X16" s="99">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
@@ -54929,44 +55195,44 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C3:H26 J3:V26">
-    <cfRule type="cellIs" dxfId="222" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="10" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:AR5">
-    <cfRule type="cellIs" dxfId="221" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="9" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H26 J3:V26">
-    <cfRule type="cellIs" dxfId="220" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="225" priority="7" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I26">
-    <cfRule type="cellIs" dxfId="217" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="5" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I26">
-    <cfRule type="cellIs" dxfId="216" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="221" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X26">
-    <cfRule type="cellIs" dxfId="213" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="219" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2019-Accounts-Local.xlsx
+++ b/2019-Accounts-Local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Myworks\SaiPragnaEnclave\SPEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3A0DAF-653B-4697-88C7-96BF634E80D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ABCED9-67FC-4EB8-B80F-C828642F5990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="732" windowWidth="22920" windowHeight="12228" tabRatio="747" activeTab="6" xr2:uid="{43043216-F16B-4478-BC9B-74E33D699851}"/>
+    <workbookView xWindow="120" yWindow="732" windowWidth="22920" windowHeight="12228" tabRatio="747" activeTab="3" xr2:uid="{43043216-F16B-4478-BC9B-74E33D699851}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance Collection Summary" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="410">
   <si>
     <t>Date</t>
   </si>
@@ -1320,6 +1320,18 @@
   <si>
     <t>F304 (Paid by Aditya directly to Noor with 260 expense deducted)</t>
   </si>
+  <si>
+    <t>F303 (Paid through Secuirty ; deducted diesel bil)</t>
+  </si>
+  <si>
+    <t>F202, F204 (Paid by Madhu directly to Noor)</t>
+  </si>
+  <si>
+    <t>Diesel bill paid by Prakash (adj to maintenance)</t>
+  </si>
+  <si>
+    <t>Security Salary paid for Feb -2020</t>
+  </si>
 </sst>
 </file>
 
@@ -2506,7 +2518,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="866">
+  <dxfs count="886">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2649,6 +2661,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2659,6 +2681,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2689,6 +2721,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -5539,6 +5581,176 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -19174,110 +19386,110 @@
     <mergeCell ref="A26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="E33:P52">
-    <cfRule type="containsText" dxfId="865" priority="52" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="885" priority="52" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="864" priority="53" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="884" priority="53" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="863" priority="54" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="883" priority="54" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",E33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="containsText" dxfId="862" priority="49" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="882" priority="49" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="861" priority="50" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="881" priority="50" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="860" priority="51" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="880" priority="51" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="859" priority="46" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="879" priority="46" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="858" priority="47" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="878" priority="47" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="857" priority="48" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="877" priority="48" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:P54">
-    <cfRule type="cellIs" dxfId="856" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="876" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="855" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="875" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:P53">
-    <cfRule type="cellIs" dxfId="854" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="874" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="853" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="873" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D52">
-    <cfRule type="cellIs" dxfId="852" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="872" priority="16" operator="equal">
       <formula>"Tenant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:P23">
-    <cfRule type="containsText" dxfId="851" priority="12" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="871" priority="12" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="850" priority="13" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="870" priority="13" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="849" priority="14" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="869" priority="14" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="848" priority="9" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="868" priority="9" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="847" priority="10" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="867" priority="10" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="846" priority="11" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="866" priority="11" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="containsText" dxfId="845" priority="6" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="865" priority="6" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="844" priority="7" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="864" priority="7" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="843" priority="8" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="863" priority="8" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:P25">
-    <cfRule type="cellIs" dxfId="842" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="862" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="841" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="861" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:P24">
-    <cfRule type="cellIs" dxfId="840" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="860" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="839" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="859" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D23">
-    <cfRule type="cellIs" dxfId="838" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="858" priority="1" operator="equal">
       <formula>"Tenant"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24506,906 +24718,906 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9 A1:A3 A203:A207 A209:A212 A11">
-    <cfRule type="containsText" dxfId="218" priority="201" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="221" priority="201" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="202" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="220" priority="202" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A33">
-    <cfRule type="containsText" dxfId="216" priority="189" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="219" priority="189" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="190" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="218" priority="190" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A298">
-    <cfRule type="containsText" dxfId="214" priority="199" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="217" priority="199" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="200" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="216" priority="200" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="containsText" dxfId="212" priority="197" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="215" priority="197" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="198" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="214" priority="198" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="210" priority="195" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="213" priority="195" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="196" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="212" priority="196" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="containsText" dxfId="208" priority="193" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="211" priority="193" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="194" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="210" priority="194" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="206" priority="191" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="209" priority="191" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="192" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="208" priority="192" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="204" priority="187" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="207" priority="187" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="188" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="206" priority="188" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A65">
-    <cfRule type="containsText" dxfId="202" priority="185" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="205" priority="185" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="186" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="204" priority="186" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="200" priority="183" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="203" priority="183" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="184" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="202" priority="184" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="198" priority="181" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="201" priority="181" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="182" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="200" priority="182" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="196" priority="179" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="199" priority="179" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="180" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="198" priority="180" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="194" priority="177" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="197" priority="177" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="178" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="196" priority="178" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F298">
-    <cfRule type="cellIs" dxfId="192" priority="176" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="176" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G306:G1048576 G2:G298">
-    <cfRule type="cellIs" dxfId="191" priority="175" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="175" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306:F1048576 F2:F298">
-    <cfRule type="cellIs" dxfId="190" priority="174" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="174" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="189" priority="172" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="192" priority="172" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="173" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="191" priority="173" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="187" priority="170" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="190" priority="170" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="171" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="189" priority="171" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="185" priority="168" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="188" priority="168" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="169" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="187" priority="169" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="183" priority="167" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="167" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="182" priority="166" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="166" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="181" priority="165" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="165" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="180" priority="163" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="183" priority="163" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="164" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="182" priority="164" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="178" priority="161" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="181" priority="161" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="162" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="180" priority="162" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="containsText" dxfId="176" priority="159" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="179" priority="159" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="160" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="178" priority="160" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="174" priority="157" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="177" priority="157" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="158" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="176" priority="158" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="containsText" dxfId="172" priority="155" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="175" priority="155" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="156" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="174" priority="156" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="170" priority="153" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="173" priority="153" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="154" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="172" priority="154" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="168" priority="152" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="152" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="167" priority="151" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="151" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="166" priority="150" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="150" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="containsText" dxfId="165" priority="148" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="168" priority="148" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="149" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="167" priority="149" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="163" priority="147" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="147" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G224">
-    <cfRule type="cellIs" dxfId="162" priority="146" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="146" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="161" priority="145" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="145" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="160" priority="143" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="163" priority="143" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="144" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="162" priority="144" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="158" priority="142" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="142" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="157" priority="141" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="141" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="156" priority="140" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="140" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="155" priority="138" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="158" priority="138" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="139" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="157" priority="139" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208">
-    <cfRule type="cellIs" dxfId="153" priority="137" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="137" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208">
-    <cfRule type="cellIs" dxfId="152" priority="136" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="136" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A226">
-    <cfRule type="containsText" dxfId="151" priority="134" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="154" priority="134" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="135" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="153" priority="135" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F226">
-    <cfRule type="cellIs" dxfId="149" priority="133" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="133" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G226">
-    <cfRule type="cellIs" dxfId="148" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="132" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="147" priority="131" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="131" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G299">
-    <cfRule type="cellIs" dxfId="146" priority="130" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="130" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="145" priority="128" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="148" priority="128" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="129" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="147" priority="129" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="cellIs" dxfId="143" priority="127" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="127" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="cellIs" dxfId="142" priority="126" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="126" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="141" priority="124" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="144" priority="124" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="125" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="143" priority="125" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="139" priority="122" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="142" priority="122" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="123" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="141" priority="123" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F301">
-    <cfRule type="cellIs" dxfId="137" priority="121" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="121" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301">
-    <cfRule type="cellIs" dxfId="136" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="120" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="containsText" dxfId="135" priority="118" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="138" priority="118" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="119" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="137" priority="119" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F302">
-    <cfRule type="cellIs" dxfId="133" priority="117" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="117" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302">
-    <cfRule type="cellIs" dxfId="132" priority="116" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="116" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="131" priority="114" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="134" priority="114" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="115" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="133" priority="115" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="129" priority="113" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="113" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="128" priority="112" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="112" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="127" priority="110" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="130" priority="110" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="111" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="129" priority="111" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="125" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="109" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="124" priority="108" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="108" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="123" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="107" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="122" priority="105" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="125" priority="105" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="106" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="124" priority="106" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="120" priority="104" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="104" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="119" priority="103" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="103" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="118" priority="101" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="121" priority="101" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="102" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="120" priority="102" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="116" priority="100" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="100" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="115" priority="99" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="99" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="114" priority="98" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="98" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G17">
-    <cfRule type="cellIs" dxfId="113" priority="97" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="97" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="112" priority="96" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="96" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="111" priority="95" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="95" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="110" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="94" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="109" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="93" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="108" priority="91" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="111" priority="91" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="92" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="110" priority="92" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="106" priority="89" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="109" priority="89" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="90" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="108" priority="90" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="104" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="88" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="103" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="87" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="102" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="101" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="85" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="100" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="84" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="99" priority="83" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="83" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="98" priority="81" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="101" priority="81" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="82" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="100" priority="82" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="96" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="95" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="79" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="94" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="78" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="93" priority="76" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="96" priority="76" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="77" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="95" priority="77" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="91" priority="74" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="94" priority="74" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="75" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="93" priority="75" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="89" priority="72" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="92" priority="72" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="73" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="91" priority="73" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="87" priority="70" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="90" priority="70" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="71" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="89" priority="71" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="85" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="69" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="84" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="68" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="83" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="67" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="82" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="81" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="65" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="80" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="64" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="79" priority="62" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="82" priority="62" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="63" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="81" priority="63" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="77" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="76" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="75" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="74" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="73" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="57" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="72" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="71" priority="54" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="74" priority="54" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="55" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="73" priority="55" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="69" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="68" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="67" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="66" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="65" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="64" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="63" priority="46" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="66" priority="46" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="47" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="65" priority="47" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="61" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="60" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="59" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="58" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="57" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="56" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="55" priority="38" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="58" priority="38" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="57" priority="39" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="53" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="52" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="51" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="50" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="49" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="48" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="47" priority="30" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="50" priority="30" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="31" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="49" priority="31" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="45" priority="28" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="48" priority="28" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="29" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="43" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:G28">
-    <cfRule type="cellIs" dxfId="42" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="41" priority="24" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="44" priority="24" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="43" priority="25" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="39" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="containsText" dxfId="37" priority="20" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="21" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="35" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="33" priority="16" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="17" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30743,499 +30955,499 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9:A11 A13 A1 A15:A23 A203:A207 A209:A212 A3">
-    <cfRule type="containsText" dxfId="837" priority="114" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="857" priority="114" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="836" priority="115" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="856" priority="115" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="835" priority="112" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="855" priority="112" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="834" priority="113" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="854" priority="113" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A33">
-    <cfRule type="containsText" dxfId="833" priority="94" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="853" priority="94" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="832" priority="95" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="852" priority="95" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A298">
-    <cfRule type="containsText" dxfId="831" priority="110" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="851" priority="110" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="830" priority="111" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="850" priority="111" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A28">
-    <cfRule type="containsText" dxfId="829" priority="108" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="849" priority="108" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="828" priority="109" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="848" priority="109" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="827" priority="106" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="847" priority="106" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="826" priority="107" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="846" priority="107" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="825" priority="96" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="845" priority="96" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="824" priority="97" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="844" priority="97" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="823" priority="104" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="843" priority="104" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="822" priority="105" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="842" priority="105" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="821" priority="102" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="841" priority="102" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="820" priority="103" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="840" priority="103" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="containsText" dxfId="819" priority="100" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="839" priority="100" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="818" priority="101" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="838" priority="101" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="817" priority="98" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="837" priority="98" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="816" priority="99" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="836" priority="99" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="815" priority="92" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="835" priority="92" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="814" priority="93" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="834" priority="93" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A65">
-    <cfRule type="containsText" dxfId="813" priority="90" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="833" priority="90" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="812" priority="91" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="832" priority="91" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="811" priority="88" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="831" priority="88" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="810" priority="89" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="830" priority="89" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="809" priority="86" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="829" priority="86" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="808" priority="87" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="828" priority="87" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="807" priority="84" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="827" priority="84" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="806" priority="85" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="826" priority="85" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="805" priority="82" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="825" priority="82" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="804" priority="83" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="824" priority="83" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F298">
-    <cfRule type="cellIs" dxfId="803" priority="81" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="823" priority="81" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G306:G1048576 G3:G298">
-    <cfRule type="cellIs" dxfId="802" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="822" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306:F1048576 F3:F298">
-    <cfRule type="cellIs" dxfId="801" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="821" priority="79" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="800" priority="77" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="820" priority="77" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="799" priority="78" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="819" priority="78" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="798" priority="75" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="818" priority="75" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="797" priority="76" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="817" priority="76" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="796" priority="73" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="816" priority="73" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="795" priority="74" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="815" priority="74" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="794" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="814" priority="72" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="793" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="813" priority="71" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="792" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="812" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="791" priority="68" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="811" priority="68" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="790" priority="69" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="810" priority="69" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="789" priority="66" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="809" priority="66" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="788" priority="67" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="808" priority="67" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="787" priority="64" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="807" priority="64" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="786" priority="65" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="806" priority="65" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="containsText" dxfId="785" priority="62" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="805" priority="62" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="784" priority="63" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="804" priority="63" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="783" priority="60" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="803" priority="60" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="782" priority="61" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="802" priority="61" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="containsText" dxfId="781" priority="58" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="801" priority="58" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="780" priority="59" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="800" priority="59" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="779" priority="56" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="799" priority="56" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="778" priority="57" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="798" priority="57" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="777" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="797" priority="55" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="776" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="796" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="775" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="795" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="containsText" dxfId="774" priority="51" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="794" priority="51" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="773" priority="52" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="793" priority="52" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="772" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="792" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G224">
-    <cfRule type="cellIs" dxfId="771" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="791" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="770" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="790" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="769" priority="46" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="789" priority="46" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="768" priority="47" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="788" priority="47" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="767" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="787" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="766" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="786" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="765" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="785" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="764" priority="41" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="784" priority="41" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="763" priority="42" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="783" priority="42" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208">
-    <cfRule type="cellIs" dxfId="762" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="782" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208">
-    <cfRule type="cellIs" dxfId="761" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="781" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A226">
-    <cfRule type="containsText" dxfId="760" priority="37" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="780" priority="37" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="759" priority="38" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="779" priority="38" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F226">
-    <cfRule type="cellIs" dxfId="758" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="778" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G226">
-    <cfRule type="cellIs" dxfId="757" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="777" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="756" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="776" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G299">
-    <cfRule type="cellIs" dxfId="755" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="775" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="754" priority="31" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="774" priority="31" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="753" priority="32" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="773" priority="32" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="cellIs" dxfId="752" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="772" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="cellIs" dxfId="751" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="771" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="750" priority="27" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="770" priority="27" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="749" priority="28" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="769" priority="28" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="748" priority="25" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="768" priority="25" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="747" priority="26" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="767" priority="26" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F301">
-    <cfRule type="cellIs" dxfId="746" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="766" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301">
-    <cfRule type="cellIs" dxfId="745" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="765" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="containsText" dxfId="744" priority="21" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="764" priority="21" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="743" priority="22" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="763" priority="22" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F302">
-    <cfRule type="cellIs" dxfId="742" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="762" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302">
-    <cfRule type="cellIs" dxfId="741" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="761" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="740" priority="17" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="760" priority="17" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="739" priority="18" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="759" priority="18" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="738" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="758" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="737" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="757" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="736" priority="13" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="756" priority="13" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="735" priority="14" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="755" priority="14" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="734" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="754" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="733" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="753" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="732" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="752" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="731" priority="8" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="751" priority="8" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="730" priority="9" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="750" priority="9" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="729" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="749" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="728" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="748" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="727" priority="4" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="747" priority="4" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="726" priority="5" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="746" priority="5" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="725" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="745" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="724" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="744" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="723" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="743" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38678,622 +38890,622 @@
     <sortCondition ref="F2:F309"/>
   </sortState>
   <conditionalFormatting sqref="A9:A11 A13 A1:A3 A15:A16 A203:A207 A209:A212 A18:A24">
-    <cfRule type="containsText" dxfId="722" priority="163" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="742" priority="163" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="721" priority="164" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="741" priority="164" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="720" priority="161" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="740" priority="161" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="719" priority="162" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="739" priority="162" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A34">
-    <cfRule type="containsText" dxfId="718" priority="133" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="738" priority="133" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="717" priority="134" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="737" priority="134" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A37:A61 A66:A68 A70 A180:A201 A73:A163 A214:A218 A165:A178 A220:A222 A227 A237:A298">
-    <cfRule type="containsText" dxfId="716" priority="157" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="736" priority="157" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="715" priority="158" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="735" priority="158" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A29">
-    <cfRule type="containsText" dxfId="714" priority="155" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="734" priority="155" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="713" priority="156" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="733" priority="156" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="712" priority="153" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="732" priority="153" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="711" priority="154" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="731" priority="154" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="710" priority="137" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="730" priority="137" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="709" priority="138" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="729" priority="138" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="708" priority="149" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="728" priority="149" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="707" priority="150" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="727" priority="150" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="706" priority="147" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="726" priority="147" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="705" priority="148" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="725" priority="148" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="containsText" dxfId="704" priority="141" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="724" priority="141" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="703" priority="142" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="723" priority="142" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="702" priority="139" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="722" priority="139" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="701" priority="140" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="721" priority="140" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="700" priority="131" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="720" priority="131" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="699" priority="132" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="719" priority="132" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A65">
-    <cfRule type="containsText" dxfId="698" priority="129" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="718" priority="129" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="697" priority="130" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="717" priority="130" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="696" priority="127" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="716" priority="127" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="695" priority="128" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="715" priority="128" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="694" priority="125" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="714" priority="125" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="693" priority="126" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="713" priority="126" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="692" priority="123" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="712" priority="123" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="691" priority="124" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="711" priority="124" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="690" priority="121" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="710" priority="121" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="689" priority="122" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="709" priority="122" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F227 F2:F16 F177:F207 F209:F212 F237:F298 F214:F222 F18:F175">
-    <cfRule type="cellIs" dxfId="688" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="708" priority="120" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G227 G2:G16 G177:G207 G209:G212 G310:G1048576 G237:G298 G214:G222 G18:G175">
-    <cfRule type="cellIs" dxfId="687" priority="119" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="707" priority="119" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F227 F310:F1048576 F237:F298">
-    <cfRule type="cellIs" dxfId="686" priority="118" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="706" priority="118" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="685" priority="116" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="705" priority="116" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="684" priority="117" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="704" priority="117" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="683" priority="114" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="703" priority="114" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="682" priority="115" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="702" priority="115" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="681" priority="112" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="701" priority="112" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="680" priority="113" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="700" priority="113" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="679" priority="111" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="699" priority="111" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="678" priority="110" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="698" priority="110" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="677" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="697" priority="109" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="676" priority="107" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="696" priority="107" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="675" priority="108" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="695" priority="108" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="674" priority="105" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="694" priority="105" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="673" priority="106" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="693" priority="106" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="containsText" dxfId="672" priority="99" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="692" priority="99" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="671" priority="100" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="691" priority="100" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="670" priority="97" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="690" priority="97" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="669" priority="98" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="689" priority="98" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="containsText" dxfId="668" priority="95" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="688" priority="95" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="667" priority="96" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="687" priority="96" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="666" priority="93" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="686" priority="93" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="665" priority="94" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="685" priority="94" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="664" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="684" priority="92" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="663" priority="91" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="683" priority="91" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="662" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="682" priority="90" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="containsText" dxfId="661" priority="88" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="681" priority="88" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="660" priority="89" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="680" priority="89" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="659" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="679" priority="87" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G224">
-    <cfRule type="cellIs" dxfId="658" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="678" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="657" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="677" priority="85" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="656" priority="83" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="676" priority="83" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="655" priority="84" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="675" priority="84" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="654" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="674" priority="82" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="653" priority="81" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="673" priority="81" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="652" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="672" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="651" priority="78" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="671" priority="78" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="650" priority="79" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="670" priority="79" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208">
-    <cfRule type="cellIs" dxfId="649" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="669" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208">
-    <cfRule type="cellIs" dxfId="648" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="668" priority="76" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A226">
-    <cfRule type="containsText" dxfId="647" priority="74" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="667" priority="74" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="646" priority="75" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="666" priority="75" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F226">
-    <cfRule type="cellIs" dxfId="645" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="665" priority="73" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G226">
-    <cfRule type="cellIs" dxfId="644" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="664" priority="72" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="643" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="663" priority="71" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G299">
-    <cfRule type="cellIs" dxfId="642" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="662" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="641" priority="68" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="661" priority="68" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="640" priority="69" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="660" priority="69" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="cellIs" dxfId="639" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="659" priority="67" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="cellIs" dxfId="638" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="658" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="637" priority="64" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="657" priority="64" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="636" priority="65" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="656" priority="65" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="635" priority="62" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="655" priority="62" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="634" priority="63" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="654" priority="63" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F301">
-    <cfRule type="cellIs" dxfId="633" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="653" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301">
-    <cfRule type="cellIs" dxfId="632" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="652" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="containsText" dxfId="631" priority="58" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="651" priority="58" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="630" priority="59" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="650" priority="59" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F302">
-    <cfRule type="cellIs" dxfId="629" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="649" priority="57" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302">
-    <cfRule type="cellIs" dxfId="628" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="648" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="627" priority="54" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="647" priority="54" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="626" priority="55" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="646" priority="55" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="625" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="645" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="624" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="644" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="623" priority="50" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="643" priority="50" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="622" priority="51" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="642" priority="51" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="621" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="641" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="620" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="640" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="619" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="639" priority="47" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="618" priority="45" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="638" priority="45" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="617" priority="46" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="637" priority="46" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="616" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="636" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="615" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="635" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="614" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="634" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="613" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="633" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="612" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="632" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="611" priority="38" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="631" priority="38" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="610" priority="39" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="630" priority="39" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A306">
-    <cfRule type="containsText" dxfId="609" priority="36" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="629" priority="36" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A306)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="608" priority="37" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="628" priority="37" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A306)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306">
-    <cfRule type="cellIs" dxfId="607" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="627" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G306">
-    <cfRule type="cellIs" dxfId="606" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="626" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306">
-    <cfRule type="cellIs" dxfId="605" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="625" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A307">
-    <cfRule type="containsText" dxfId="604" priority="31" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="624" priority="31" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A307)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="603" priority="32" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="623" priority="32" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F307">
-    <cfRule type="cellIs" dxfId="602" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="622" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G307">
-    <cfRule type="cellIs" dxfId="601" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="621" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A228 A230:A236">
-    <cfRule type="containsText" dxfId="600" priority="19" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="620" priority="19" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="599" priority="20" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="619" priority="20" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F228:F236">
-    <cfRule type="cellIs" dxfId="598" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="618" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G228:G236">
-    <cfRule type="cellIs" dxfId="597" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="617" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F228:F236">
-    <cfRule type="cellIs" dxfId="596" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="616" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="595" priority="14" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="615" priority="14" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="594" priority="15" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="614" priority="15" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F213">
-    <cfRule type="cellIs" dxfId="593" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="613" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G213">
-    <cfRule type="cellIs" dxfId="592" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="612" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F213">
-    <cfRule type="cellIs" dxfId="591" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="611" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A308">
-    <cfRule type="containsText" dxfId="590" priority="9" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="610" priority="9" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A308)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="589" priority="10" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="609" priority="10" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A308)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F308">
-    <cfRule type="cellIs" dxfId="588" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="608" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G308">
-    <cfRule type="cellIs" dxfId="587" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="607" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A309">
-    <cfRule type="containsText" dxfId="586" priority="5" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="606" priority="5" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A309)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="585" priority="6" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="605" priority="6" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A309)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F309">
-    <cfRule type="cellIs" dxfId="584" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="604" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G309">
-    <cfRule type="cellIs" dxfId="583" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="603" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A229">
-    <cfRule type="containsText" dxfId="582" priority="1" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="602" priority="1" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="581" priority="2" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="601" priority="2" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A229)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39329,11 +39541,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283E99DB-5B81-49A4-A177-A53DC6599DEA}">
   <dimension ref="A1:H305"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40688,85 +40900,128 @@
         <v>390</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" s="17">
+        <v>43895</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>391</v>
+      </c>
       <c r="F52" s="16">
         <v>0</v>
       </c>
       <c r="G52" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="21"/>
+        <v>2800</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="17">
+        <v>43895</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>391</v>
+      </c>
       <c r="F53" s="16">
         <v>0</v>
       </c>
       <c r="G53" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="21"/>
+        <v>2800</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="18"/>
+      <c r="B54" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="17">
+        <v>43895</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="F54" s="16">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G54" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="21"/>
+        <f>IF(A54="Expense / Out-Flow","-",0)</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="80" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D55" s="17">
+        <v>43895</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>391</v>
+      </c>
       <c r="F55" s="16">
         <v>0</v>
       </c>
       <c r="G55" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="21"/>
+        <v>5600</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="16">
-        <v>0</v>
-      </c>
+      <c r="B56" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="17">
+        <v>43900</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="F56" s="16"/>
       <c r="G56" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -45012,1318 +45267,1404 @@
     <sortCondition descending="1" ref="A2:A305"/>
   </sortState>
   <conditionalFormatting sqref="A9 A1:A3 A203:A207 A209:A212 A11">
-    <cfRule type="containsText" dxfId="580" priority="365" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="600" priority="385" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="579" priority="366" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="599" priority="386" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11 A43:A45 A47:A48 A52:A298">
-    <cfRule type="containsText" dxfId="578" priority="361" operator="containsText" text="Revenue (Cash-In)">
+  <conditionalFormatting sqref="A11 A43:A45 A47:A48 A52:A53 A57:A298">
+    <cfRule type="containsText" dxfId="598" priority="381" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="577" priority="362" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="597" priority="382" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="containsText" dxfId="576" priority="351" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="596" priority="371" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="575" priority="352" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="595" priority="372" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="574" priority="349" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="594" priority="369" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="573" priority="350" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="593" priority="370" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A65">
-    <cfRule type="containsText" dxfId="572" priority="341" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="592" priority="361" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="571" priority="342" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="591" priority="362" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
+    <cfRule type="containsText" dxfId="590" priority="359" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="589" priority="360" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="containsText" dxfId="588" priority="357" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="587" priority="358" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="containsText" dxfId="586" priority="355" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="585" priority="356" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="containsText" dxfId="584" priority="353" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="583" priority="354" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3 F11 F17 F5:F9 F35:F36 F38:F39 F43:F48 F52:F53 F55:F298">
+    <cfRule type="cellIs" dxfId="582" priority="352" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G306:G1048576 G2:G3 G11 G17 G5:G9 G35:G36 G38:G39 G43:G48 G52:G53 G55:G298">
+    <cfRule type="cellIs" dxfId="581" priority="351" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F306:F1048576 F11 F17 F35:F36 F38:F39 F43:F48 F52:F53 F55:F298">
+    <cfRule type="cellIs" dxfId="580" priority="350" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79">
+    <cfRule type="containsText" dxfId="579" priority="348" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="578" priority="349" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:A85">
+    <cfRule type="containsText" dxfId="577" priority="346" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="576" priority="347" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88:A91">
+    <cfRule type="containsText" dxfId="575" priority="344" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="574" priority="345" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F176">
+    <cfRule type="cellIs" dxfId="573" priority="343" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G176">
+    <cfRule type="cellIs" dxfId="572" priority="342" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F176">
+    <cfRule type="cellIs" dxfId="571" priority="341" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="containsText" dxfId="570" priority="339" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="569" priority="340" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="568" priority="337" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="567" priority="338" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="566" priority="335" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="565" priority="336" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="564" priority="333" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="563" priority="334" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3 F11 F17 F5:F9 F35:F36 F38:F39 F43:F48 F52:F298">
-    <cfRule type="cellIs" dxfId="562" priority="332" operator="greaterThan">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213">
+    <cfRule type="containsText" dxfId="568" priority="335" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="567" priority="336" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A164">
+    <cfRule type="containsText" dxfId="566" priority="333" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="565" priority="334" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A202">
+    <cfRule type="containsText" dxfId="564" priority="331" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="563" priority="332" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A219">
+    <cfRule type="containsText" dxfId="562" priority="329" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="561" priority="330" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A223">
+    <cfRule type="containsText" dxfId="560" priority="327" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="559" priority="328" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F223">
+    <cfRule type="cellIs" dxfId="558" priority="326" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G306:G1048576 G2:G3 G11 G17 G5:G9 G35:G36 G38:G39 G43:G48 G52:G298">
-    <cfRule type="cellIs" dxfId="561" priority="331" operator="greaterThan">
+  <conditionalFormatting sqref="G223">
+    <cfRule type="cellIs" dxfId="557" priority="325" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F306:F1048576 F11 F17 F35:F36 F38:F39 F43:F48 F52:F298">
-    <cfRule type="cellIs" dxfId="560" priority="330" operator="greaterThan">
+  <conditionalFormatting sqref="F223">
+    <cfRule type="cellIs" dxfId="556" priority="324" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="559" priority="328" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="558" priority="329" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="557" priority="326" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="556" priority="327" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="555" priority="324" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="554" priority="325" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="553" priority="323" operator="greaterThan">
+  <conditionalFormatting sqref="A224">
+    <cfRule type="containsText" dxfId="555" priority="322" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="554" priority="323" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F224">
+    <cfRule type="cellIs" dxfId="553" priority="321" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="552" priority="322" operator="greaterThan">
+  <conditionalFormatting sqref="G224">
+    <cfRule type="cellIs" dxfId="552" priority="320" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="551" priority="321" operator="greaterThan">
+  <conditionalFormatting sqref="F224">
+    <cfRule type="cellIs" dxfId="551" priority="319" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="550" priority="319" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="549" priority="320" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="548" priority="315" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="547" priority="316" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A164">
-    <cfRule type="containsText" dxfId="546" priority="313" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="545" priority="314" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="544" priority="311" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="543" priority="312" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A219">
-    <cfRule type="containsText" dxfId="542" priority="309" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="541" priority="310" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="540" priority="307" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="539" priority="308" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F223">
+  <conditionalFormatting sqref="A225">
+    <cfRule type="containsText" dxfId="550" priority="317" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="549" priority="318" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F225">
+    <cfRule type="cellIs" dxfId="548" priority="316" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G225">
+    <cfRule type="cellIs" dxfId="547" priority="315" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F225">
+    <cfRule type="cellIs" dxfId="546" priority="314" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208">
+    <cfRule type="containsText" dxfId="545" priority="312" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="544" priority="313" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F208">
+    <cfRule type="cellIs" dxfId="543" priority="311" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G208">
+    <cfRule type="cellIs" dxfId="542" priority="310" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A226">
+    <cfRule type="containsText" dxfId="541" priority="308" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="540" priority="309" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F226">
+    <cfRule type="cellIs" dxfId="539" priority="307" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G226">
     <cfRule type="cellIs" dxfId="538" priority="306" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G223">
+  <conditionalFormatting sqref="F299">
     <cfRule type="cellIs" dxfId="537" priority="305" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F223">
+  <conditionalFormatting sqref="G299">
     <cfRule type="cellIs" dxfId="536" priority="304" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A224">
+  <conditionalFormatting sqref="A299">
     <cfRule type="containsText" dxfId="535" priority="302" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="534" priority="303" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F224">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F300">
     <cfRule type="cellIs" dxfId="533" priority="301" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G224">
+  <conditionalFormatting sqref="G300">
     <cfRule type="cellIs" dxfId="532" priority="300" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="531" priority="299" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="530" priority="297" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="529" priority="298" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="528" priority="296" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G225">
+  <conditionalFormatting sqref="A300">
+    <cfRule type="containsText" dxfId="531" priority="298" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="530" priority="299" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A301">
+    <cfRule type="containsText" dxfId="529" priority="296" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="528" priority="297" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F301">
     <cfRule type="cellIs" dxfId="527" priority="295" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F225">
+  <conditionalFormatting sqref="G301">
     <cfRule type="cellIs" dxfId="526" priority="294" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A208">
+  <conditionalFormatting sqref="A302">
     <cfRule type="containsText" dxfId="525" priority="292" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="524" priority="293" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F208">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F302">
     <cfRule type="cellIs" dxfId="523" priority="291" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G208">
+  <conditionalFormatting sqref="G302">
     <cfRule type="cellIs" dxfId="522" priority="290" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A226">
+  <conditionalFormatting sqref="A303">
     <cfRule type="containsText" dxfId="521" priority="288" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="520" priority="289" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F226">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F303">
     <cfRule type="cellIs" dxfId="519" priority="287" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G226">
+  <conditionalFormatting sqref="G303">
     <cfRule type="cellIs" dxfId="518" priority="286" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="517" priority="285" operator="greaterThan">
+  <conditionalFormatting sqref="A304">
+    <cfRule type="containsText" dxfId="517" priority="284" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="516" priority="285" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F304">
+    <cfRule type="cellIs" dxfId="515" priority="283" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G299">
-    <cfRule type="cellIs" dxfId="516" priority="284" operator="greaterThan">
+  <conditionalFormatting sqref="G304:G305">
+    <cfRule type="cellIs" dxfId="514" priority="282" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="515" priority="282" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="514" priority="283" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F300">
+  <conditionalFormatting sqref="F304">
     <cfRule type="cellIs" dxfId="513" priority="281" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G300">
-    <cfRule type="cellIs" dxfId="512" priority="280" operator="greaterThan">
+  <conditionalFormatting sqref="A305">
+    <cfRule type="containsText" dxfId="512" priority="279" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="511" priority="280" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F305">
+    <cfRule type="cellIs" dxfId="510" priority="278" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="511" priority="278" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="510" priority="279" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="509" priority="276" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="508" priority="277" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F301">
-    <cfRule type="cellIs" dxfId="507" priority="275" operator="greaterThan">
+  <conditionalFormatting sqref="F305">
+    <cfRule type="cellIs" dxfId="509" priority="277" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G301">
+  <conditionalFormatting sqref="A10">
+    <cfRule type="containsText" dxfId="508" priority="275" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="507" priority="276" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
     <cfRule type="cellIs" dxfId="506" priority="274" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A302">
-    <cfRule type="containsText" dxfId="505" priority="272" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="504" priority="273" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F302">
-    <cfRule type="cellIs" dxfId="503" priority="271" operator="greaterThan">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="505" priority="273" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G302">
-    <cfRule type="cellIs" dxfId="502" priority="270" operator="greaterThan">
+  <conditionalFormatting sqref="F13 F17">
+    <cfRule type="cellIs" dxfId="504" priority="270" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="501" priority="268" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="500" priority="269" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="499" priority="267" operator="greaterThan">
+  <conditionalFormatting sqref="G13 G17">
+    <cfRule type="cellIs" dxfId="503" priority="269" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="498" priority="266" operator="greaterThan">
+  <conditionalFormatting sqref="F13 F17">
+    <cfRule type="cellIs" dxfId="502" priority="268" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="497" priority="264" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="496" priority="265" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="495" priority="263" operator="greaterThan">
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="501" priority="259" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="494" priority="262" operator="greaterThan">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="500" priority="258" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="493" priority="261" operator="greaterThan">
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="499" priority="257" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="492" priority="259" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="491" priority="260" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="490" priority="258" operator="greaterThan">
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="containsText" dxfId="498" priority="255" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="497" priority="256" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="containsText" dxfId="496" priority="253" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="495" priority="254" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F16">
+    <cfRule type="cellIs" dxfId="494" priority="252" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="489" priority="257" operator="greaterThan">
+  <conditionalFormatting sqref="G15:G16">
+    <cfRule type="cellIs" dxfId="493" priority="251" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="488" priority="255" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="487" priority="256" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="486" priority="254" operator="greaterThan">
+  <conditionalFormatting sqref="F15:F16">
+    <cfRule type="cellIs" dxfId="492" priority="250" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="485" priority="253" operator="greaterThan">
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="491" priority="245" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="484" priority="250" operator="greaterThan">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="490" priority="244" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13 G17">
-    <cfRule type="cellIs" dxfId="483" priority="249" operator="greaterThan">
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="489" priority="243" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="482" priority="248" operator="greaterThan">
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="488" priority="241" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="487" priority="242" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="486" priority="240" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="481" priority="239" operator="greaterThan">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="485" priority="239" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="480" priority="238" operator="greaterThan">
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="484" priority="238" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="479" priority="237" operator="greaterThan">
+  <conditionalFormatting sqref="A12">
+    <cfRule type="containsText" dxfId="483" priority="236" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="482" priority="237" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="containsText" dxfId="481" priority="234" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="480" priority="235" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="containsText" dxfId="479" priority="232" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="478" priority="233" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="containsText" dxfId="477" priority="230" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="476" priority="231" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="475" priority="229" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="478" priority="235" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="477" priority="236" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="476" priority="233" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="475" priority="234" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="474" priority="232" operator="greaterThan">
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="474" priority="228" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="473" priority="231" operator="greaterThan">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="473" priority="227" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="472" priority="230" operator="greaterThan">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="472" priority="226" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="G18">
     <cfRule type="cellIs" dxfId="471" priority="225" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="F18">
     <cfRule type="cellIs" dxfId="470" priority="224" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="469" priority="223" operator="greaterThan">
+  <conditionalFormatting sqref="A18">
+    <cfRule type="containsText" dxfId="469" priority="222" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="468" priority="223" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="467" priority="221" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="468" priority="221" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="467" priority="222" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="G19">
     <cfRule type="cellIs" dxfId="466" priority="220" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="F19">
     <cfRule type="cellIs" dxfId="465" priority="219" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F19">
     <cfRule type="cellIs" dxfId="464" priority="218" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="463" priority="216" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="462" priority="217" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="463" priority="217" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="462" priority="216" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
     <cfRule type="containsText" dxfId="461" priority="214" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="460" priority="215" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="459" priority="212" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="458" priority="213" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="457" priority="210" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="456" priority="211" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="459" priority="213" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="458" priority="212" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="457" priority="211" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="456" priority="210" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="455" priority="209" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="F20">
     <cfRule type="cellIs" dxfId="454" priority="208" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="453" priority="207" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="452" priority="206" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="A20">
+    <cfRule type="containsText" dxfId="453" priority="206" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="452" priority="207" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="cellIs" dxfId="451" priority="205" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="G21">
     <cfRule type="cellIs" dxfId="450" priority="204" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="449" priority="202" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="448" priority="203" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="449" priority="203" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="448" priority="202" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
     <cfRule type="cellIs" dxfId="447" priority="201" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="F21">
     <cfRule type="cellIs" dxfId="446" priority="200" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="445" priority="199" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="444" priority="198" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="A21">
+    <cfRule type="containsText" dxfId="445" priority="198" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="444" priority="199" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
     <cfRule type="cellIs" dxfId="443" priority="197" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="G22">
     <cfRule type="cellIs" dxfId="442" priority="196" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="441" priority="194" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="440" priority="195" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="441" priority="195" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="440" priority="194" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
     <cfRule type="cellIs" dxfId="439" priority="193" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="F22">
     <cfRule type="cellIs" dxfId="438" priority="192" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="437" priority="191" operator="greaterThan">
+  <conditionalFormatting sqref="A22">
+    <cfRule type="containsText" dxfId="437" priority="190" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="436" priority="191" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="containsText" dxfId="435" priority="188" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="434" priority="189" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="433" priority="187" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="436" priority="190" operator="greaterThan">
+  <conditionalFormatting sqref="G23:G28">
+    <cfRule type="cellIs" dxfId="432" priority="186" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="435" priority="189" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="434" priority="188" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="433" priority="186" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="432" priority="187" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="431" priority="185" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="430" priority="184" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="A24">
+    <cfRule type="containsText" dxfId="431" priority="184" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="430" priority="185" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
     <cfRule type="cellIs" dxfId="429" priority="183" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="G24">
     <cfRule type="cellIs" dxfId="428" priority="182" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="427" priority="181" operator="greaterThan">
+  <conditionalFormatting sqref="A25">
+    <cfRule type="containsText" dxfId="427" priority="180" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="426" priority="181" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="425" priority="179" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="426" priority="180" operator="greaterThan">
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="424" priority="178" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="425" priority="178" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="424" priority="179" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="423" priority="177" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="422" priority="176" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="A26">
+    <cfRule type="containsText" dxfId="423" priority="176" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="422" priority="177" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
     <cfRule type="cellIs" dxfId="421" priority="175" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="420" priority="174" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="419" priority="173" operator="greaterThan">
+  <conditionalFormatting sqref="A27">
+    <cfRule type="containsText" dxfId="419" priority="172" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="418" priority="173" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="417" priority="171" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="418" priority="172" operator="greaterThan">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="416" priority="170" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="417" priority="170" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="416" priority="171" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A28">
     <cfRule type="containsText" dxfId="415" priority="168" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="414" priority="169" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
     <cfRule type="cellIs" dxfId="413" priority="167" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G28">
+  <conditionalFormatting sqref="G28">
     <cfRule type="cellIs" dxfId="412" priority="166" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="411" priority="164" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="410" priority="165" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="409" priority="163" operator="greaterThan">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="411" priority="165" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="A29">
+    <cfRule type="containsText" dxfId="410" priority="163" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="409" priority="164" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="cellIs" dxfId="408" priority="162" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="containsText" dxfId="407" priority="160" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="161" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="405" priority="159" operator="greaterThan">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="407" priority="161" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="404" priority="158" operator="greaterThan">
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="406" priority="160" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="403" priority="156" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="157" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+  <conditionalFormatting sqref="A30">
+    <cfRule type="containsText" dxfId="405" priority="158" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="404" priority="159" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="403" priority="157" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="402" priority="156" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G32">
     <cfRule type="cellIs" dxfId="401" priority="155" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="400" priority="154" operator="greaterThan">
+  <conditionalFormatting sqref="A31">
+    <cfRule type="containsText" dxfId="400" priority="153" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="399" priority="154" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="398" priority="152" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="399" priority="152" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="153" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="G31">
     <cfRule type="cellIs" dxfId="397" priority="151" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="396" priority="150" operator="greaterThan">
+  <conditionalFormatting sqref="A32">
+    <cfRule type="containsText" dxfId="396" priority="149" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="395" priority="150" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="394" priority="148" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="395" priority="148" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="149" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="393" priority="147" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="392" priority="146" operator="greaterThan">
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="392" priority="141" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="391" priority="145" operator="greaterThan">
+  <conditionalFormatting sqref="A34">
+    <cfRule type="containsText" dxfId="391" priority="139" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="390" priority="140" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="389" priority="138" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="390" priority="143" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="389" priority="144" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="388" priority="142" operator="greaterThan">
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="388" priority="137" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="387" priority="141" operator="greaterThan">
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="387" priority="134" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="386" priority="140" operator="greaterThan">
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="386" priority="133" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="385" priority="138" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="139" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="383" priority="137" operator="greaterThan">
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="385" priority="132" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="382" priority="136" operator="greaterThan">
+  <conditionalFormatting sqref="A35">
+    <cfRule type="containsText" dxfId="384" priority="130" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="383" priority="131" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="containsText" dxfId="382" priority="128" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="381" priority="129" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="cellIs" dxfId="380" priority="127" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G32">
-    <cfRule type="cellIs" dxfId="381" priority="135" operator="greaterThan">
+  <conditionalFormatting sqref="A33">
+    <cfRule type="containsText" dxfId="379" priority="125" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="378" priority="126" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="377" priority="124" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="380" priority="133" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="379" priority="134" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="378" priority="132" operator="greaterThan">
+  <conditionalFormatting sqref="G33">
+    <cfRule type="cellIs" dxfId="376" priority="123" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="377" priority="131" operator="greaterThan">
+  <conditionalFormatting sqref="A36">
+    <cfRule type="containsText" dxfId="375" priority="121" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="374" priority="122" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="373" priority="120" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="376" priority="129" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="375" priority="130" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="374" priority="128" operator="greaterThan">
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="372" priority="119" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="373" priority="127" operator="greaterThan">
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="371" priority="118" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="372" priority="121" operator="greaterThan">
+  <conditionalFormatting sqref="A34">
+    <cfRule type="containsText" dxfId="370" priority="116" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="369" priority="117" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="containsText" dxfId="368" priority="114" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="367" priority="115" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="containsText" dxfId="366" priority="95" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="365" priority="96" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="containsText" dxfId="364" priority="93" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="363" priority="94" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="362" priority="99" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="371" priority="119" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="120" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="369" priority="118" operator="greaterThan">
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="361" priority="98" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="368" priority="117" operator="greaterThan">
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="360" priority="97" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="367" priority="114" operator="greaterThan">
+  <conditionalFormatting sqref="A38">
+    <cfRule type="containsText" dxfId="359" priority="89" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="358" priority="90" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="containsText" dxfId="357" priority="87" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="356" priority="88" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="containsText" dxfId="355" priority="79" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="354" priority="80" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="353" priority="78" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="366" priority="113" operator="greaterThan">
+  <conditionalFormatting sqref="G37">
+    <cfRule type="cellIs" dxfId="352" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="365" priority="112" operator="greaterThan">
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="351" priority="76" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="364" priority="110" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="363" priority="111" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="362" priority="108" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="109" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="360" priority="107" operator="greaterThan">
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="350" priority="75" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="359" priority="105" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="106" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="357" priority="104" operator="greaterThan">
+  <conditionalFormatting sqref="A40">
+    <cfRule type="containsText" dxfId="349" priority="73" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="348" priority="74" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="347" priority="72" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="356" priority="103" operator="greaterThan">
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="346" priority="71" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="355" priority="101" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="102" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="353" priority="100" operator="greaterThan">
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="345" priority="63" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="352" priority="99" operator="greaterThan">
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="344" priority="62" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="351" priority="98" operator="greaterThan">
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="343" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="350" priority="96" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="97" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="348" priority="94" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="347" priority="95" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="346" priority="75" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="76" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="344" priority="73" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="74" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="342" priority="79" operator="greaterThan">
+  <conditionalFormatting sqref="A41:A45">
+    <cfRule type="containsText" dxfId="342" priority="59" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="341" priority="60" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="containsText" dxfId="340" priority="52" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="339" priority="53" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="338" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="341" priority="78" operator="greaterThan">
+  <conditionalFormatting sqref="G42">
+    <cfRule type="cellIs" dxfId="337" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="340" priority="77" operator="greaterThan">
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="336" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="339" priority="69" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="338" priority="70" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="337" priority="67" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="68" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="containsText" dxfId="335" priority="59" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="60" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="333" priority="58" operator="greaterThan">
+  <conditionalFormatting sqref="A46">
+    <cfRule type="containsText" dxfId="335" priority="47" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="334" priority="48" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="containsText" dxfId="333" priority="45" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="332" priority="46" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="331" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="332" priority="57" operator="greaterThan">
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="330" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="331" priority="56" operator="greaterThan">
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="329" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="330" priority="55" operator="greaterThan">
+  <conditionalFormatting sqref="A49">
+    <cfRule type="containsText" dxfId="328" priority="40" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="327" priority="41" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="containsText" dxfId="326" priority="38" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="325" priority="39" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="324" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="329" priority="53" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="54" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="327" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="323" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="326" priority="51" operator="greaterThan">
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="322" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="325" priority="43" operator="greaterThan">
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="321" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="324" priority="42" operator="greaterThan">
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="320" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="323" priority="41" operator="greaterThan">
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="319" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A45">
-    <cfRule type="containsText" dxfId="322" priority="39" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="40" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="320" priority="32" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="319" priority="33" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="318" priority="31" operator="greaterThan">
+  <conditionalFormatting sqref="A50">
+    <cfRule type="containsText" dxfId="318" priority="30" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="317" priority="31" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="containsText" dxfId="316" priority="28" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="315" priority="29" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:A53">
+    <cfRule type="containsText" dxfId="314" priority="26" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="313" priority="27" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="cellIs" dxfId="312" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="cellIs" dxfId="317" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="316" priority="29" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="315" priority="27" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="28" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="313" priority="25" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="26" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="G51">
     <cfRule type="cellIs" dxfId="311" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="F51">
     <cfRule type="cellIs" dxfId="310" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="309" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="containsText" dxfId="308" priority="20" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="21" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="containsText" dxfId="306" priority="18" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="19" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="A51:A53">
+    <cfRule type="containsText" dxfId="309" priority="21" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="308" priority="22" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
+  <conditionalFormatting sqref="G54">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
+  <conditionalFormatting sqref="F54">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+  <conditionalFormatting sqref="A54">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+  <conditionalFormatting sqref="G54">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
+  <conditionalFormatting sqref="A56">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A56)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -47959,20 +48300,20 @@
       </c>
       <c r="D38" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B38&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A38),('2020-CashLedger'!$G$2:$G$1998))</f>
-        <v>14000</v>
+        <v>25200</v>
       </c>
       <c r="E38" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B38&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A38),('2020-CashLedger'!$F$2:$F$1998))</f>
-        <v>2850</v>
+        <v>5350</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="10"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122208(N) + 5000(H)</v>
+        <v>130908(N) + 5000(H)</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>29</v>
@@ -48007,7 +48348,7 @@
       </c>
       <c r="C39" s="36">
         <f t="shared" si="13"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="D39" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B39&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A39),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48019,12 +48360,12 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="10"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122208(N) + 5000(H)</v>
+        <v>130908(N) + 5000(H)</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>6</v>
@@ -48059,7 +48400,7 @@
       </c>
       <c r="C40" s="36">
         <f t="shared" si="13"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="D40" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B40&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A40),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48071,12 +48412,12 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="10"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122208(N) + 5000(H)</v>
+        <v>130908(N) + 5000(H)</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>30</v>
@@ -48111,7 +48452,7 @@
       </c>
       <c r="C41" s="36">
         <f t="shared" si="13"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="D41" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B41&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A41),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48123,12 +48464,12 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="10"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="G41" s="29"/>
       <c r="H41" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122208(N) + 5000(H)</v>
+        <v>130908(N) + 5000(H)</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>31</v>
@@ -48163,7 +48504,7 @@
       </c>
       <c r="C42" s="36">
         <f t="shared" si="13"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="D42" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B42&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A42),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48175,12 +48516,12 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="10"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122208(N) + 5000(H)</v>
+        <v>130908(N) + 5000(H)</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>32</v>
@@ -48215,7 +48556,7 @@
       </c>
       <c r="C43" s="36">
         <f t="shared" si="13"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="D43" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B43&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A43),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48227,12 +48568,12 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="10"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="G43" s="29"/>
       <c r="H43" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122208(N) + 5000(H)</v>
+        <v>130908(N) + 5000(H)</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>33</v>
@@ -48267,7 +48608,7 @@
       </c>
       <c r="C44" s="36">
         <f t="shared" si="13"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="D44" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B44&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A44),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48279,12 +48620,12 @@
       </c>
       <c r="F44" s="36">
         <f t="shared" si="10"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="G44" s="29"/>
       <c r="H44" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122208(N) + 5000(H)</v>
+        <v>130908(N) + 5000(H)</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>34</v>
@@ -48319,7 +48660,7 @@
       </c>
       <c r="C45" s="36">
         <f t="shared" si="13"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="D45" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B45&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A45),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48331,12 +48672,12 @@
       </c>
       <c r="F45" s="36">
         <f t="shared" si="10"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="G45" s="29"/>
       <c r="H45" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122208(N) + 5000(H)</v>
+        <v>130908(N) + 5000(H)</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>35</v>
@@ -48371,7 +48712,7 @@
       </c>
       <c r="C46" s="36">
         <f t="shared" si="13"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="D46" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B46&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A46),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48383,12 +48724,12 @@
       </c>
       <c r="F46" s="36">
         <f t="shared" si="10"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122208(N) + 5000(H)</v>
+        <v>130908(N) + 5000(H)</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>36</v>
@@ -48423,7 +48764,7 @@
       </c>
       <c r="C47" s="36">
         <f t="shared" si="13"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="D47" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B47&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A47),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48435,12 +48776,12 @@
       </c>
       <c r="F47" s="36">
         <f t="shared" si="10"/>
-        <v>74608</v>
+        <v>83308</v>
       </c>
       <c r="G47" s="29"/>
       <c r="H47" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>122208(N) + 5000(H)</v>
+        <v>130908(N) + 5000(H)</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>37</v>
@@ -48473,24 +48814,24 @@
       </c>
       <c r="C48" s="74">
         <f>SUM(C36:C47)/COUNT(C36:C47)</f>
-        <v>69210.416666666672</v>
+        <v>75735.416666666672</v>
       </c>
       <c r="D48" s="74">
         <f>SUM(D36:D47)/COUNT(D36:D47)</f>
-        <v>10266.666666666666</v>
+        <v>11200</v>
       </c>
       <c r="E48" s="74">
         <f>SUM(E36:E47)/COUNT(E36:E47)</f>
-        <v>7337.75</v>
+        <v>7546.083333333333</v>
       </c>
       <c r="F48" s="74">
         <f>SUM(F36:F47)/COUNT(F36:F47)</f>
-        <v>72139.333333333328</v>
+        <v>79389.333333333328</v>
       </c>
       <c r="G48" s="73"/>
       <c r="H48" s="87">
         <f>(5000+H50)-(F47+M47)</f>
-        <v>52</v>
+        <v>-8648</v>
       </c>
       <c r="I48" s="75" t="s">
         <v>266</v>
@@ -48621,10 +48962,10 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="304" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="307" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52329,312 +52670,312 @@
     <sortCondition ref="A2:A300"/>
   </sortState>
   <conditionalFormatting sqref="A1 A8 A11:A13 A15 A17:A26">
-    <cfRule type="containsText" dxfId="302" priority="73" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="305" priority="73" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="74" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="304" priority="74" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="300" priority="71" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="303" priority="71" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="72" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="302" priority="72" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="containsText" dxfId="298" priority="53" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="301" priority="53" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="54" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="300" priority="54" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 A39:A64 A69:A71 A73 A183:A204 A76:A166 A216:A220 A168:A181 A206:A214 A222:A224 A226:A300">
-    <cfRule type="containsText" dxfId="296" priority="69" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="299" priority="69" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="70" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="298" priority="70" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A31">
-    <cfRule type="containsText" dxfId="294" priority="67" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="297" priority="67" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="68" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="296" priority="68" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="292" priority="65" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="295" priority="65" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="66" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="294" priority="66" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="290" priority="55" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="293" priority="55" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="56" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="292" priority="56" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="288" priority="63" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="291" priority="63" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="64" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="290" priority="64" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="286" priority="61" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="289" priority="61" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="62" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="288" priority="62" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="284" priority="59" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="287" priority="59" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="60" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="286" priority="60" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="containsText" dxfId="282" priority="57" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="285" priority="57" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="58" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="284" priority="58" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="280" priority="51" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="283" priority="51" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="52" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="282" priority="52" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:A68">
-    <cfRule type="containsText" dxfId="278" priority="49" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="281" priority="49" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="50" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="280" priority="50" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="276" priority="47" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="279" priority="47" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="48" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="278" priority="48" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="274" priority="45" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="277" priority="45" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="46" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="276" priority="46" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="containsText" dxfId="272" priority="43" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="275" priority="43" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="44" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="274" priority="44" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="containsText" dxfId="270" priority="41" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="273" priority="41" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="42" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="272" priority="42" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5 F180:F224 F226:F300 F8:F178">
-    <cfRule type="cellIs" dxfId="268" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="271" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G6 G180:G224 G226:G1048576 G8:G178">
-    <cfRule type="cellIs" dxfId="267" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="270" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5 F180:F224 F226:F1048576 F8:F178">
-    <cfRule type="cellIs" dxfId="266" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="269" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="containsText" dxfId="265" priority="36" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="268" priority="36" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="37" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="267" priority="37" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A88">
-    <cfRule type="containsText" dxfId="263" priority="34" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="266" priority="34" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="35" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="265" priority="35" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:A94">
-    <cfRule type="containsText" dxfId="261" priority="32" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="264" priority="32" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="33" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="263" priority="33" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="cellIs" dxfId="259" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="262" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179">
-    <cfRule type="cellIs" dxfId="258" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="cellIs" dxfId="257" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="260" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="containsText" dxfId="256" priority="27" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="259" priority="27" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="28" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="258" priority="28" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A182)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="254" priority="25" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="257" priority="25" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="26" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="256" priority="26" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="containsText" dxfId="252" priority="23" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="255" priority="23" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="24" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="254" priority="24" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A215">
-    <cfRule type="containsText" dxfId="250" priority="21" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="253" priority="21" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="22" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="252" priority="22" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A167">
-    <cfRule type="containsText" dxfId="248" priority="19" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="251" priority="19" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A167)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="20" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="250" priority="20" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205">
-    <cfRule type="containsText" dxfId="246" priority="17" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="249" priority="17" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A205)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="18" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="248" priority="18" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">
-    <cfRule type="containsText" dxfId="244" priority="15" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="247" priority="15" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A221)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="16" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="246" priority="16" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A221)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="242" priority="13" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="245" priority="13" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="14" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="244" priority="14" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="240" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="243" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="239" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="238" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="241" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="containsText" dxfId="237" priority="8" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="240" priority="8" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="9" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="239" priority="9" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="235" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="238" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="234" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="237" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="233" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="236" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="232" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="235" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="231" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="containsText" dxfId="230" priority="1" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="233" priority="1" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="2" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="232" priority="2" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52669,7 +53010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1867C039-E526-4A80-BC6A-8B7933D83DB8}">
   <dimension ref="A1:AR26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -54158,7 +54499,7 @@
       </c>
       <c r="G16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;G$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;G$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;H$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;H$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
@@ -54178,7 +54519,7 @@
       </c>
       <c r="L16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;L$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;L$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;M$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;M$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
@@ -54186,7 +54527,7 @@
       </c>
       <c r="N16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;N$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;N$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;O$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;O$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
@@ -54198,7 +54539,7 @@
       </c>
       <c r="Q16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;Q$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;Q$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;R$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;R$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
@@ -54222,11 +54563,11 @@
       </c>
       <c r="W16" s="99">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X16" s="99">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
@@ -55195,44 +55536,44 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C3:H26 J3:V26">
-    <cfRule type="cellIs" dxfId="228" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="10" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:AR5">
-    <cfRule type="cellIs" dxfId="227" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="9" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H26 J3:V26">
-    <cfRule type="cellIs" dxfId="226" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="7" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I26">
-    <cfRule type="cellIs" dxfId="223" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="5" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I26">
-    <cfRule type="cellIs" dxfId="222" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="224" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X26">
-    <cfRule type="cellIs" dxfId="219" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="222" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2019-Accounts-Local.xlsx
+++ b/2019-Accounts-Local.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Myworks\SaiPragnaEnclave\SPEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ABCED9-67FC-4EB8-B80F-C828642F5990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB908642-FAC0-4D46-863E-CBD9E84C66D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="732" windowWidth="22920" windowHeight="12228" tabRatio="747" activeTab="3" xr2:uid="{43043216-F16B-4478-BC9B-74E33D699851}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="416">
   <si>
     <t>Date</t>
   </si>
@@ -1261,9 +1261,6 @@
     <t>Monthly Dues Count</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>22T * 650/-</t>
   </si>
   <si>
@@ -1327,10 +1324,31 @@
     <t>F202, F204 (Paid by Madhu directly to Noor)</t>
   </si>
   <si>
-    <t>Diesel bill paid by Prakash (adj to maintenance)</t>
+    <t>Security Salary paid for Feb -2020</t>
   </si>
   <si>
-    <t>Security Salary paid for Feb -2020</t>
+    <t>F002, F003, F004 ( Paid by Rajnish to Noor)</t>
+  </si>
+  <si>
+    <t>Paid to Security</t>
+  </si>
+  <si>
+    <t>(18*650) paid through security</t>
+  </si>
+  <si>
+    <t>Diesel bill paid by Prakash (adj towards maintenance)</t>
+  </si>
+  <si>
+    <t>F202, F204 (Paid by Madhu directly through Mrs. Noor)</t>
+  </si>
+  <si>
+    <t>F301 (Paid through Security to Noor)</t>
+  </si>
+  <si>
+    <t>Electricity Bill  (Common) for Feb-2020</t>
+  </si>
+  <si>
+    <t>Water Tankers for Feb-2020</t>
   </si>
 </sst>
 </file>
@@ -2518,7 +2536,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="886">
+  <dxfs count="940">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2571,6 +2589,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2601,6 +2629,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2721,6 +2759,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2741,6 +2789,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2761,6 +2819,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2771,6 +2839,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2871,6 +2949,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2891,6 +2979,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2911,6 +3019,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2931,6 +3049,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2951,6 +3079,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2961,6 +3099,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2981,6 +3129,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3011,6 +3169,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3021,6 +3189,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3031,6 +3209,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3041,6 +3229,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3051,6 +3249,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3081,6 +3289,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3111,6 +3329,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3121,6 +3349,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3141,6 +3379,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3201,6 +3449,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3221,6 +3479,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3231,6 +3499,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3461,6 +3739,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3481,6 +3769,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3521,6 +3819,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3601,6 +3909,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3611,6 +3929,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3631,6 +3959,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3671,6 +4009,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3681,6 +4029,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -5541,6 +5899,206 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -19386,110 +19944,110 @@
     <mergeCell ref="A26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="E33:P52">
-    <cfRule type="containsText" dxfId="885" priority="52" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="939" priority="52" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="884" priority="53" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="938" priority="53" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="883" priority="54" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="937" priority="54" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",E33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="containsText" dxfId="882" priority="49" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="936" priority="49" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="881" priority="50" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="935" priority="50" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="880" priority="51" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="934" priority="51" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="879" priority="46" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="933" priority="46" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="878" priority="47" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="932" priority="47" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="877" priority="48" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="931" priority="48" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:P54">
-    <cfRule type="cellIs" dxfId="876" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="930" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="875" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="929" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:P53">
-    <cfRule type="cellIs" dxfId="874" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="928" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="873" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="927" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D52">
-    <cfRule type="cellIs" dxfId="872" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="926" priority="16" operator="equal">
       <formula>"Tenant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:P23">
-    <cfRule type="containsText" dxfId="871" priority="12" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="925" priority="12" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="870" priority="13" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="924" priority="13" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="869" priority="14" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="923" priority="14" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="868" priority="9" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="922" priority="9" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="867" priority="10" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="921" priority="10" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="866" priority="11" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="920" priority="11" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="containsText" dxfId="865" priority="6" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="919" priority="6" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="864" priority="7" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="918" priority="7" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="863" priority="8" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="917" priority="8" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:P25">
-    <cfRule type="cellIs" dxfId="862" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="916" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="861" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="915" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:P24">
-    <cfRule type="cellIs" dxfId="860" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="914" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="859" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="913" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D23">
-    <cfRule type="cellIs" dxfId="858" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="912" priority="1" operator="equal">
       <formula>"Tenant"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24718,906 +25276,906 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9 A1:A3 A203:A207 A209:A212 A11">
-    <cfRule type="containsText" dxfId="221" priority="201" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="255" priority="201" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="202" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="254" priority="202" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A33">
-    <cfRule type="containsText" dxfId="219" priority="189" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="253" priority="189" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="190" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="252" priority="190" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A298">
-    <cfRule type="containsText" dxfId="217" priority="199" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="251" priority="199" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="200" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="250" priority="200" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="containsText" dxfId="215" priority="197" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="249" priority="197" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="198" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="248" priority="198" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="213" priority="195" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="247" priority="195" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="196" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="246" priority="196" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="containsText" dxfId="211" priority="193" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="245" priority="193" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="194" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="244" priority="194" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="209" priority="191" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="243" priority="191" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="192" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="242" priority="192" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="207" priority="187" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="241" priority="187" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="188" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="240" priority="188" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A65">
-    <cfRule type="containsText" dxfId="205" priority="185" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="239" priority="185" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="186" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="238" priority="186" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="203" priority="183" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="237" priority="183" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="184" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="236" priority="184" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="201" priority="181" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="235" priority="181" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="182" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="234" priority="182" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="199" priority="179" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="233" priority="179" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="180" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="232" priority="180" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="197" priority="177" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="231" priority="177" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="178" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="230" priority="178" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F298">
-    <cfRule type="cellIs" dxfId="195" priority="176" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="229" priority="176" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G306:G1048576 G2:G298">
-    <cfRule type="cellIs" dxfId="194" priority="175" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="175" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306:F1048576 F2:F298">
-    <cfRule type="cellIs" dxfId="193" priority="174" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="227" priority="174" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="192" priority="172" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="226" priority="172" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="173" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="225" priority="173" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="190" priority="170" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="224" priority="170" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="171" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="223" priority="171" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="188" priority="168" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="222" priority="168" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="169" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="221" priority="169" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="186" priority="167" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="220" priority="167" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="185" priority="166" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="219" priority="166" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="184" priority="165" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="218" priority="165" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="183" priority="163" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="217" priority="163" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="164" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="216" priority="164" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="181" priority="161" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="215" priority="161" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="162" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="214" priority="162" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="containsText" dxfId="179" priority="159" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="213" priority="159" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="160" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="212" priority="160" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="177" priority="157" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="211" priority="157" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="158" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="210" priority="158" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="containsText" dxfId="175" priority="155" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="209" priority="155" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="156" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="208" priority="156" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="173" priority="153" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="207" priority="153" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="154" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="206" priority="154" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="171" priority="152" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="205" priority="152" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="170" priority="151" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="151" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="169" priority="150" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="203" priority="150" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="containsText" dxfId="168" priority="148" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="202" priority="148" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="149" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="201" priority="149" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="166" priority="147" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="147" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G224">
-    <cfRule type="cellIs" dxfId="165" priority="146" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="146" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="164" priority="145" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="145" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="163" priority="143" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="197" priority="143" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="144" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="196" priority="144" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="161" priority="142" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="142" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="160" priority="141" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="141" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="159" priority="140" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="140" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="158" priority="138" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="192" priority="138" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="139" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="191" priority="139" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208">
-    <cfRule type="cellIs" dxfId="156" priority="137" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="137" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208">
-    <cfRule type="cellIs" dxfId="155" priority="136" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="136" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A226">
-    <cfRule type="containsText" dxfId="154" priority="134" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="188" priority="134" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="135" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="187" priority="135" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F226">
-    <cfRule type="cellIs" dxfId="152" priority="133" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="133" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G226">
-    <cfRule type="cellIs" dxfId="151" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="132" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="150" priority="131" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="131" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G299">
-    <cfRule type="cellIs" dxfId="149" priority="130" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="130" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="148" priority="128" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="182" priority="128" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="129" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="181" priority="129" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="cellIs" dxfId="146" priority="127" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="127" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="cellIs" dxfId="145" priority="126" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="126" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="144" priority="124" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="178" priority="124" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="125" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="177" priority="125" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="142" priority="122" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="176" priority="122" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="123" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="175" priority="123" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F301">
-    <cfRule type="cellIs" dxfId="140" priority="121" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="121" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301">
-    <cfRule type="cellIs" dxfId="139" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="120" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="containsText" dxfId="138" priority="118" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="172" priority="118" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="119" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="171" priority="119" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F302">
-    <cfRule type="cellIs" dxfId="136" priority="117" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="117" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302">
-    <cfRule type="cellIs" dxfId="135" priority="116" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="116" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="134" priority="114" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="168" priority="114" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="115" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="167" priority="115" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="132" priority="113" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="113" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="131" priority="112" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="112" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="130" priority="110" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="164" priority="110" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="111" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="163" priority="111" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="128" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="109" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="127" priority="108" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="108" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="126" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="107" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="125" priority="105" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="159" priority="105" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="106" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="158" priority="106" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="123" priority="104" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="104" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="122" priority="103" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="103" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="121" priority="101" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="155" priority="101" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="102" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="154" priority="102" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="119" priority="100" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="100" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="118" priority="99" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="99" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="117" priority="98" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="98" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G17">
-    <cfRule type="cellIs" dxfId="116" priority="97" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="97" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="115" priority="96" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="96" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="114" priority="95" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="95" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="113" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="94" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="112" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="93" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="111" priority="91" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="145" priority="91" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="92" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="144" priority="92" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="109" priority="89" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="143" priority="89" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="90" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="142" priority="90" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="107" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="88" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="106" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="87" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="105" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="104" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="85" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="103" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="84" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="102" priority="83" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="83" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="101" priority="81" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="135" priority="81" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="82" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="134" priority="82" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="99" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="98" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="79" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="97" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="78" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="96" priority="76" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="130" priority="76" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="77" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="129" priority="77" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="94" priority="74" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="128" priority="74" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="75" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="127" priority="75" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="92" priority="72" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="126" priority="72" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="73" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="125" priority="73" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="90" priority="70" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="124" priority="70" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="71" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="123" priority="71" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="88" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="69" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="87" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="68" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="86" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="67" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="85" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="84" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="65" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="83" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="64" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="82" priority="62" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="116" priority="62" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="63" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="115" priority="63" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="80" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="79" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="78" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="77" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="76" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="57" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="75" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="74" priority="54" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="108" priority="54" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="55" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="107" priority="55" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="72" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="71" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="70" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="69" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="68" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="67" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="66" priority="46" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="100" priority="46" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="47" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="99" priority="47" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="64" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="63" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="62" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="61" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="60" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="59" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="58" priority="38" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="92" priority="38" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="39" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="91" priority="39" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="56" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="55" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="54" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="53" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="52" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="51" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="50" priority="30" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="84" priority="30" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="31" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="83" priority="31" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="48" priority="28" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="82" priority="28" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="81" priority="29" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="46" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:G28">
-    <cfRule type="cellIs" dxfId="45" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="44" priority="24" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="78" priority="24" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="25" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="77" priority="25" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="42" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="41" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="74" priority="20" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="73" priority="21" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="38" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="37" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="70" priority="16" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="69" priority="17" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="34" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="33" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="66" priority="12" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="62" priority="8" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30955,499 +31513,499 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9:A11 A13 A1 A15:A23 A203:A207 A209:A212 A3">
-    <cfRule type="containsText" dxfId="857" priority="114" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="911" priority="114" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="856" priority="115" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="910" priority="115" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="855" priority="112" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="909" priority="112" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="854" priority="113" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="908" priority="113" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A33">
-    <cfRule type="containsText" dxfId="853" priority="94" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="907" priority="94" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="852" priority="95" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="906" priority="95" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A298">
-    <cfRule type="containsText" dxfId="851" priority="110" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="905" priority="110" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="850" priority="111" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="904" priority="111" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A28">
-    <cfRule type="containsText" dxfId="849" priority="108" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="903" priority="108" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="848" priority="109" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="902" priority="109" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="847" priority="106" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="901" priority="106" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="846" priority="107" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="900" priority="107" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="845" priority="96" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="899" priority="96" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="844" priority="97" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="898" priority="97" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="843" priority="104" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="897" priority="104" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="842" priority="105" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="896" priority="105" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="841" priority="102" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="895" priority="102" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="840" priority="103" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="894" priority="103" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="containsText" dxfId="839" priority="100" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="893" priority="100" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="838" priority="101" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="892" priority="101" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="837" priority="98" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="891" priority="98" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="836" priority="99" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="890" priority="99" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="835" priority="92" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="889" priority="92" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="834" priority="93" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="888" priority="93" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A65">
-    <cfRule type="containsText" dxfId="833" priority="90" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="887" priority="90" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="832" priority="91" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="886" priority="91" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="831" priority="88" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="885" priority="88" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="830" priority="89" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="884" priority="89" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="829" priority="86" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="883" priority="86" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="828" priority="87" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="882" priority="87" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="827" priority="84" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="881" priority="84" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="826" priority="85" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="880" priority="85" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="825" priority="82" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="879" priority="82" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="824" priority="83" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="878" priority="83" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F298">
-    <cfRule type="cellIs" dxfId="823" priority="81" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="877" priority="81" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G306:G1048576 G3:G298">
-    <cfRule type="cellIs" dxfId="822" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="876" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306:F1048576 F3:F298">
-    <cfRule type="cellIs" dxfId="821" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="875" priority="79" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="820" priority="77" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="874" priority="77" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="819" priority="78" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="873" priority="78" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="818" priority="75" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="872" priority="75" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="817" priority="76" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="871" priority="76" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="816" priority="73" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="870" priority="73" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="815" priority="74" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="869" priority="74" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="814" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="868" priority="72" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="813" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="867" priority="71" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="812" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="866" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="811" priority="68" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="865" priority="68" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="810" priority="69" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="864" priority="69" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="809" priority="66" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="863" priority="66" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="808" priority="67" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="862" priority="67" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="807" priority="64" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="861" priority="64" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="806" priority="65" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="860" priority="65" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="containsText" dxfId="805" priority="62" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="859" priority="62" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="804" priority="63" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="858" priority="63" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="803" priority="60" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="857" priority="60" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="802" priority="61" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="856" priority="61" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="containsText" dxfId="801" priority="58" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="855" priority="58" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="800" priority="59" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="854" priority="59" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="799" priority="56" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="853" priority="56" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="798" priority="57" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="852" priority="57" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="797" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="851" priority="55" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="796" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="850" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="795" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="849" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="containsText" dxfId="794" priority="51" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="848" priority="51" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="793" priority="52" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="847" priority="52" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="792" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="846" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G224">
-    <cfRule type="cellIs" dxfId="791" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="845" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="790" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="844" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="789" priority="46" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="843" priority="46" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="788" priority="47" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="842" priority="47" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="787" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="841" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="786" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="840" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="785" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="839" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="784" priority="41" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="838" priority="41" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="783" priority="42" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="837" priority="42" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208">
-    <cfRule type="cellIs" dxfId="782" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="836" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208">
-    <cfRule type="cellIs" dxfId="781" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="835" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A226">
-    <cfRule type="containsText" dxfId="780" priority="37" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="834" priority="37" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="779" priority="38" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="833" priority="38" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F226">
-    <cfRule type="cellIs" dxfId="778" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="832" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G226">
-    <cfRule type="cellIs" dxfId="777" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="831" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="776" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="830" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G299">
-    <cfRule type="cellIs" dxfId="775" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="829" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="774" priority="31" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="828" priority="31" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="773" priority="32" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="827" priority="32" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="cellIs" dxfId="772" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="826" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="cellIs" dxfId="771" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="825" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="770" priority="27" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="824" priority="27" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="769" priority="28" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="823" priority="28" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="768" priority="25" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="822" priority="25" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="767" priority="26" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="821" priority="26" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F301">
-    <cfRule type="cellIs" dxfId="766" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="820" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301">
-    <cfRule type="cellIs" dxfId="765" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="819" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="containsText" dxfId="764" priority="21" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="818" priority="21" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="763" priority="22" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="817" priority="22" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F302">
-    <cfRule type="cellIs" dxfId="762" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="816" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302">
-    <cfRule type="cellIs" dxfId="761" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="815" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="760" priority="17" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="814" priority="17" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="759" priority="18" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="813" priority="18" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="758" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="812" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="757" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="811" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="756" priority="13" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="810" priority="13" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="755" priority="14" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="809" priority="14" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="754" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="808" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="753" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="807" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="752" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="806" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="751" priority="8" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="805" priority="8" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="750" priority="9" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="804" priority="9" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="749" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="803" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="748" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="802" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="747" priority="4" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="801" priority="4" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="746" priority="5" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="800" priority="5" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="745" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="799" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="744" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="798" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="743" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="797" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31487,7 +32045,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E208" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D227" sqref="D227"/>
+      <selection pane="bottomRight" activeCell="E228" sqref="E228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37281,7 +37839,7 @@
         <v>5600</v>
       </c>
       <c r="H220" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -38890,622 +39448,622 @@
     <sortCondition ref="F2:F309"/>
   </sortState>
   <conditionalFormatting sqref="A9:A11 A13 A1:A3 A15:A16 A203:A207 A209:A212 A18:A24">
-    <cfRule type="containsText" dxfId="742" priority="163" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="796" priority="163" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="741" priority="164" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="795" priority="164" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="740" priority="161" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="794" priority="161" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="739" priority="162" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="793" priority="162" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A34">
-    <cfRule type="containsText" dxfId="738" priority="133" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="792" priority="133" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="737" priority="134" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="791" priority="134" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A37:A61 A66:A68 A70 A180:A201 A73:A163 A214:A218 A165:A178 A220:A222 A227 A237:A298">
-    <cfRule type="containsText" dxfId="736" priority="157" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="790" priority="157" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="735" priority="158" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="789" priority="158" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A29">
-    <cfRule type="containsText" dxfId="734" priority="155" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="788" priority="155" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="733" priority="156" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="787" priority="156" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="732" priority="153" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="786" priority="153" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="731" priority="154" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="785" priority="154" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="730" priority="137" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="784" priority="137" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="729" priority="138" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="783" priority="138" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="728" priority="149" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="782" priority="149" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="727" priority="150" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="781" priority="150" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="726" priority="147" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="780" priority="147" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="725" priority="148" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="779" priority="148" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="containsText" dxfId="724" priority="141" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="778" priority="141" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="723" priority="142" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="777" priority="142" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="722" priority="139" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="776" priority="139" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="721" priority="140" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="775" priority="140" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="720" priority="131" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="774" priority="131" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="719" priority="132" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="773" priority="132" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A65">
-    <cfRule type="containsText" dxfId="718" priority="129" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="772" priority="129" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="717" priority="130" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="771" priority="130" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="716" priority="127" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="770" priority="127" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="715" priority="128" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="769" priority="128" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="714" priority="125" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="768" priority="125" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="713" priority="126" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="767" priority="126" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="712" priority="123" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="766" priority="123" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="711" priority="124" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="765" priority="124" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="710" priority="121" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="764" priority="121" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="709" priority="122" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="763" priority="122" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F227 F2:F16 F177:F207 F209:F212 F237:F298 F214:F222 F18:F175">
-    <cfRule type="cellIs" dxfId="708" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="762" priority="120" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G227 G2:G16 G177:G207 G209:G212 G310:G1048576 G237:G298 G214:G222 G18:G175">
-    <cfRule type="cellIs" dxfId="707" priority="119" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="761" priority="119" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F227 F310:F1048576 F237:F298">
-    <cfRule type="cellIs" dxfId="706" priority="118" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="760" priority="118" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="705" priority="116" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="759" priority="116" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="704" priority="117" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="758" priority="117" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="703" priority="114" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="757" priority="114" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="702" priority="115" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="756" priority="115" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="701" priority="112" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="755" priority="112" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="700" priority="113" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="754" priority="113" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="699" priority="111" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="753" priority="111" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="698" priority="110" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="752" priority="110" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="697" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="751" priority="109" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="696" priority="107" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="750" priority="107" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="695" priority="108" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="749" priority="108" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="694" priority="105" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="748" priority="105" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="693" priority="106" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="747" priority="106" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="containsText" dxfId="692" priority="99" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="746" priority="99" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="691" priority="100" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="745" priority="100" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="690" priority="97" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="744" priority="97" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="689" priority="98" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="743" priority="98" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="containsText" dxfId="688" priority="95" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="742" priority="95" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="687" priority="96" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="741" priority="96" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="686" priority="93" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="740" priority="93" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="685" priority="94" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="739" priority="94" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="684" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="738" priority="92" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="683" priority="91" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="737" priority="91" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="682" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="736" priority="90" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="containsText" dxfId="681" priority="88" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="735" priority="88" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="680" priority="89" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="734" priority="89" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="679" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="733" priority="87" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G224">
-    <cfRule type="cellIs" dxfId="678" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="732" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="677" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="731" priority="85" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="676" priority="83" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="730" priority="83" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="675" priority="84" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="729" priority="84" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="674" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="728" priority="82" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="673" priority="81" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="727" priority="81" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="672" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="726" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="671" priority="78" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="725" priority="78" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="670" priority="79" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="724" priority="79" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208">
-    <cfRule type="cellIs" dxfId="669" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="723" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208">
-    <cfRule type="cellIs" dxfId="668" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="722" priority="76" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A226">
-    <cfRule type="containsText" dxfId="667" priority="74" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="721" priority="74" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="666" priority="75" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="720" priority="75" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F226">
-    <cfRule type="cellIs" dxfId="665" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="719" priority="73" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G226">
-    <cfRule type="cellIs" dxfId="664" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="718" priority="72" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="663" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="717" priority="71" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G299">
-    <cfRule type="cellIs" dxfId="662" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="716" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="661" priority="68" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="715" priority="68" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="660" priority="69" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="714" priority="69" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="cellIs" dxfId="659" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="713" priority="67" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="cellIs" dxfId="658" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="712" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="657" priority="64" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="711" priority="64" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="656" priority="65" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="710" priority="65" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="655" priority="62" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="709" priority="62" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="654" priority="63" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="708" priority="63" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F301">
-    <cfRule type="cellIs" dxfId="653" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="707" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301">
-    <cfRule type="cellIs" dxfId="652" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="706" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="containsText" dxfId="651" priority="58" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="705" priority="58" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="650" priority="59" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="704" priority="59" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F302">
-    <cfRule type="cellIs" dxfId="649" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="703" priority="57" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302">
-    <cfRule type="cellIs" dxfId="648" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="702" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="647" priority="54" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="701" priority="54" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="646" priority="55" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="700" priority="55" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="645" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="699" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="644" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="698" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="643" priority="50" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="697" priority="50" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="642" priority="51" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="696" priority="51" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="641" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="695" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="640" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="694" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="639" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="693" priority="47" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="638" priority="45" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="692" priority="45" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="637" priority="46" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="691" priority="46" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="636" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="690" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="635" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="689" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="634" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="688" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="633" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="687" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="632" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="686" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="631" priority="38" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="685" priority="38" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="630" priority="39" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="684" priority="39" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A306">
-    <cfRule type="containsText" dxfId="629" priority="36" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="683" priority="36" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A306)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="37" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="682" priority="37" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A306)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306">
-    <cfRule type="cellIs" dxfId="627" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="681" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G306">
-    <cfRule type="cellIs" dxfId="626" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="680" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306">
-    <cfRule type="cellIs" dxfId="625" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="679" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A307">
-    <cfRule type="containsText" dxfId="624" priority="31" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="678" priority="31" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A307)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="623" priority="32" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="677" priority="32" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F307">
-    <cfRule type="cellIs" dxfId="622" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="676" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G307">
-    <cfRule type="cellIs" dxfId="621" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="675" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A228 A230:A236">
-    <cfRule type="containsText" dxfId="620" priority="19" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="674" priority="19" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="619" priority="20" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="673" priority="20" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F228:F236">
-    <cfRule type="cellIs" dxfId="618" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="672" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G228:G236">
-    <cfRule type="cellIs" dxfId="617" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="671" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F228:F236">
-    <cfRule type="cellIs" dxfId="616" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="670" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="615" priority="14" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="669" priority="14" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="614" priority="15" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="668" priority="15" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F213">
-    <cfRule type="cellIs" dxfId="613" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="667" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G213">
-    <cfRule type="cellIs" dxfId="612" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="666" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F213">
-    <cfRule type="cellIs" dxfId="611" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="665" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A308">
-    <cfRule type="containsText" dxfId="610" priority="9" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="664" priority="9" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A308)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="609" priority="10" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="663" priority="10" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A308)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F308">
-    <cfRule type="cellIs" dxfId="608" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="662" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G308">
-    <cfRule type="cellIs" dxfId="607" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="661" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A309">
-    <cfRule type="containsText" dxfId="606" priority="5" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="660" priority="5" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A309)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="605" priority="6" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="659" priority="6" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A309)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F309">
-    <cfRule type="cellIs" dxfId="604" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="658" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G309">
-    <cfRule type="cellIs" dxfId="603" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="657" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A229">
-    <cfRule type="containsText" dxfId="602" priority="1" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="656" priority="1" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="601" priority="2" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="655" priority="2" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A229)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39542,10 +40100,10 @@
   <dimension ref="A1:H305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40501,7 +41059,7 @@
         <f>IF(A36="Expense / Out-Flow","-",0)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="80" t="s">
+      <c r="H36" s="82" t="s">
         <v>369</v>
       </c>
     </row>
@@ -40552,11 +41110,11 @@
         <v>14300</v>
       </c>
       <c r="G38" s="19">
-        <f t="shared" ref="G38:G101" si="0">IF(A38="Expense / Out-Flow","-",0)</f>
+        <f>IF(A38="Expense / Out-Flow","-",0)</f>
         <v>0</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -40579,11 +41137,11 @@
         <v>13166</v>
       </c>
       <c r="G39" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="80" t="s">
-        <v>386</v>
+        <f>IF(A39="Expense / Out-Flow","-",0)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="82" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -40606,10 +41164,12 @@
         <v>10000</v>
       </c>
       <c r="G40" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="80"/>
+        <f>IF(A40="Expense / Out-Flow","-",0)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="82" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
@@ -40634,7 +41194,7 @@
         <v>2800</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -40660,33 +41220,34 @@
         <v>2800</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="D43" s="17">
-        <v>43885</v>
+        <v>43882</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="F43" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="19">
-        <v>2800</v>
+        <f>IF(A43="Expense / Out-Flow","-",0)</f>
+        <v>0</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -40700,10 +41261,10 @@
         <v>277</v>
       </c>
       <c r="D44" s="17">
-        <v>43891</v>
+        <v>43885</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="F44" s="16">
         <v>0</v>
@@ -40712,33 +41273,34 @@
         <v>2800</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="D45" s="17">
-        <v>43891</v>
+        <v>43885</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>391</v>
+        <v>301</v>
       </c>
       <c r="F45" s="16">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G45" s="19">
-        <v>2800</v>
+        <f>IF(A45="Expense / Out-Flow","-",0)</f>
+        <v>0</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -40755,7 +41317,7 @@
         <v>43891</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F46" s="16">
         <v>0</v>
@@ -40764,61 +41326,59 @@
         <v>2800</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="D47" s="17">
-        <v>43882</v>
+        <v>43891</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="F47" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="D48" s="17">
-        <v>43885</v>
+        <v>43891</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="F48" s="16">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G48" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -40835,7 +41395,7 @@
         <v>43892</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F49" s="16">
         <v>0</v>
@@ -40844,7 +41404,7 @@
         <v>2800</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -40888,7 +41448,7 @@
         <v>43895</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F51" s="16">
         <v>0</v>
@@ -40897,7 +41457,7 @@
         <v>2800</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -40914,7 +41474,7 @@
         <v>43895</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F52" s="16">
         <v>0</v>
@@ -40923,7 +41483,7 @@
         <v>2800</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -40940,7 +41500,7 @@
         <v>43895</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F53" s="16">
         <v>0</v>
@@ -40952,31 +41512,30 @@
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="D54" s="17">
         <v>43895</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>61</v>
+        <v>390</v>
       </c>
       <c r="F54" s="16">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G54" s="19">
-        <f>IF(A54="Expense / Out-Flow","-",0)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="80" t="s">
-        <v>408</v>
+        <v>5600</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -40993,7 +41552,7 @@
         <v>43895</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F55" s="16">
         <v>0</v>
@@ -41002,7 +41561,7 @@
         <v>5600</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -41010,125 +41569,185 @@
         <v>49</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D56" s="17">
-        <v>43900</v>
+        <v>43895</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="F56" s="16"/>
+        <v>61</v>
+      </c>
+      <c r="F56" s="16">
+        <v>2500</v>
+      </c>
       <c r="G56" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="21"/>
+        <f>IF(A56="Expense / Out-Flow","-",0)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="80" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" s="17">
+        <v>43897</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>390</v>
+      </c>
       <c r="F57" s="16">
         <v>0</v>
       </c>
       <c r="G57" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="21"/>
+        <v>2800</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58" s="17">
+        <v>43900</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>390</v>
+      </c>
       <c r="F58" s="16">
         <v>0</v>
       </c>
       <c r="G58" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="21"/>
+        <v>2800</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="18"/>
+      <c r="B59" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="17">
+        <v>43901</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>407</v>
+      </c>
       <c r="F59" s="16">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G59" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="21"/>
+        <f>IF(A59="Expense / Out-Flow","-",0)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="18"/>
+      <c r="B60" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="17">
+        <v>43901</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>415</v>
+      </c>
       <c r="F60" s="16">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="G60" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="21"/>
+        <f>IF(A60="Expense / Out-Flow","-",0)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" s="17">
+        <v>43903</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>390</v>
+      </c>
       <c r="F61" s="16">
         <v>0</v>
       </c>
       <c r="G61" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="21"/>
+        <f>2800*3</f>
+        <v>8400</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="18"/>
+      <c r="B62" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="17">
+        <v>43905</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>414</v>
+      </c>
       <c r="F62" s="16">
-        <v>0</v>
+        <v>13650</v>
       </c>
       <c r="G62" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="21"/>
+        <f>IF(A62="Expense / Out-Flow","-",0)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="80"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
@@ -41142,7 +41761,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G38:G101" si="0">IF(A63="Expense / Out-Flow","-",0)</f>
         <v>0</v>
       </c>
       <c r="H63" s="21"/>
@@ -45262,1409 +45881,1588 @@
       <c r="H305" s="21"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H305">
-    <sortCondition ref="D2:D305"/>
-    <sortCondition descending="1" ref="A2:A305"/>
+  <sortState ref="A2:H62">
+    <sortCondition ref="D2:D62"/>
+    <sortCondition descending="1" ref="A2:A62"/>
   </sortState>
   <conditionalFormatting sqref="A9 A1:A3 A203:A207 A209:A212 A11">
-    <cfRule type="containsText" dxfId="600" priority="385" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="654" priority="439" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="599" priority="386" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="653" priority="440" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11 A43:A45 A47:A48 A52:A53 A57:A298">
-    <cfRule type="containsText" dxfId="598" priority="381" operator="containsText" text="Revenue (Cash-In)">
+  <conditionalFormatting sqref="A11 A43:A45 A47:A48 A52:A53 A63:A298">
+    <cfRule type="containsText" dxfId="652" priority="435" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="597" priority="382" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="651" priority="436" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="containsText" dxfId="596" priority="371" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="650" priority="425" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="595" priority="372" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="649" priority="426" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="594" priority="369" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="648" priority="423" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="593" priority="370" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="647" priority="424" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:A65">
-    <cfRule type="containsText" dxfId="592" priority="361" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="591" priority="362" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
+  <conditionalFormatting sqref="A63:A65">
+    <cfRule type="containsText" dxfId="646" priority="415" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="645" priority="416" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="590" priority="359" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="644" priority="413" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="589" priority="360" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="643" priority="414" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="588" priority="357" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="642" priority="411" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="587" priority="358" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="641" priority="412" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="586" priority="355" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="640" priority="409" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="585" priority="356" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="639" priority="410" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="584" priority="353" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="638" priority="407" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="583" priority="354" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="637" priority="408" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3 F11 F17 F5:F9 F35:F36 F38:F39 F43:F48 F52:F53 F55:F298">
-    <cfRule type="cellIs" dxfId="582" priority="352" operator="greaterThan">
+  <conditionalFormatting sqref="F2:F3 F11 F17 F5:F9 F35:F36 F38:F39 F43:F48 F52:F53 F55:F56 F58 F63:F298">
+    <cfRule type="cellIs" dxfId="636" priority="406" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G306:G1048576 G2:G3 G11 G17 G5:G9 G35:G36 G38:G39 G43:G48 G52:G53 G55:G298">
-    <cfRule type="cellIs" dxfId="581" priority="351" operator="greaterThan">
+  <conditionalFormatting sqref="G306:G1048576 G2:G3 G11 G17 G5:G9 G35:G36 G38:G39 G43:G48 G52:G53 G55:G56 G58 G63:G298">
+    <cfRule type="cellIs" dxfId="635" priority="405" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F306:F1048576 F11 F17 F35:F36 F38:F39 F43:F48 F52:F53 F55:F298">
-    <cfRule type="cellIs" dxfId="580" priority="350" operator="greaterThan">
+  <conditionalFormatting sqref="F306:F1048576 F11 F17 F35:F36 F38:F39 F43:F48 F52:F53 F55:F56 F58 F63:F298">
+    <cfRule type="cellIs" dxfId="634" priority="404" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="579" priority="348" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="633" priority="402" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="578" priority="349" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="632" priority="403" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="577" priority="346" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="631" priority="400" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="576" priority="347" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="630" priority="401" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="575" priority="344" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="629" priority="398" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="574" priority="345" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="628" priority="399" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="573" priority="343" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="627" priority="397" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="572" priority="342" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="626" priority="396" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="571" priority="341" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="625" priority="395" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="570" priority="339" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="624" priority="393" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="569" priority="340" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="623" priority="394" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="568" priority="335" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="622" priority="389" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="567" priority="336" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="621" priority="390" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
+    <cfRule type="containsText" dxfId="620" priority="387" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="619" priority="388" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A202">
+    <cfRule type="containsText" dxfId="618" priority="385" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="617" priority="386" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A219">
+    <cfRule type="containsText" dxfId="616" priority="383" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="615" priority="384" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A223">
+    <cfRule type="containsText" dxfId="614" priority="381" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="613" priority="382" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F223">
+    <cfRule type="cellIs" dxfId="612" priority="380" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G223">
+    <cfRule type="cellIs" dxfId="611" priority="379" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F223">
+    <cfRule type="cellIs" dxfId="610" priority="378" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A224">
+    <cfRule type="containsText" dxfId="609" priority="376" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="608" priority="377" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F224">
+    <cfRule type="cellIs" dxfId="607" priority="375" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G224">
+    <cfRule type="cellIs" dxfId="606" priority="374" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F224">
+    <cfRule type="cellIs" dxfId="605" priority="373" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A225">
+    <cfRule type="containsText" dxfId="604" priority="371" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="603" priority="372" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F225">
+    <cfRule type="cellIs" dxfId="602" priority="370" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G225">
+    <cfRule type="cellIs" dxfId="601" priority="369" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F225">
+    <cfRule type="cellIs" dxfId="600" priority="368" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208">
+    <cfRule type="containsText" dxfId="599" priority="366" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="598" priority="367" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F208">
+    <cfRule type="cellIs" dxfId="597" priority="365" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G208">
+    <cfRule type="cellIs" dxfId="596" priority="364" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A226">
+    <cfRule type="containsText" dxfId="595" priority="362" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="594" priority="363" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F226">
+    <cfRule type="cellIs" dxfId="593" priority="361" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G226">
+    <cfRule type="cellIs" dxfId="592" priority="360" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F299">
+    <cfRule type="cellIs" dxfId="591" priority="359" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G299">
+    <cfRule type="cellIs" dxfId="590" priority="358" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A299">
+    <cfRule type="containsText" dxfId="589" priority="356" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="588" priority="357" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F300">
+    <cfRule type="cellIs" dxfId="587" priority="355" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G300">
+    <cfRule type="cellIs" dxfId="586" priority="354" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A300">
+    <cfRule type="containsText" dxfId="585" priority="352" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="584" priority="353" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A301">
+    <cfRule type="containsText" dxfId="583" priority="350" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="582" priority="351" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F301">
+    <cfRule type="cellIs" dxfId="581" priority="349" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G301">
+    <cfRule type="cellIs" dxfId="580" priority="348" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A302">
+    <cfRule type="containsText" dxfId="579" priority="346" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="578" priority="347" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F302">
+    <cfRule type="cellIs" dxfId="577" priority="345" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G302">
+    <cfRule type="cellIs" dxfId="576" priority="344" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A303">
+    <cfRule type="containsText" dxfId="575" priority="342" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="574" priority="343" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F303">
+    <cfRule type="cellIs" dxfId="573" priority="341" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G303">
+    <cfRule type="cellIs" dxfId="572" priority="340" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A304">
+    <cfRule type="containsText" dxfId="571" priority="338" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="570" priority="339" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F304">
+    <cfRule type="cellIs" dxfId="569" priority="337" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G304:G305">
+    <cfRule type="cellIs" dxfId="568" priority="336" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F304">
+    <cfRule type="cellIs" dxfId="567" priority="335" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A305">
     <cfRule type="containsText" dxfId="566" priority="333" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="565" priority="334" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="564" priority="331" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="563" priority="332" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A219">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F305">
+    <cfRule type="cellIs" dxfId="564" priority="332" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F305">
+    <cfRule type="cellIs" dxfId="563" priority="331" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
     <cfRule type="containsText" dxfId="562" priority="329" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A10)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="561" priority="330" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="560" priority="327" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="559" priority="328" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="558" priority="326" operator="greaterThan">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="560" priority="328" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="557" priority="325" operator="greaterThan">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="559" priority="327" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="556" priority="324" operator="greaterThan">
+  <conditionalFormatting sqref="F13 F17">
+    <cfRule type="cellIs" dxfId="558" priority="324" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A224">
-    <cfRule type="containsText" dxfId="555" priority="322" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="554" priority="323" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="553" priority="321" operator="greaterThan">
+  <conditionalFormatting sqref="G13 G17">
+    <cfRule type="cellIs" dxfId="557" priority="323" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G224">
-    <cfRule type="cellIs" dxfId="552" priority="320" operator="greaterThan">
+  <conditionalFormatting sqref="F13 F17">
+    <cfRule type="cellIs" dxfId="556" priority="322" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="551" priority="319" operator="greaterThan">
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="555" priority="313" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="550" priority="317" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="549" priority="318" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="548" priority="316" operator="greaterThan">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="554" priority="312" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="547" priority="315" operator="greaterThan">
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="553" priority="311" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="546" priority="314" operator="greaterThan">
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="containsText" dxfId="552" priority="309" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="551" priority="310" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="containsText" dxfId="550" priority="307" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="549" priority="308" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F16">
+    <cfRule type="cellIs" dxfId="548" priority="306" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="545" priority="312" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="544" priority="313" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F208">
-    <cfRule type="cellIs" dxfId="543" priority="311" operator="greaterThan">
+  <conditionalFormatting sqref="G15:G16">
+    <cfRule type="cellIs" dxfId="547" priority="305" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G208">
-    <cfRule type="cellIs" dxfId="542" priority="310" operator="greaterThan">
+  <conditionalFormatting sqref="F15:F16">
+    <cfRule type="cellIs" dxfId="546" priority="304" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A226">
-    <cfRule type="containsText" dxfId="541" priority="308" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="540" priority="309" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F226">
-    <cfRule type="cellIs" dxfId="539" priority="307" operator="greaterThan">
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="545" priority="299" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G226">
-    <cfRule type="cellIs" dxfId="538" priority="306" operator="greaterThan">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="544" priority="298" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="537" priority="305" operator="greaterThan">
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="543" priority="297" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G299">
-    <cfRule type="cellIs" dxfId="536" priority="304" operator="greaterThan">
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="542" priority="295" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="541" priority="296" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="540" priority="294" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="535" priority="302" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="534" priority="303" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F300">
-    <cfRule type="cellIs" dxfId="533" priority="301" operator="greaterThan">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="539" priority="293" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G300">
-    <cfRule type="cellIs" dxfId="532" priority="300" operator="greaterThan">
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="538" priority="292" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="531" priority="298" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="530" priority="299" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="529" priority="296" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="528" priority="297" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F301">
-    <cfRule type="cellIs" dxfId="527" priority="295" operator="greaterThan">
+  <conditionalFormatting sqref="A12">
+    <cfRule type="containsText" dxfId="537" priority="290" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="536" priority="291" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="containsText" dxfId="535" priority="288" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="534" priority="289" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="containsText" dxfId="533" priority="286" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="532" priority="287" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="containsText" dxfId="531" priority="284" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="530" priority="285" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="529" priority="283" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G301">
-    <cfRule type="cellIs" dxfId="526" priority="294" operator="greaterThan">
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="528" priority="282" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A302">
-    <cfRule type="containsText" dxfId="525" priority="292" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="524" priority="293" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F302">
-    <cfRule type="cellIs" dxfId="523" priority="291" operator="greaterThan">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="527" priority="281" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G302">
-    <cfRule type="cellIs" dxfId="522" priority="290" operator="greaterThan">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="526" priority="280" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="521" priority="288" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="520" priority="289" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="519" priority="287" operator="greaterThan">
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="525" priority="279" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="518" priority="286" operator="greaterThan">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="524" priority="278" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="517" priority="284" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="516" priority="285" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="515" priority="283" operator="greaterThan">
+  <conditionalFormatting sqref="A18">
+    <cfRule type="containsText" dxfId="523" priority="276" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="522" priority="277" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="521" priority="275" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="514" priority="282" operator="greaterThan">
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="520" priority="274" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="513" priority="281" operator="greaterThan">
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="519" priority="273" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="512" priority="279" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="511" priority="280" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="510" priority="278" operator="greaterThan">
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="518" priority="272" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="509" priority="277" operator="greaterThan">
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="517" priority="271" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="508" priority="275" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="507" priority="276" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="506" priority="274" operator="greaterThan">
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="516" priority="270" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="505" priority="273" operator="greaterThan">
+  <conditionalFormatting sqref="A19">
+    <cfRule type="containsText" dxfId="515" priority="268" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="514" priority="269" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="513" priority="267" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="504" priority="270" operator="greaterThan">
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="512" priority="266" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13 G17">
-    <cfRule type="cellIs" dxfId="503" priority="269" operator="greaterThan">
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="511" priority="265" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="502" priority="268" operator="greaterThan">
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="510" priority="264" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="501" priority="259" operator="greaterThan">
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="509" priority="263" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="500" priority="258" operator="greaterThan">
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="508" priority="262" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="499" priority="257" operator="greaterThan">
+  <conditionalFormatting sqref="A20">
+    <cfRule type="containsText" dxfId="507" priority="260" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="506" priority="261" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="505" priority="259" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="498" priority="255" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="497" priority="256" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="496" priority="253" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="495" priority="254" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="494" priority="252" operator="greaterThan">
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="504" priority="258" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="493" priority="251" operator="greaterThan">
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="503" priority="257" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="492" priority="250" operator="greaterThan">
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="502" priority="256" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="491" priority="245" operator="greaterThan">
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="501" priority="255" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="490" priority="244" operator="greaterThan">
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="500" priority="254" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="489" priority="243" operator="greaterThan">
+  <conditionalFormatting sqref="A21">
+    <cfRule type="containsText" dxfId="499" priority="252" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="498" priority="253" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="497" priority="251" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="488" priority="241" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="487" priority="242" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="496" priority="250" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="495" priority="249" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="494" priority="248" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="493" priority="247" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="492" priority="246" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="containsText" dxfId="491" priority="244" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="490" priority="245" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="containsText" dxfId="489" priority="242" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="488" priority="243" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="487" priority="241" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G28">
     <cfRule type="cellIs" dxfId="486" priority="240" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="485" priority="239" operator="greaterThan">
+  <conditionalFormatting sqref="A24">
+    <cfRule type="containsText" dxfId="485" priority="238" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="484" priority="239" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="483" priority="237" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="484" priority="238" operator="greaterThan">
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="482" priority="236" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="483" priority="236" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="482" priority="237" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
+  <conditionalFormatting sqref="A25">
     <cfRule type="containsText" dxfId="481" priority="234" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="480" priority="235" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="479" priority="232" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="233" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="479" priority="233" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="478" priority="232" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
     <cfRule type="containsText" dxfId="477" priority="230" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="476" priority="231" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
     <cfRule type="cellIs" dxfId="475" priority="229" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="474" priority="228" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="473" priority="227" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="472" priority="226" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="A27">
+    <cfRule type="containsText" dxfId="473" priority="226" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="472" priority="227" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="cellIs" dxfId="471" priority="225" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="G27">
     <cfRule type="cellIs" dxfId="470" priority="224" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
+  <conditionalFormatting sqref="A28">
     <cfRule type="containsText" dxfId="469" priority="222" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="468" priority="223" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
     <cfRule type="cellIs" dxfId="467" priority="221" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="G28">
     <cfRule type="cellIs" dxfId="466" priority="220" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="G29">
     <cfRule type="cellIs" dxfId="465" priority="219" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="464" priority="218" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="463" priority="217" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="A29">
+    <cfRule type="containsText" dxfId="464" priority="217" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="463" priority="218" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="cellIs" dxfId="462" priority="216" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="461" priority="214" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="460" priority="215" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="459" priority="213" operator="greaterThan">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="461" priority="215" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="458" priority="212" operator="greaterThan">
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="460" priority="214" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="A30">
+    <cfRule type="containsText" dxfId="459" priority="212" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="458" priority="213" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
     <cfRule type="cellIs" dxfId="457" priority="211" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="G30">
     <cfRule type="cellIs" dxfId="456" priority="210" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G31:G32">
     <cfRule type="cellIs" dxfId="455" priority="209" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="454" priority="208" operator="greaterThan">
+  <conditionalFormatting sqref="A31">
+    <cfRule type="containsText" dxfId="454" priority="207" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="453" priority="208" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="452" priority="206" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="453" priority="206" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="452" priority="207" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="G31">
     <cfRule type="cellIs" dxfId="451" priority="205" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="450" priority="204" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="449" priority="203" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="A32">
+    <cfRule type="containsText" dxfId="450" priority="203" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="449" priority="204" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
     <cfRule type="cellIs" dxfId="448" priority="202" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="447" priority="201" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="446" priority="200" operator="greaterThan">
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="446" priority="195" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="445" priority="198" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="199" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="443" priority="197" operator="greaterThan">
+  <conditionalFormatting sqref="A34">
+    <cfRule type="containsText" dxfId="445" priority="193" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="444" priority="194" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="443" priority="192" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="442" priority="196" operator="greaterThan">
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="442" priority="191" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="441" priority="195" operator="greaterThan">
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="441" priority="188" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="440" priority="194" operator="greaterThan">
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="440" priority="187" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="439" priority="193" operator="greaterThan">
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="439" priority="186" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="438" priority="192" operator="greaterThan">
+  <conditionalFormatting sqref="A35">
+    <cfRule type="containsText" dxfId="438" priority="184" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="437" priority="185" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="containsText" dxfId="436" priority="182" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="435" priority="183" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="cellIs" dxfId="434" priority="181" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="437" priority="190" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="436" priority="191" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="435" priority="188" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="434" priority="189" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="433" priority="187" operator="greaterThan">
+  <conditionalFormatting sqref="A33">
+    <cfRule type="containsText" dxfId="433" priority="179" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="432" priority="180" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="431" priority="178" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G28">
-    <cfRule type="cellIs" dxfId="432" priority="186" operator="greaterThan">
+  <conditionalFormatting sqref="G33">
+    <cfRule type="cellIs" dxfId="430" priority="177" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="431" priority="184" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="430" priority="185" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="429" priority="183" operator="greaterThan">
+  <conditionalFormatting sqref="A36">
+    <cfRule type="containsText" dxfId="429" priority="175" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="428" priority="176" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="427" priority="174" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="428" priority="182" operator="greaterThan">
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="426" priority="173" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="containsText" dxfId="427" priority="180" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="181" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="425" priority="179" operator="greaterThan">
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="425" priority="172" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="424" priority="178" operator="greaterThan">
+  <conditionalFormatting sqref="A34">
+    <cfRule type="containsText" dxfId="424" priority="170" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="423" priority="171" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="containsText" dxfId="422" priority="168" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="421" priority="169" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="containsText" dxfId="420" priority="149" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="419" priority="150" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="containsText" dxfId="418" priority="147" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="417" priority="148" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="416" priority="153" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="423" priority="176" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="177" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="421" priority="175" operator="greaterThan">
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="415" priority="152" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="420" priority="174" operator="greaterThan">
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="414" priority="151" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="419" priority="172" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="173" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="417" priority="171" operator="greaterThan">
+  <conditionalFormatting sqref="A38">
+    <cfRule type="containsText" dxfId="413" priority="143" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="412" priority="144" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="containsText" dxfId="411" priority="141" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="410" priority="142" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="containsText" dxfId="409" priority="133" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="408" priority="134" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="407" priority="132" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="416" priority="170" operator="greaterThan">
+  <conditionalFormatting sqref="G37">
+    <cfRule type="cellIs" dxfId="406" priority="131" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="415" priority="168" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="169" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="413" priority="167" operator="greaterThan">
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="405" priority="130" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="412" priority="166" operator="greaterThan">
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="404" priority="129" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="411" priority="165" operator="greaterThan">
+  <conditionalFormatting sqref="A40">
+    <cfRule type="containsText" dxfId="403" priority="127" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="402" priority="128" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="401" priority="126" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="410" priority="163" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="409" priority="164" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="408" priority="162" operator="greaterThan">
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="400" priority="125" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="407" priority="161" operator="greaterThan">
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="399" priority="117" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="406" priority="160" operator="greaterThan">
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="398" priority="116" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="405" priority="158" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="404" priority="159" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="403" priority="157" operator="greaterThan">
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="397" priority="115" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="402" priority="156" operator="greaterThan">
+  <conditionalFormatting sqref="A41:A45">
+    <cfRule type="containsText" dxfId="396" priority="113" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="395" priority="114" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="containsText" dxfId="394" priority="106" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="393" priority="107" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="392" priority="105" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G32">
-    <cfRule type="cellIs" dxfId="401" priority="155" operator="greaterThan">
+  <conditionalFormatting sqref="G42">
+    <cfRule type="cellIs" dxfId="391" priority="104" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="400" priority="153" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="399" priority="154" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="398" priority="152" operator="greaterThan">
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="390" priority="103" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="397" priority="151" operator="greaterThan">
+  <conditionalFormatting sqref="A46">
+    <cfRule type="containsText" dxfId="389" priority="101" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="388" priority="102" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="containsText" dxfId="387" priority="99" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="386" priority="100" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="385" priority="98" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="396" priority="149" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="395" priority="150" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="394" priority="148" operator="greaterThan">
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="384" priority="97" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="393" priority="147" operator="greaterThan">
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="383" priority="96" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="392" priority="141" operator="greaterThan">
+  <conditionalFormatting sqref="A49">
+    <cfRule type="containsText" dxfId="382" priority="94" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="381" priority="95" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="containsText" dxfId="380" priority="92" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="379" priority="93" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="378" priority="91" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="391" priority="139" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="140" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="389" priority="138" operator="greaterThan">
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="377" priority="90" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="388" priority="137" operator="greaterThan">
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="376" priority="89" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="387" priority="134" operator="greaterThan">
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="375" priority="88" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="386" priority="133" operator="greaterThan">
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="374" priority="87" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="385" priority="132" operator="greaterThan">
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="373" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="384" priority="130" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="383" priority="131" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="382" priority="128" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="129" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="380" priority="127" operator="greaterThan">
+  <conditionalFormatting sqref="A50">
+    <cfRule type="containsText" dxfId="372" priority="84" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="371" priority="85" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="containsText" dxfId="370" priority="82" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="369" priority="83" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:A53">
+    <cfRule type="containsText" dxfId="368" priority="80" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="367" priority="81" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="cellIs" dxfId="366" priority="79" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="379" priority="125" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="126" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="377" priority="124" operator="greaterThan">
+  <conditionalFormatting sqref="G51">
+    <cfRule type="cellIs" dxfId="365" priority="78" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="376" priority="123" operator="greaterThan">
+  <conditionalFormatting sqref="F51">
+    <cfRule type="cellIs" dxfId="364" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="375" priority="121" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="122" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="373" priority="120" operator="greaterThan">
+  <conditionalFormatting sqref="A51:A53">
+    <cfRule type="containsText" dxfId="363" priority="75" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="362" priority="76" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="containsText" dxfId="361" priority="73" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="360" priority="74" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="containsText" dxfId="359" priority="71" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="358" priority="72" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="357" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="372" priority="119" operator="greaterThan">
+  <conditionalFormatting sqref="G54">
+    <cfRule type="cellIs" dxfId="356" priority="69" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="371" priority="118" operator="greaterThan">
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="355" priority="68" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="370" priority="116" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="117" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="368" priority="114" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="115" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="366" priority="95" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="365" priority="96" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="364" priority="93" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="363" priority="94" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="362" priority="99" operator="greaterThan">
+  <conditionalFormatting sqref="A54">
+    <cfRule type="containsText" dxfId="354" priority="66" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="353" priority="67" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="containsText" dxfId="352" priority="64" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="351" priority="65" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="containsText" dxfId="350" priority="59" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="349" priority="60" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="containsText" dxfId="348" priority="57" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="347" priority="58" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="346" priority="63" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="361" priority="98" operator="greaterThan">
+  <conditionalFormatting sqref="G54">
+    <cfRule type="cellIs" dxfId="345" priority="62" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="360" priority="97" operator="greaterThan">
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="344" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="359" priority="89" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="90" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="357" priority="87" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="356" priority="88" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="containsText" dxfId="355" priority="79" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="80" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="353" priority="78" operator="greaterThan">
+  <conditionalFormatting sqref="A56">
+    <cfRule type="containsText" dxfId="343" priority="55" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="342" priority="56" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="352" priority="77" operator="greaterThan">
+  <conditionalFormatting sqref="G57">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="351" priority="76" operator="greaterThan">
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="350" priority="75" operator="greaterThan">
+  <conditionalFormatting sqref="A57">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="349" priority="73" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="74" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="347" priority="72" operator="greaterThan">
+  <conditionalFormatting sqref="G59">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="346" priority="71" operator="greaterThan">
+  <conditionalFormatting sqref="F59">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="345" priority="63" operator="greaterThan">
+  <conditionalFormatting sqref="A59">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="344" priority="62" operator="greaterThan">
+  <conditionalFormatting sqref="G60">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="343" priority="61" operator="greaterThan">
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A45">
-    <cfRule type="containsText" dxfId="342" priority="59" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="60" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="340" priority="52" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="339" priority="53" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="338" priority="51" operator="greaterThan">
+  <conditionalFormatting sqref="A60">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="cellIs" dxfId="337" priority="50" operator="greaterThan">
+  <conditionalFormatting sqref="G61">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="336" priority="49" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="335" priority="47" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="48" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="333" priority="45" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="46" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="331" priority="44" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="330" priority="43" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="329" priority="42" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="containsText" dxfId="328" priority="40" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="41" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="containsText" dxfId="326" priority="38" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="39" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="324" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="323" priority="36" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="322" priority="35" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="321" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="320" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="319" priority="32" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="containsText" dxfId="318" priority="30" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="31" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="containsText" dxfId="316" priority="28" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="29" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:A53">
-    <cfRule type="containsText" dxfId="314" priority="26" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="27" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="312" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="311" priority="24" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="310" priority="23" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:A53">
-    <cfRule type="containsText" dxfId="309" priority="21" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="22" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
+  <conditionalFormatting sqref="F61">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+  <conditionalFormatting sqref="A61">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="G62">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
+  <conditionalFormatting sqref="A62">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Revenue (Cash-In)">
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Expense (Cash-Out)">
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Revenue (Cash-In)">
-      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Expense (Cash-Out)">
-      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -46699,8 +47497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE70253-1826-4643-ADA7-C9655C457177}">
   <dimension ref="A2:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48300,20 +49098,20 @@
       </c>
       <c r="D38" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B38&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A38),('2020-CashLedger'!$G$2:$G$1998))</f>
-        <v>25200</v>
+        <v>44800</v>
       </c>
       <c r="E38" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B38&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A38),('2020-CashLedger'!$F$2:$F$1998))</f>
-        <v>5350</v>
+        <v>40700</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="10"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>130908(N) + 5000(H)</v>
+        <v>115158(N) + 5000(H)</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>29</v>
@@ -48348,7 +49146,7 @@
       </c>
       <c r="C39" s="36">
         <f t="shared" si="13"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="D39" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B39&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A39),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48360,12 +49158,12 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="10"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>130908(N) + 5000(H)</v>
+        <v>115158(N) + 5000(H)</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>6</v>
@@ -48400,7 +49198,7 @@
       </c>
       <c r="C40" s="36">
         <f t="shared" si="13"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="D40" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B40&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A40),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48412,12 +49210,12 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="10"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>130908(N) + 5000(H)</v>
+        <v>115158(N) + 5000(H)</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>30</v>
@@ -48452,7 +49250,7 @@
       </c>
       <c r="C41" s="36">
         <f t="shared" si="13"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="D41" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B41&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A41),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48464,12 +49262,12 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="10"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="G41" s="29"/>
       <c r="H41" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>130908(N) + 5000(H)</v>
+        <v>115158(N) + 5000(H)</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>31</v>
@@ -48504,7 +49302,7 @@
       </c>
       <c r="C42" s="36">
         <f t="shared" si="13"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="D42" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B42&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A42),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48516,12 +49314,12 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="10"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>130908(N) + 5000(H)</v>
+        <v>115158(N) + 5000(H)</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>32</v>
@@ -48556,7 +49354,7 @@
       </c>
       <c r="C43" s="36">
         <f t="shared" si="13"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="D43" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B43&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A43),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48568,12 +49366,12 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="10"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="G43" s="29"/>
       <c r="H43" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>130908(N) + 5000(H)</v>
+        <v>115158(N) + 5000(H)</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>33</v>
@@ -48608,7 +49406,7 @@
       </c>
       <c r="C44" s="36">
         <f t="shared" si="13"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="D44" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B44&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A44),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48620,12 +49418,12 @@
       </c>
       <c r="F44" s="36">
         <f t="shared" si="10"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="G44" s="29"/>
       <c r="H44" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>130908(N) + 5000(H)</v>
+        <v>115158(N) + 5000(H)</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>34</v>
@@ -48660,7 +49458,7 @@
       </c>
       <c r="C45" s="36">
         <f t="shared" si="13"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="D45" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B45&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A45),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48672,12 +49470,12 @@
       </c>
       <c r="F45" s="36">
         <f t="shared" si="10"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="G45" s="29"/>
       <c r="H45" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>130908(N) + 5000(H)</v>
+        <v>115158(N) + 5000(H)</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>35</v>
@@ -48712,7 +49510,7 @@
       </c>
       <c r="C46" s="36">
         <f t="shared" si="13"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="D46" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B46&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A46),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48724,12 +49522,12 @@
       </c>
       <c r="F46" s="36">
         <f t="shared" si="10"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>130908(N) + 5000(H)</v>
+        <v>115158(N) + 5000(H)</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>36</v>
@@ -48764,7 +49562,7 @@
       </c>
       <c r="C47" s="36">
         <f t="shared" si="13"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="D47" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B47&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A47),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -48776,12 +49574,12 @@
       </c>
       <c r="F47" s="36">
         <f t="shared" si="10"/>
-        <v>83308</v>
+        <v>67558</v>
       </c>
       <c r="G47" s="29"/>
       <c r="H47" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>130908(N) + 5000(H)</v>
+        <v>115158(N) + 5000(H)</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>37</v>
@@ -48814,24 +49612,24 @@
       </c>
       <c r="C48" s="74">
         <f>SUM(C36:C47)/COUNT(C36:C47)</f>
-        <v>75735.416666666672</v>
+        <v>63922.916666666664</v>
       </c>
       <c r="D48" s="74">
         <f>SUM(D36:D47)/COUNT(D36:D47)</f>
-        <v>11200</v>
+        <v>12833.333333333334</v>
       </c>
       <c r="E48" s="74">
         <f>SUM(E36:E47)/COUNT(E36:E47)</f>
-        <v>7546.083333333333</v>
+        <v>10491.916666666666</v>
       </c>
       <c r="F48" s="74">
         <f>SUM(F36:F47)/COUNT(F36:F47)</f>
-        <v>79389.333333333328</v>
+        <v>66264.333333333328</v>
       </c>
       <c r="G48" s="73"/>
       <c r="H48" s="87">
         <f>(5000+H50)-(F47+M47)</f>
-        <v>-8648</v>
+        <v>7102</v>
       </c>
       <c r="I48" s="75" t="s">
         <v>266</v>
@@ -48865,7 +49663,7 @@
         <v>122260</v>
       </c>
       <c r="I50" s="122" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.3">
@@ -48873,7 +49671,7 @@
         <v>50000</v>
       </c>
       <c r="I51" s="89" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.3">
@@ -48881,7 +49679,7 @@
         <v>20000</v>
       </c>
       <c r="I52" s="89" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.3">
@@ -48889,7 +49687,7 @@
         <v>10000</v>
       </c>
       <c r="I53" s="89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.3">
@@ -48897,7 +49695,7 @@
         <v>10000</v>
       </c>
       <c r="I54" s="89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.3">
@@ -48905,7 +49703,7 @@
         <v>10000</v>
       </c>
       <c r="I55" s="89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.3">
@@ -48913,7 +49711,7 @@
         <v>10000</v>
       </c>
       <c r="I56" s="89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.3">
@@ -48921,7 +49719,7 @@
         <v>5000</v>
       </c>
       <c r="I57" s="89" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.3">
@@ -48929,7 +49727,7 @@
         <v>5000</v>
       </c>
       <c r="I58" s="89" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.3">
@@ -48937,7 +49735,7 @@
         <v>2000</v>
       </c>
       <c r="I59" s="89" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.3">
@@ -48945,7 +49743,7 @@
         <v>260</v>
       </c>
       <c r="I60" s="89" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.3">
@@ -48962,10 +49760,10 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="307" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="341" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52670,312 +53468,312 @@
     <sortCondition ref="A2:A300"/>
   </sortState>
   <conditionalFormatting sqref="A1 A8 A11:A13 A15 A17:A26">
-    <cfRule type="containsText" dxfId="305" priority="73" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="339" priority="73" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="74" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="338" priority="74" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="303" priority="71" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="337" priority="71" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="72" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="336" priority="72" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="containsText" dxfId="301" priority="53" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="335" priority="53" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="54" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="334" priority="54" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 A39:A64 A69:A71 A73 A183:A204 A76:A166 A216:A220 A168:A181 A206:A214 A222:A224 A226:A300">
-    <cfRule type="containsText" dxfId="299" priority="69" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="333" priority="69" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="70" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="332" priority="70" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A31">
-    <cfRule type="containsText" dxfId="297" priority="67" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="331" priority="67" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="68" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="330" priority="68" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="295" priority="65" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="329" priority="65" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="66" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="328" priority="66" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="293" priority="55" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="327" priority="55" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="56" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="326" priority="56" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="291" priority="63" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="325" priority="63" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="64" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="324" priority="64" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="289" priority="61" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="323" priority="61" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="62" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="322" priority="62" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="287" priority="59" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="321" priority="59" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="60" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="320" priority="60" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="containsText" dxfId="285" priority="57" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="319" priority="57" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="58" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="318" priority="58" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="283" priority="51" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="317" priority="51" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="52" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="316" priority="52" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:A68">
-    <cfRule type="containsText" dxfId="281" priority="49" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="315" priority="49" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="50" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="314" priority="50" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="279" priority="47" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="313" priority="47" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="48" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="312" priority="48" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="277" priority="45" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="311" priority="45" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="46" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="310" priority="46" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="containsText" dxfId="275" priority="43" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="309" priority="43" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="44" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="308" priority="44" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="containsText" dxfId="273" priority="41" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="307" priority="41" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="42" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="306" priority="42" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5 F180:F224 F226:F300 F8:F178">
-    <cfRule type="cellIs" dxfId="271" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="305" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G6 G180:G224 G226:G1048576 G8:G178">
-    <cfRule type="cellIs" dxfId="270" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="304" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5 F180:F224 F226:F1048576 F8:F178">
-    <cfRule type="cellIs" dxfId="269" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="303" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="containsText" dxfId="268" priority="36" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="302" priority="36" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="37" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="301" priority="37" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A88">
-    <cfRule type="containsText" dxfId="266" priority="34" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="300" priority="34" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="35" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="299" priority="35" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:A94">
-    <cfRule type="containsText" dxfId="264" priority="32" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="298" priority="32" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="33" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="297" priority="33" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="cellIs" dxfId="262" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="296" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179">
-    <cfRule type="cellIs" dxfId="261" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="295" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="cellIs" dxfId="260" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="294" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="containsText" dxfId="259" priority="27" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="293" priority="27" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="28" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="292" priority="28" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A182)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="257" priority="25" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="291" priority="25" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="26" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="290" priority="26" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="containsText" dxfId="255" priority="23" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="289" priority="23" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="24" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="288" priority="24" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A215">
-    <cfRule type="containsText" dxfId="253" priority="21" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="287" priority="21" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="22" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="286" priority="22" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A167">
-    <cfRule type="containsText" dxfId="251" priority="19" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="285" priority="19" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A167)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="20" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="284" priority="20" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205">
-    <cfRule type="containsText" dxfId="249" priority="17" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="283" priority="17" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A205)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="18" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="282" priority="18" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">
-    <cfRule type="containsText" dxfId="247" priority="15" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="281" priority="15" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A221)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="16" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="280" priority="16" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A221)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="245" priority="13" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="279" priority="13" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="14" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="278" priority="14" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="243" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="277" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="242" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="276" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="241" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="275" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="containsText" dxfId="240" priority="8" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="274" priority="8" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="9" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="273" priority="9" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="238" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="272" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="237" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="271" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="236" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="270" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="235" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="269" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="234" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="268" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="containsText" dxfId="233" priority="1" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="267" priority="1" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="2" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="266" priority="2" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54487,15 +55285,15 @@
       </c>
       <c r="D16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;D$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;D$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;E$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;E$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;F$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;F$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;G$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;G$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
@@ -54519,7 +55317,7 @@
       </c>
       <c r="L16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;L$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;L$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;M$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;M$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
@@ -54527,11 +55325,11 @@
       </c>
       <c r="N16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;N$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;N$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;O$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;O$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;P$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;P$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
@@ -54551,7 +55349,7 @@
       </c>
       <c r="T16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;T$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;T$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="98">
         <f>COUNTIFS('2020-CashLedger'!$H:$H,"*"&amp;U$2&amp;"*",'2020-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*") + COUNTIFS('2021-CashLedger'!$H:$H,"*"&amp;U$2&amp;"*",'2021-CashLedger'!$E:$E,"*"&amp;$A16&amp;"-"&amp;$B16&amp;"*")</f>
@@ -54563,11 +55361,11 @@
       </c>
       <c r="W16" s="99">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="X16" s="99">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
@@ -55536,44 +56334,44 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C3:H26 J3:V26">
-    <cfRule type="cellIs" dxfId="231" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="10" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:AR5">
-    <cfRule type="cellIs" dxfId="230" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="9" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H26 J3:V26">
-    <cfRule type="cellIs" dxfId="229" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="262" priority="7" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I26">
-    <cfRule type="cellIs" dxfId="226" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="5" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I26">
-    <cfRule type="cellIs" dxfId="225" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X26">
-    <cfRule type="cellIs" dxfId="222" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="256" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2019-Accounts-Local.xlsx
+++ b/2019-Accounts-Local.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Myworks\SaiPragnaEnclave\SPEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB908642-FAC0-4D46-863E-CBD9E84C66D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8CAE5D-00EB-4378-BB6D-328402748931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="732" windowWidth="22920" windowHeight="12228" tabRatio="747" activeTab="3" xr2:uid="{43043216-F16B-4478-BC9B-74E33D699851}"/>
   </bookViews>
@@ -2536,7 +2536,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="940">
+  <dxfs count="927">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2549,6 +2559,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2559,6 +2579,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2569,6 +2609,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2579,6 +2629,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2589,6 +2649,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2599,6 +2669,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2609,6 +2689,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2619,6 +2709,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2649,6 +2749,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2659,6 +2769,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2669,6 +2789,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2679,6 +2809,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2719,6 +2859,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2729,6 +2879,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2749,6 +2909,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2789,6 +2959,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2809,6 +2989,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2849,6 +3039,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2889,6 +3089,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2929,6 +3139,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2969,6 +3199,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3119,6 +3359,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3129,6 +3379,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3169,6 +3439,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3189,6 +3469,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3199,6 +3489,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3209,6 +3509,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3249,6 +3559,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3269,6 +3609,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3279,6 +3629,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3369,6 +3729,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3379,6 +3749,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3409,6 +3789,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3439,6 +3829,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3449,6 +3849,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3459,6 +3869,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3469,6 +3889,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3479,6 +3909,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3499,6 +3939,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3509,6 +3959,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3529,6 +3989,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3539,6 +4009,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3609,6 +4089,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3659,6 +4149,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3689,6 +4189,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3699,6 +4209,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3739,6 +4259,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3879,6 +4409,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3929,6 +4469,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3959,6 +4509,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3999,6 +4559,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4009,6 +4579,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4021,6 +4601,11 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -4029,8 +4614,38 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -4089,6 +4704,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4109,6 +4744,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4169,6 +4814,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4189,6 +4844,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4209,6 +4874,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4229,6 +4904,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4249,6 +4934,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4259,6 +4954,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4269,6 +4974,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4289,6 +5004,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4319,6 +5044,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4329,6 +5064,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4349,6 +5094,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4369,6 +5124,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4409,6 +5174,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4429,6 +5204,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4449,6 +5234,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4499,6 +5294,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4549,6 +5354,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4599,6 +5414,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4669,6 +5494,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4889,6 +5724,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4964,981 +5809,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -19944,110 +19814,110 @@
     <mergeCell ref="A26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="E33:P52">
-    <cfRule type="containsText" dxfId="939" priority="52" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="926" priority="52" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="938" priority="53" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="925" priority="53" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="937" priority="54" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="924" priority="54" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",E33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="containsText" dxfId="936" priority="49" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="923" priority="49" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="935" priority="50" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="922" priority="50" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="934" priority="51" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="921" priority="51" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="933" priority="46" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="920" priority="46" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="932" priority="47" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="919" priority="47" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="931" priority="48" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="918" priority="48" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:P54">
-    <cfRule type="cellIs" dxfId="930" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="917" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="929" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="916" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:P53">
-    <cfRule type="cellIs" dxfId="928" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="915" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="927" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="914" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D52">
-    <cfRule type="cellIs" dxfId="926" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="913" priority="16" operator="equal">
       <formula>"Tenant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:P23">
-    <cfRule type="containsText" dxfId="925" priority="12" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="912" priority="12" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="924" priority="13" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="911" priority="13" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="923" priority="14" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="910" priority="14" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="922" priority="9" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="909" priority="9" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="921" priority="10" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="908" priority="10" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="920" priority="11" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="907" priority="11" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="containsText" dxfId="919" priority="6" operator="containsText" text="Upcoming">
+    <cfRule type="containsText" dxfId="906" priority="6" operator="containsText" text="Upcoming">
       <formula>NOT(ISERROR(SEARCH("Upcoming",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="918" priority="7" operator="containsText" text="DUE">
+    <cfRule type="containsText" dxfId="905" priority="7" operator="containsText" text="DUE">
       <formula>NOT(ISERROR(SEARCH("DUE",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="917" priority="8" operator="containsText" text="PAID">
+    <cfRule type="containsText" dxfId="904" priority="8" operator="containsText" text="PAID">
       <formula>NOT(ISERROR(SEARCH("PAID",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:P25">
-    <cfRule type="cellIs" dxfId="916" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="903" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="915" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="902" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:P24">
-    <cfRule type="cellIs" dxfId="914" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="901" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="913" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="900" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D23">
-    <cfRule type="cellIs" dxfId="912" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="899" priority="1" operator="equal">
       <formula>"Tenant"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25276,906 +25146,906 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9 A1:A3 A203:A207 A209:A212 A11">
-    <cfRule type="containsText" dxfId="255" priority="201" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="201" priority="201" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="202" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="200" priority="202" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A33">
-    <cfRule type="containsText" dxfId="253" priority="189" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="199" priority="189" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="190" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="198" priority="190" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A298">
-    <cfRule type="containsText" dxfId="251" priority="199" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="197" priority="199" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="200" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="196" priority="200" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="containsText" dxfId="249" priority="197" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="195" priority="197" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="198" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="194" priority="198" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="247" priority="195" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="193" priority="195" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="196" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="192" priority="196" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="containsText" dxfId="245" priority="193" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="191" priority="193" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="194" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="190" priority="194" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="243" priority="191" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="189" priority="191" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="192" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="188" priority="192" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="241" priority="187" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="187" priority="187" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="188" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="186" priority="188" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A65">
-    <cfRule type="containsText" dxfId="239" priority="185" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="185" priority="185" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="186" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="184" priority="186" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="237" priority="183" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="183" priority="183" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="184" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="182" priority="184" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="235" priority="181" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="181" priority="181" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="182" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="180" priority="182" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="233" priority="179" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="179" priority="179" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="180" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="178" priority="180" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="231" priority="177" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="177" priority="177" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="178" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="176" priority="178" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F298">
-    <cfRule type="cellIs" dxfId="229" priority="176" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="176" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G306:G1048576 G2:G298">
-    <cfRule type="cellIs" dxfId="228" priority="175" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="175" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306:F1048576 F2:F298">
-    <cfRule type="cellIs" dxfId="227" priority="174" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="174" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="226" priority="172" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="172" priority="172" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="173" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="171" priority="173" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="224" priority="170" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="170" priority="170" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="171" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="169" priority="171" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="222" priority="168" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="168" priority="168" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="169" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="167" priority="169" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="220" priority="167" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="167" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="219" priority="166" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="166" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="218" priority="165" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="165" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="217" priority="163" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="163" priority="163" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="164" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="162" priority="164" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="215" priority="161" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="161" priority="161" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="162" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="160" priority="162" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="containsText" dxfId="213" priority="159" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="159" priority="159" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="160" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="158" priority="160" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="211" priority="157" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="157" priority="157" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="158" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="156" priority="158" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="containsText" dxfId="209" priority="155" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="155" priority="155" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="156" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="154" priority="156" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="207" priority="153" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="153" priority="153" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="154" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="152" priority="154" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="205" priority="152" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="152" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="204" priority="151" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="151" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="203" priority="150" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="150" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="containsText" dxfId="202" priority="148" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="148" priority="148" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="149" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="147" priority="149" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="200" priority="147" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="147" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G224">
-    <cfRule type="cellIs" dxfId="199" priority="146" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="146" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="198" priority="145" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="145" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="197" priority="143" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="143" priority="143" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="144" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="142" priority="144" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="195" priority="142" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="142" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="194" priority="141" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="141" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="193" priority="140" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="140" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="192" priority="138" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="138" priority="138" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="139" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="137" priority="139" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208">
-    <cfRule type="cellIs" dxfId="190" priority="137" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208">
-    <cfRule type="cellIs" dxfId="189" priority="136" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="136" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A226">
-    <cfRule type="containsText" dxfId="188" priority="134" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="134" priority="134" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="135" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="133" priority="135" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F226">
-    <cfRule type="cellIs" dxfId="186" priority="133" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="133" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G226">
-    <cfRule type="cellIs" dxfId="185" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="132" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="184" priority="131" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="131" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G299">
-    <cfRule type="cellIs" dxfId="183" priority="130" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="130" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="182" priority="128" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="128" priority="128" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="129" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="127" priority="129" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="cellIs" dxfId="180" priority="127" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="127" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="cellIs" dxfId="179" priority="126" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="126" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="178" priority="124" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="124" priority="124" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="125" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="123" priority="125" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="176" priority="122" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="122" priority="122" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="123" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="121" priority="123" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F301">
-    <cfRule type="cellIs" dxfId="174" priority="121" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="121" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301">
-    <cfRule type="cellIs" dxfId="173" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="120" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="containsText" dxfId="172" priority="118" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="119" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F302">
-    <cfRule type="cellIs" dxfId="170" priority="117" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="117" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302">
-    <cfRule type="cellIs" dxfId="169" priority="116" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="116" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="168" priority="114" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="114" priority="114" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="115" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="166" priority="113" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="113" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="165" priority="112" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="112" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="164" priority="110" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="110" priority="110" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="111" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="109" priority="111" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="162" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="109" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="161" priority="108" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="108" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="160" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="107" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="159" priority="105" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="106" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="157" priority="104" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="156" priority="103" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="103" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="155" priority="101" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="101" priority="101" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="102" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="100" priority="102" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="153" priority="100" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="100" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="152" priority="99" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="99" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="151" priority="98" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G17">
-    <cfRule type="cellIs" dxfId="150" priority="97" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="97" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="149" priority="96" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="96" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="148" priority="95" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="147" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="94" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="146" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="93" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="145" priority="91" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="91" priority="91" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="92" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="90" priority="92" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="143" priority="89" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="90" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="141" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="88" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="140" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="87" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="139" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="138" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="137" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="84" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="136" priority="83" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="135" priority="81" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="82" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="133" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="132" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="131" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="78" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="130" priority="76" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="77" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="128" priority="74" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="75" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="126" priority="72" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="73" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="124" priority="70" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="71" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="122" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="69" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="121" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="68" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="120" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="67" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="119" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="118" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="117" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="116" priority="62" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="63" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="114" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="113" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="112" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="111" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="110" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="109" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="108" priority="54" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="55" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="106" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="105" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="104" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="103" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="102" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="101" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="100" priority="46" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="47" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="98" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="97" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="96" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="95" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="94" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="93" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="92" priority="38" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="39" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="90" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="89" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="88" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="87" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="86" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="85" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="84" priority="30" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="31" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="82" priority="28" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="29" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="80" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:G28">
-    <cfRule type="cellIs" dxfId="79" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="78" priority="24" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="25" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="76" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="75" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="containsText" dxfId="74" priority="20" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="21" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="72" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="71" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="70" priority="16" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="17" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="68" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="67" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="66" priority="12" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="64" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="63" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="62" priority="8" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="60" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="59" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31513,499 +31383,499 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9:A11 A13 A1 A15:A23 A203:A207 A209:A212 A3">
-    <cfRule type="containsText" dxfId="911" priority="114" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="898" priority="114" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="910" priority="115" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="897" priority="115" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="909" priority="112" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="896" priority="112" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="908" priority="113" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="895" priority="113" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A33">
-    <cfRule type="containsText" dxfId="907" priority="94" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="894" priority="94" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="906" priority="95" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="893" priority="95" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A298">
-    <cfRule type="containsText" dxfId="905" priority="110" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="892" priority="110" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="904" priority="111" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="891" priority="111" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A28">
-    <cfRule type="containsText" dxfId="903" priority="108" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="890" priority="108" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="902" priority="109" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="889" priority="109" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="901" priority="106" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="888" priority="106" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="900" priority="107" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="887" priority="107" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="899" priority="96" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="886" priority="96" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="898" priority="97" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="885" priority="97" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="897" priority="104" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="884" priority="104" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="896" priority="105" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="883" priority="105" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="895" priority="102" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="882" priority="102" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="894" priority="103" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="881" priority="103" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="containsText" dxfId="893" priority="100" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="880" priority="100" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="892" priority="101" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="879" priority="101" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="891" priority="98" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="878" priority="98" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="890" priority="99" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="877" priority="99" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="889" priority="92" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="876" priority="92" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="888" priority="93" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="875" priority="93" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A65">
-    <cfRule type="containsText" dxfId="887" priority="90" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="874" priority="90" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="886" priority="91" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="873" priority="91" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="885" priority="88" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="872" priority="88" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="884" priority="89" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="871" priority="89" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="883" priority="86" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="870" priority="86" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="882" priority="87" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="869" priority="87" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="881" priority="84" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="868" priority="84" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="880" priority="85" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="867" priority="85" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="879" priority="82" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="866" priority="82" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="878" priority="83" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="865" priority="83" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F298">
-    <cfRule type="cellIs" dxfId="877" priority="81" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="864" priority="81" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G306:G1048576 G3:G298">
-    <cfRule type="cellIs" dxfId="876" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="863" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306:F1048576 F3:F298">
-    <cfRule type="cellIs" dxfId="875" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="862" priority="79" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="874" priority="77" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="861" priority="77" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="873" priority="78" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="860" priority="78" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="872" priority="75" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="859" priority="75" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="871" priority="76" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="858" priority="76" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="870" priority="73" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="857" priority="73" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="869" priority="74" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="856" priority="74" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="868" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="855" priority="72" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="867" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="854" priority="71" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="866" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="853" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="865" priority="68" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="852" priority="68" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="864" priority="69" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="851" priority="69" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="863" priority="66" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="850" priority="66" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="862" priority="67" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="849" priority="67" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="861" priority="64" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="848" priority="64" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="860" priority="65" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="847" priority="65" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="containsText" dxfId="859" priority="62" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="846" priority="62" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="858" priority="63" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="845" priority="63" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="857" priority="60" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="844" priority="60" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="856" priority="61" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="843" priority="61" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="containsText" dxfId="855" priority="58" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="842" priority="58" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="854" priority="59" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="841" priority="59" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="853" priority="56" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="840" priority="56" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="852" priority="57" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="839" priority="57" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="851" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="838" priority="55" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="850" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="837" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="849" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="836" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="containsText" dxfId="848" priority="51" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="835" priority="51" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="847" priority="52" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="834" priority="52" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="846" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="833" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G224">
-    <cfRule type="cellIs" dxfId="845" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="832" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="844" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="831" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="843" priority="46" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="830" priority="46" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="842" priority="47" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="829" priority="47" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="841" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="828" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="840" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="827" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="839" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="826" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="838" priority="41" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="825" priority="41" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="837" priority="42" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="824" priority="42" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208">
-    <cfRule type="cellIs" dxfId="836" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="823" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208">
-    <cfRule type="cellIs" dxfId="835" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="822" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A226">
-    <cfRule type="containsText" dxfId="834" priority="37" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="821" priority="37" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="833" priority="38" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="820" priority="38" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F226">
-    <cfRule type="cellIs" dxfId="832" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="819" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G226">
-    <cfRule type="cellIs" dxfId="831" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="818" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="830" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="817" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G299">
-    <cfRule type="cellIs" dxfId="829" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="816" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="828" priority="31" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="815" priority="31" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="827" priority="32" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="814" priority="32" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="cellIs" dxfId="826" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="813" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="cellIs" dxfId="825" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="812" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="824" priority="27" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="811" priority="27" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="823" priority="28" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="810" priority="28" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="822" priority="25" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="809" priority="25" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="821" priority="26" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="808" priority="26" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F301">
-    <cfRule type="cellIs" dxfId="820" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="807" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301">
-    <cfRule type="cellIs" dxfId="819" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="806" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="containsText" dxfId="818" priority="21" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="805" priority="21" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="817" priority="22" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="804" priority="22" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F302">
-    <cfRule type="cellIs" dxfId="816" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="803" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302">
-    <cfRule type="cellIs" dxfId="815" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="802" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="814" priority="17" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="801" priority="17" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="813" priority="18" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="800" priority="18" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="812" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="799" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="811" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="798" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="810" priority="13" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="797" priority="13" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="809" priority="14" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="796" priority="14" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="808" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="795" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="807" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="794" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="806" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="793" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="805" priority="8" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="792" priority="8" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="804" priority="9" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="791" priority="9" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="803" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="790" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="802" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="789" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="801" priority="4" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="788" priority="4" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="800" priority="5" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="787" priority="5" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="799" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="786" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="798" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="785" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="797" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="784" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39448,622 +39318,622 @@
     <sortCondition ref="F2:F309"/>
   </sortState>
   <conditionalFormatting sqref="A9:A11 A13 A1:A3 A15:A16 A203:A207 A209:A212 A18:A24">
-    <cfRule type="containsText" dxfId="796" priority="163" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="783" priority="163" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="795" priority="164" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="782" priority="164" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="794" priority="161" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="781" priority="161" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="793" priority="162" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="780" priority="162" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A34">
-    <cfRule type="containsText" dxfId="792" priority="133" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="779" priority="133" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="791" priority="134" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="778" priority="134" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A37:A61 A66:A68 A70 A180:A201 A73:A163 A214:A218 A165:A178 A220:A222 A227 A237:A298">
-    <cfRule type="containsText" dxfId="790" priority="157" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="777" priority="157" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="789" priority="158" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="776" priority="158" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A29">
-    <cfRule type="containsText" dxfId="788" priority="155" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="775" priority="155" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="787" priority="156" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="774" priority="156" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="786" priority="153" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="773" priority="153" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="785" priority="154" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="772" priority="154" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="784" priority="137" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="771" priority="137" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="783" priority="138" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="770" priority="138" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="782" priority="149" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="769" priority="149" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="781" priority="150" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="768" priority="150" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="780" priority="147" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="767" priority="147" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="779" priority="148" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="766" priority="148" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="containsText" dxfId="778" priority="141" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="765" priority="141" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="777" priority="142" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="764" priority="142" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="776" priority="139" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="763" priority="139" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="775" priority="140" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="762" priority="140" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="774" priority="131" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="761" priority="131" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="773" priority="132" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="760" priority="132" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A65">
-    <cfRule type="containsText" dxfId="772" priority="129" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="759" priority="129" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="771" priority="130" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="758" priority="130" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="770" priority="127" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="757" priority="127" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="769" priority="128" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="756" priority="128" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="768" priority="125" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="755" priority="125" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="767" priority="126" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="754" priority="126" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="766" priority="123" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="753" priority="123" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="765" priority="124" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="752" priority="124" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="764" priority="121" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="751" priority="121" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="763" priority="122" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="750" priority="122" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F227 F2:F16 F177:F207 F209:F212 F237:F298 F214:F222 F18:F175">
-    <cfRule type="cellIs" dxfId="762" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="749" priority="120" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G227 G2:G16 G177:G207 G209:G212 G310:G1048576 G237:G298 G214:G222 G18:G175">
-    <cfRule type="cellIs" dxfId="761" priority="119" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="748" priority="119" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F227 F310:F1048576 F237:F298">
-    <cfRule type="cellIs" dxfId="760" priority="118" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="747" priority="118" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="759" priority="116" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="746" priority="116" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="758" priority="117" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="745" priority="117" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="757" priority="114" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="744" priority="114" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="756" priority="115" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="743" priority="115" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="755" priority="112" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="742" priority="112" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="754" priority="113" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="741" priority="113" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="753" priority="111" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="740" priority="111" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="752" priority="110" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="739" priority="110" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="751" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="738" priority="109" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="750" priority="107" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="737" priority="107" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="749" priority="108" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="736" priority="108" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="748" priority="105" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="735" priority="105" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="747" priority="106" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="734" priority="106" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="containsText" dxfId="746" priority="99" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="733" priority="99" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="745" priority="100" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="732" priority="100" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="744" priority="97" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="731" priority="97" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="743" priority="98" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="730" priority="98" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="containsText" dxfId="742" priority="95" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="729" priority="95" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="741" priority="96" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="728" priority="96" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="740" priority="93" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="727" priority="93" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="739" priority="94" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="726" priority="94" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="738" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="725" priority="92" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="737" priority="91" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="724" priority="91" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="736" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="723" priority="90" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="containsText" dxfId="735" priority="88" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="722" priority="88" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="734" priority="89" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="721" priority="89" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="733" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="720" priority="87" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G224">
-    <cfRule type="cellIs" dxfId="732" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="719" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="731" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="718" priority="85" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="730" priority="83" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="717" priority="83" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="729" priority="84" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="716" priority="84" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="728" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="715" priority="82" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="727" priority="81" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="714" priority="81" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="726" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="713" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="725" priority="78" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="712" priority="78" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="724" priority="79" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="711" priority="79" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208">
-    <cfRule type="cellIs" dxfId="723" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="710" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208">
-    <cfRule type="cellIs" dxfId="722" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="709" priority="76" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A226">
-    <cfRule type="containsText" dxfId="721" priority="74" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="708" priority="74" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="720" priority="75" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="707" priority="75" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F226">
-    <cfRule type="cellIs" dxfId="719" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="706" priority="73" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G226">
-    <cfRule type="cellIs" dxfId="718" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="705" priority="72" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="717" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="704" priority="71" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G299">
-    <cfRule type="cellIs" dxfId="716" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="703" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="715" priority="68" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="702" priority="68" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="714" priority="69" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="701" priority="69" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="cellIs" dxfId="713" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="700" priority="67" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="cellIs" dxfId="712" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="699" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="711" priority="64" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="698" priority="64" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="710" priority="65" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="697" priority="65" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="709" priority="62" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="696" priority="62" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="708" priority="63" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="695" priority="63" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F301">
-    <cfRule type="cellIs" dxfId="707" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="694" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301">
-    <cfRule type="cellIs" dxfId="706" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="693" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="containsText" dxfId="705" priority="58" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="692" priority="58" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="704" priority="59" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="691" priority="59" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F302">
-    <cfRule type="cellIs" dxfId="703" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="690" priority="57" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302">
-    <cfRule type="cellIs" dxfId="702" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="689" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="701" priority="54" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="688" priority="54" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="700" priority="55" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="687" priority="55" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="699" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="686" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="698" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="685" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="697" priority="50" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="684" priority="50" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="696" priority="51" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="683" priority="51" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="695" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="682" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="694" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="681" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="693" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="680" priority="47" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="692" priority="45" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="679" priority="45" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="691" priority="46" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="678" priority="46" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="690" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="677" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="689" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="676" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="688" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="675" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="687" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="674" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="686" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="673" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="685" priority="38" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="672" priority="38" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="684" priority="39" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="671" priority="39" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A306">
-    <cfRule type="containsText" dxfId="683" priority="36" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="670" priority="36" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A306)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="682" priority="37" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="669" priority="37" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A306)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306">
-    <cfRule type="cellIs" dxfId="681" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="668" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G306">
-    <cfRule type="cellIs" dxfId="680" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="667" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306">
-    <cfRule type="cellIs" dxfId="679" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="666" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A307">
-    <cfRule type="containsText" dxfId="678" priority="31" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="665" priority="31" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A307)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="677" priority="32" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="664" priority="32" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F307">
-    <cfRule type="cellIs" dxfId="676" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="663" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G307">
-    <cfRule type="cellIs" dxfId="675" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="662" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A228 A230:A236">
-    <cfRule type="containsText" dxfId="674" priority="19" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="661" priority="19" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="673" priority="20" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="660" priority="20" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F228:F236">
-    <cfRule type="cellIs" dxfId="672" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="659" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G228:G236">
-    <cfRule type="cellIs" dxfId="671" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="658" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F228:F236">
-    <cfRule type="cellIs" dxfId="670" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="657" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="669" priority="14" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="656" priority="14" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="668" priority="15" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="655" priority="15" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F213">
-    <cfRule type="cellIs" dxfId="667" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="654" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G213">
-    <cfRule type="cellIs" dxfId="666" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="653" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F213">
-    <cfRule type="cellIs" dxfId="665" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="652" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A308">
-    <cfRule type="containsText" dxfId="664" priority="9" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="651" priority="9" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A308)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="663" priority="10" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="650" priority="10" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A308)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F308">
-    <cfRule type="cellIs" dxfId="662" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="649" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G308">
-    <cfRule type="cellIs" dxfId="661" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="648" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A309">
-    <cfRule type="containsText" dxfId="660" priority="5" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="647" priority="5" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A309)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="659" priority="6" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="646" priority="6" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A309)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F309">
-    <cfRule type="cellIs" dxfId="658" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="645" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G309">
-    <cfRule type="cellIs" dxfId="657" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="644" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A229">
-    <cfRule type="containsText" dxfId="656" priority="1" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="643" priority="1" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="655" priority="2" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="642" priority="2" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A229)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40103,7 +39973,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41250,7 +41120,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>50</v>
       </c>
@@ -41303,7 +41173,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>50</v>
       </c>
@@ -41512,7 +41382,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>50</v>
       </c>
@@ -41538,7 +41408,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>50</v>
       </c>
@@ -41564,7 +41434,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>49</v>
       </c>
@@ -41741,7 +41611,7 @@
         <v>414</v>
       </c>
       <c r="F62" s="16">
-        <v>13650</v>
+        <v>13114</v>
       </c>
       <c r="G62" s="19">
         <f>IF(A62="Expense / Out-Flow","-",0)</f>
@@ -41761,7 +41631,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="19">
-        <f t="shared" ref="G38:G101" si="0">IF(A63="Expense / Out-Flow","-",0)</f>
+        <f t="shared" ref="G63:G101" si="0">IF(A63="Expense / Out-Flow","-",0)</f>
         <v>0</v>
       </c>
       <c r="H63" s="21"/>
@@ -45886,1582 +45756,1582 @@
     <sortCondition descending="1" ref="A2:A62"/>
   </sortState>
   <conditionalFormatting sqref="A9 A1:A3 A203:A207 A209:A212 A11">
-    <cfRule type="containsText" dxfId="654" priority="439" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="641" priority="439" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="653" priority="440" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="640" priority="440" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11 A43:A45 A47:A48 A52:A53 A63:A298">
-    <cfRule type="containsText" dxfId="652" priority="435" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="639" priority="435" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="651" priority="436" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="638" priority="436" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="containsText" dxfId="650" priority="425" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="637" priority="425" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="649" priority="426" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="636" priority="426" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="containsText" dxfId="648" priority="423" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="635" priority="423" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="647" priority="424" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="634" priority="424" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A65">
-    <cfRule type="containsText" dxfId="646" priority="415" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="633" priority="415" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="645" priority="416" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="632" priority="416" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="644" priority="413" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="631" priority="413" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="643" priority="414" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="630" priority="414" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="642" priority="411" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="629" priority="411" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="641" priority="412" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="628" priority="412" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="640" priority="409" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="627" priority="409" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="639" priority="410" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="626" priority="410" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="638" priority="407" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="625" priority="407" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="637" priority="408" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="624" priority="408" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F11 F17 F5:F9 F35:F36 F38:F39 F43:F48 F52:F53 F55:F56 F58 F63:F298">
-    <cfRule type="cellIs" dxfId="636" priority="406" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="623" priority="406" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G306:G1048576 G2:G3 G11 G17 G5:G9 G35:G36 G38:G39 G43:G48 G52:G53 G55:G56 G58 G63:G298">
-    <cfRule type="cellIs" dxfId="635" priority="405" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="622" priority="405" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F306:F1048576 F11 F17 F35:F36 F38:F39 F43:F48 F52:F53 F55:F56 F58 F63:F298">
-    <cfRule type="cellIs" dxfId="634" priority="404" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="621" priority="404" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="containsText" dxfId="633" priority="402" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="620" priority="402" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="632" priority="403" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="619" priority="403" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A85">
-    <cfRule type="containsText" dxfId="631" priority="400" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="618" priority="400" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="630" priority="401" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="617" priority="401" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="containsText" dxfId="629" priority="398" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="616" priority="398" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="399" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="615" priority="399" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="627" priority="397" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="614" priority="397" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="cellIs" dxfId="626" priority="396" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="613" priority="396" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="cellIs" dxfId="625" priority="395" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="612" priority="395" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="containsText" dxfId="624" priority="393" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="611" priority="393" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="623" priority="394" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="610" priority="394" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="622" priority="389" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="609" priority="389" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="621" priority="390" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="608" priority="390" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="containsText" dxfId="620" priority="387" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="607" priority="387" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="619" priority="388" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="606" priority="388" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="618" priority="385" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="605" priority="385" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="617" priority="386" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="604" priority="386" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="containsText" dxfId="616" priority="383" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="603" priority="383" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="615" priority="384" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="602" priority="384" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="containsText" dxfId="614" priority="381" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="601" priority="381" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="613" priority="382" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="600" priority="382" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="612" priority="380" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="599" priority="380" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="611" priority="379" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="598" priority="379" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="cellIs" dxfId="610" priority="378" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="597" priority="378" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="containsText" dxfId="609" priority="376" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="596" priority="376" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A224)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="608" priority="377" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="595" priority="377" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="607" priority="375" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="594" priority="375" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G224">
-    <cfRule type="cellIs" dxfId="606" priority="374" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="593" priority="374" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="cellIs" dxfId="605" priority="373" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="592" priority="373" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="604" priority="371" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="591" priority="371" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="603" priority="372" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="590" priority="372" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="602" priority="370" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="589" priority="370" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="601" priority="369" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="588" priority="369" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="600" priority="368" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="587" priority="368" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="599" priority="366" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="586" priority="366" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="598" priority="367" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="585" priority="367" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208">
-    <cfRule type="cellIs" dxfId="597" priority="365" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="584" priority="365" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208">
-    <cfRule type="cellIs" dxfId="596" priority="364" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="583" priority="364" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A226">
-    <cfRule type="containsText" dxfId="595" priority="362" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="582" priority="362" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="594" priority="363" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="581" priority="363" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F226">
-    <cfRule type="cellIs" dxfId="593" priority="361" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="580" priority="361" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G226">
-    <cfRule type="cellIs" dxfId="592" priority="360" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="579" priority="360" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299">
-    <cfRule type="cellIs" dxfId="591" priority="359" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="578" priority="359" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G299">
-    <cfRule type="cellIs" dxfId="590" priority="358" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="577" priority="358" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="containsText" dxfId="589" priority="356" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="576" priority="356" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="588" priority="357" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="575" priority="357" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="cellIs" dxfId="587" priority="355" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="574" priority="355" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="cellIs" dxfId="586" priority="354" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="573" priority="354" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="containsText" dxfId="585" priority="352" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="572" priority="352" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A300)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="584" priority="353" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="571" priority="353" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A300)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="583" priority="350" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="570" priority="350" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A301)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="582" priority="351" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="569" priority="351" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A301)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F301">
-    <cfRule type="cellIs" dxfId="581" priority="349" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="568" priority="349" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301">
-    <cfRule type="cellIs" dxfId="580" priority="348" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="567" priority="348" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="containsText" dxfId="579" priority="346" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="566" priority="346" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="578" priority="347" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="565" priority="347" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F302">
-    <cfRule type="cellIs" dxfId="577" priority="345" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="564" priority="345" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302">
-    <cfRule type="cellIs" dxfId="576" priority="344" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="563" priority="344" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="575" priority="342" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="562" priority="342" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A303)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="574" priority="343" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="561" priority="343" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A303)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F303">
-    <cfRule type="cellIs" dxfId="573" priority="341" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="560" priority="341" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G303">
-    <cfRule type="cellIs" dxfId="572" priority="340" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="559" priority="340" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="571" priority="338" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="558" priority="338" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A304)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="570" priority="339" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="557" priority="339" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="569" priority="337" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="556" priority="337" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G304:G305">
-    <cfRule type="cellIs" dxfId="568" priority="336" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="555" priority="336" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F304">
-    <cfRule type="cellIs" dxfId="567" priority="335" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="554" priority="335" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305">
-    <cfRule type="containsText" dxfId="566" priority="333" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="553" priority="333" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="565" priority="334" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="552" priority="334" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="564" priority="332" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="551" priority="332" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305">
-    <cfRule type="cellIs" dxfId="563" priority="331" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="550" priority="331" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="562" priority="329" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="549" priority="329" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="561" priority="330" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="548" priority="330" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="560" priority="328" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="547" priority="328" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="559" priority="327" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="546" priority="327" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="558" priority="324" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="545" priority="324" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G17">
-    <cfRule type="cellIs" dxfId="557" priority="323" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="544" priority="323" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="cellIs" dxfId="556" priority="322" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="543" priority="322" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="555" priority="313" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="542" priority="313" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="554" priority="312" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="541" priority="312" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="553" priority="311" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="540" priority="311" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="552" priority="309" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="539" priority="309" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="551" priority="310" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="538" priority="310" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="550" priority="307" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="537" priority="307" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="549" priority="308" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="536" priority="308" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="548" priority="306" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="535" priority="306" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="547" priority="305" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="534" priority="305" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="546" priority="304" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="533" priority="304" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="545" priority="299" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="532" priority="299" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="544" priority="298" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="531" priority="298" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="543" priority="297" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="530" priority="297" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="542" priority="295" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="529" priority="295" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="541" priority="296" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="528" priority="296" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="540" priority="294" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="527" priority="294" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="539" priority="293" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="526" priority="293" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="538" priority="292" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="525" priority="292" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="537" priority="290" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="524" priority="290" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="536" priority="291" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="523" priority="291" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="535" priority="288" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="522" priority="288" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="534" priority="289" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="521" priority="289" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="533" priority="286" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="520" priority="286" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="532" priority="287" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="519" priority="287" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="531" priority="284" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="518" priority="284" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="530" priority="285" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="517" priority="285" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="529" priority="283" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="516" priority="283" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="528" priority="282" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="515" priority="282" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="527" priority="281" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="514" priority="281" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="526" priority="280" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="513" priority="280" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="525" priority="279" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="512" priority="279" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="524" priority="278" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="511" priority="278" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="523" priority="276" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="510" priority="276" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="522" priority="277" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="509" priority="277" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="521" priority="275" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="508" priority="275" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="520" priority="274" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="507" priority="274" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="519" priority="273" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="506" priority="273" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="518" priority="272" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="505" priority="272" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="517" priority="271" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="504" priority="271" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="516" priority="270" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="503" priority="270" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="515" priority="268" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="502" priority="268" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="514" priority="269" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="501" priority="269" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="513" priority="267" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="500" priority="267" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="512" priority="266" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="499" priority="266" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="511" priority="265" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="498" priority="265" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="510" priority="264" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="497" priority="264" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="509" priority="263" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="496" priority="263" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="508" priority="262" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="495" priority="262" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="507" priority="260" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="494" priority="260" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="506" priority="261" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="493" priority="261" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="505" priority="259" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="492" priority="259" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="504" priority="258" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="491" priority="258" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="503" priority="257" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="490" priority="257" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="502" priority="256" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="489" priority="256" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="501" priority="255" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="488" priority="255" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="500" priority="254" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="487" priority="254" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="499" priority="252" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="486" priority="252" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="498" priority="253" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="485" priority="253" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="497" priority="251" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="484" priority="251" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="496" priority="250" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="483" priority="250" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="495" priority="249" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="482" priority="249" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="494" priority="248" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="481" priority="248" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="493" priority="247" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="480" priority="247" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="492" priority="246" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="479" priority="246" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="491" priority="244" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="478" priority="244" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="490" priority="245" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="477" priority="245" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="489" priority="242" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="476" priority="242" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="488" priority="243" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="475" priority="243" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="487" priority="241" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="474" priority="241" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:G28">
-    <cfRule type="cellIs" dxfId="486" priority="240" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="473" priority="240" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="485" priority="238" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="472" priority="238" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="484" priority="239" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="471" priority="239" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="483" priority="237" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="470" priority="237" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="482" priority="236" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="469" priority="236" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="containsText" dxfId="481" priority="234" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="468" priority="234" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="480" priority="235" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="467" priority="235" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="479" priority="233" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="466" priority="233" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="478" priority="232" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="465" priority="232" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="477" priority="230" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="464" priority="230" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="476" priority="231" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="463" priority="231" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="475" priority="229" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="462" priority="229" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="474" priority="228" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="461" priority="228" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="473" priority="226" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="460" priority="226" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="472" priority="227" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="459" priority="227" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="471" priority="225" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="458" priority="225" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="470" priority="224" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="457" priority="224" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="469" priority="222" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="456" priority="222" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="223" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="455" priority="223" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="467" priority="221" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="454" priority="221" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="466" priority="220" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="453" priority="220" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="465" priority="219" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="452" priority="219" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="464" priority="217" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="451" priority="217" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="463" priority="218" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="450" priority="218" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="462" priority="216" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="449" priority="216" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="461" priority="215" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="448" priority="215" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="460" priority="214" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="447" priority="214" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="459" priority="212" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="446" priority="212" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="458" priority="213" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="445" priority="213" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="457" priority="211" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="444" priority="211" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="456" priority="210" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="443" priority="210" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G32">
-    <cfRule type="cellIs" dxfId="455" priority="209" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="442" priority="209" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="454" priority="207" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="441" priority="207" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="453" priority="208" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="440" priority="208" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="452" priority="206" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="439" priority="206" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="451" priority="205" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="438" priority="205" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="450" priority="203" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="437" priority="203" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="449" priority="204" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="436" priority="204" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="448" priority="202" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="435" priority="202" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="447" priority="201" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="434" priority="201" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="446" priority="195" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="433" priority="195" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="445" priority="193" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="432" priority="193" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="194" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="431" priority="194" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="443" priority="192" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="430" priority="192" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="442" priority="191" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="429" priority="191" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="441" priority="188" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="428" priority="188" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="440" priority="187" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="427" priority="187" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="439" priority="186" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="426" priority="186" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="438" priority="184" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="425" priority="184" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="437" priority="185" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="424" priority="185" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="436" priority="182" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="423" priority="182" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="435" priority="183" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="422" priority="183" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="434" priority="181" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="421" priority="181" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="433" priority="179" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="420" priority="179" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="432" priority="180" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="419" priority="180" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="431" priority="178" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="418" priority="178" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="430" priority="177" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="417" priority="177" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="429" priority="175" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="416" priority="175" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="428" priority="176" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="415" priority="176" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="427" priority="174" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="414" priority="174" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="426" priority="173" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="413" priority="173" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="425" priority="172" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="412" priority="172" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="424" priority="170" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="411" priority="170" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="423" priority="171" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="410" priority="171" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="422" priority="168" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="409" priority="168" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="421" priority="169" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="408" priority="169" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="420" priority="149" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="407" priority="149" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="419" priority="150" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="406" priority="150" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="418" priority="147" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="405" priority="147" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="417" priority="148" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="404" priority="148" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="416" priority="153" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="403" priority="153" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="415" priority="152" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="402" priority="152" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="414" priority="151" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="401" priority="151" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="413" priority="143" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="400" priority="143" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="144" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="399" priority="144" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="411" priority="141" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="398" priority="141" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="410" priority="142" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="397" priority="142" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="containsText" dxfId="409" priority="133" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="396" priority="133" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="134" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="395" priority="134" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="407" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="394" priority="132" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="406" priority="131" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="393" priority="131" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="405" priority="130" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="392" priority="130" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="404" priority="129" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="391" priority="129" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="403" priority="127" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="390" priority="127" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="128" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="389" priority="128" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="401" priority="126" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="388" priority="126" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="400" priority="125" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="387" priority="125" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="399" priority="117" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="386" priority="117" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="398" priority="116" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="385" priority="116" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="397" priority="115" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="384" priority="115" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A45">
-    <cfRule type="containsText" dxfId="396" priority="113" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="383" priority="113" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="395" priority="114" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="382" priority="114" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="394" priority="106" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="381" priority="106" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="107" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="380" priority="107" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="392" priority="105" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="379" priority="105" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="cellIs" dxfId="391" priority="104" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="378" priority="104" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="390" priority="103" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="377" priority="103" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="389" priority="101" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="376" priority="101" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="102" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="375" priority="102" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="387" priority="99" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="374" priority="99" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="100" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="373" priority="100" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="385" priority="98" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="372" priority="98" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="384" priority="97" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="371" priority="97" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="383" priority="96" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="370" priority="96" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="containsText" dxfId="382" priority="94" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="369" priority="94" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="95" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="368" priority="95" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="containsText" dxfId="380" priority="92" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="367" priority="92" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="379" priority="93" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="366" priority="93" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="378" priority="91" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="365" priority="91" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="377" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="364" priority="90" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="376" priority="89" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="363" priority="89" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="375" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="362" priority="88" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="374" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="361" priority="87" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="373" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="360" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="containsText" dxfId="372" priority="84" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="359" priority="84" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="371" priority="85" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="358" priority="85" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="containsText" dxfId="370" priority="82" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="357" priority="82" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="83" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="356" priority="83" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A53">
-    <cfRule type="containsText" dxfId="368" priority="80" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="355" priority="80" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="81" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="354" priority="81" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="366" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="353" priority="79" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="365" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="352" priority="78" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="364" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="351" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A53">
-    <cfRule type="containsText" dxfId="363" priority="75" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="350" priority="75" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="362" priority="76" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="349" priority="76" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="containsText" dxfId="361" priority="73" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="348" priority="73" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="74" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="347" priority="74" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="containsText" dxfId="359" priority="71" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="346" priority="71" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="72" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="345" priority="72" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="357" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="344" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="356" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="343" priority="69" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="355" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="342" priority="68" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="354" priority="66" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="341" priority="66" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="67" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="340" priority="67" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="352" priority="64" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="339" priority="64" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="351" priority="65" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="338" priority="65" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="350" priority="59" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="337" priority="59" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="60" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="336" priority="60" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="348" priority="57" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="335" priority="57" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="347" priority="58" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="334" priority="58" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="346" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="333" priority="63" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="345" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="332" priority="62" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="344" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="331" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="containsText" dxfId="343" priority="55" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="330" priority="55" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="56" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="329" priority="56" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="328" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="327" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="326" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="325" priority="50" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="324" priority="51" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="323" priority="48" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="322" priority="49" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="321" priority="46" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="320" priority="47" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="319" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="318" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="317" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="316" priority="41" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="315" priority="42" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="314" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="313" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="312" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="311" priority="23" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="310" priority="24" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="309" priority="21" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="308" priority="22" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="307" priority="19" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="306" priority="20" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="305" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="304" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="303" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="302" priority="14" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="301" priority="15" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="300" priority="12" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="299" priority="13" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="298" priority="10" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="297" priority="11" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="296" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="295" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="294" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="293" priority="5" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="292" priority="6" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="291" priority="3" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="290" priority="4" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="289" priority="1" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="288" priority="2" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47497,8 +47367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE70253-1826-4643-ADA7-C9655C457177}">
   <dimension ref="A2:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56:H58"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49102,16 +48972,16 @@
       </c>
       <c r="E38" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B38&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A38),('2020-CashLedger'!$F$2:$F$1998))</f>
-        <v>40700</v>
+        <v>40164</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="10"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>115158(N) + 5000(H)</v>
+        <v>115694(N) + 5000(H)</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>29</v>
@@ -49146,7 +49016,7 @@
       </c>
       <c r="C39" s="36">
         <f t="shared" si="13"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="D39" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B39&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A39),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -49158,12 +49028,12 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="10"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>115158(N) + 5000(H)</v>
+        <v>115694(N) + 5000(H)</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>6</v>
@@ -49198,7 +49068,7 @@
       </c>
       <c r="C40" s="36">
         <f t="shared" si="13"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="D40" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B40&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A40),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -49210,12 +49080,12 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="10"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>115158(N) + 5000(H)</v>
+        <v>115694(N) + 5000(H)</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>30</v>
@@ -49250,7 +49120,7 @@
       </c>
       <c r="C41" s="36">
         <f t="shared" si="13"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="D41" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B41&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A41),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -49262,12 +49132,12 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="10"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="G41" s="29"/>
       <c r="H41" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>115158(N) + 5000(H)</v>
+        <v>115694(N) + 5000(H)</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>31</v>
@@ -49302,7 +49172,7 @@
       </c>
       <c r="C42" s="36">
         <f t="shared" si="13"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="D42" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B42&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A42),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -49314,12 +49184,12 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="10"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>115158(N) + 5000(H)</v>
+        <v>115694(N) + 5000(H)</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>32</v>
@@ -49354,7 +49224,7 @@
       </c>
       <c r="C43" s="36">
         <f t="shared" si="13"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="D43" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B43&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A43),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -49366,12 +49236,12 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="10"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="G43" s="29"/>
       <c r="H43" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>115158(N) + 5000(H)</v>
+        <v>115694(N) + 5000(H)</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>33</v>
@@ -49406,7 +49276,7 @@
       </c>
       <c r="C44" s="36">
         <f t="shared" si="13"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="D44" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B44&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A44),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -49418,12 +49288,12 @@
       </c>
       <c r="F44" s="36">
         <f t="shared" si="10"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="G44" s="29"/>
       <c r="H44" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>115158(N) + 5000(H)</v>
+        <v>115694(N) + 5000(H)</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>34</v>
@@ -49458,7 +49328,7 @@
       </c>
       <c r="C45" s="36">
         <f t="shared" si="13"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="D45" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B45&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A45),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -49470,12 +49340,12 @@
       </c>
       <c r="F45" s="36">
         <f t="shared" si="10"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="G45" s="29"/>
       <c r="H45" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>115158(N) + 5000(H)</v>
+        <v>115694(N) + 5000(H)</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>35</v>
@@ -49510,7 +49380,7 @@
       </c>
       <c r="C46" s="36">
         <f t="shared" si="13"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="D46" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B46&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A46),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -49522,12 +49392,12 @@
       </c>
       <c r="F46" s="36">
         <f t="shared" si="10"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>115158(N) + 5000(H)</v>
+        <v>115694(N) + 5000(H)</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>36</v>
@@ -49562,7 +49432,7 @@
       </c>
       <c r="C47" s="36">
         <f t="shared" si="13"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="D47" s="36">
         <f>SUMPRODUCT(--(MONTH('2020-CashLedger'!$D$2:$D$1998)=MONTH(DATEVALUE($B47&amp;"1"))),--(YEAR('2020-CashLedger'!$D$2:$D$1998)=$A47),('2020-CashLedger'!$G$2:$G$1998))</f>
@@ -49574,12 +49444,12 @@
       </c>
       <c r="F47" s="36">
         <f t="shared" si="10"/>
-        <v>67558</v>
+        <v>68094</v>
       </c>
       <c r="G47" s="29"/>
       <c r="H47" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>115158(N) + 5000(H)</v>
+        <v>115694(N) + 5000(H)</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>37</v>
@@ -49612,7 +49482,7 @@
       </c>
       <c r="C48" s="74">
         <f>SUM(C36:C47)/COUNT(C36:C47)</f>
-        <v>63922.916666666664</v>
+        <v>64324.916666666664</v>
       </c>
       <c r="D48" s="74">
         <f>SUM(D36:D47)/COUNT(D36:D47)</f>
@@ -49620,16 +49490,16 @@
       </c>
       <c r="E48" s="74">
         <f>SUM(E36:E47)/COUNT(E36:E47)</f>
-        <v>10491.916666666666</v>
+        <v>10447.25</v>
       </c>
       <c r="F48" s="74">
         <f>SUM(F36:F47)/COUNT(F36:F47)</f>
-        <v>66264.333333333328</v>
+        <v>66711</v>
       </c>
       <c r="G48" s="73"/>
       <c r="H48" s="87">
         <f>(5000+H50)-(F47+M47)</f>
-        <v>7102</v>
+        <v>6566</v>
       </c>
       <c r="I48" s="75" t="s">
         <v>266</v>
@@ -49760,10 +49630,10 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="341" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="287" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53468,312 +53338,312 @@
     <sortCondition ref="A2:A300"/>
   </sortState>
   <conditionalFormatting sqref="A1 A8 A11:A13 A15 A17:A26">
-    <cfRule type="containsText" dxfId="339" priority="73" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="285" priority="73" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="338" priority="74" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="284" priority="74" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="337" priority="71" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="283" priority="71" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="72" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="282" priority="72" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="containsText" dxfId="335" priority="53" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="281" priority="53" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="54" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="280" priority="54" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 A39:A64 A69:A71 A73 A183:A204 A76:A166 A216:A220 A168:A181 A206:A214 A222:A224 A226:A300">
-    <cfRule type="containsText" dxfId="333" priority="69" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="279" priority="69" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="70" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="278" priority="70" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A31">
-    <cfRule type="containsText" dxfId="331" priority="67" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="277" priority="67" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="68" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="276" priority="68" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="329" priority="65" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="275" priority="65" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="66" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="274" priority="66" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="327" priority="55" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="273" priority="55" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="56" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="272" priority="56" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="325" priority="63" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="271" priority="63" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="64" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="270" priority="64" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="323" priority="61" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="269" priority="61" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="62" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="268" priority="62" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="321" priority="59" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="267" priority="59" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="60" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="266" priority="60" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="containsText" dxfId="319" priority="57" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="265" priority="57" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="58" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="264" priority="58" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="317" priority="51" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="263" priority="51" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="52" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="262" priority="52" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:A68">
-    <cfRule type="containsText" dxfId="315" priority="49" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="261" priority="49" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="50" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="260" priority="50" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="313" priority="47" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="259" priority="47" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="48" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="258" priority="48" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="311" priority="45" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="257" priority="45" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="46" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="256" priority="46" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="containsText" dxfId="309" priority="43" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="255" priority="43" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="44" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="254" priority="44" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="containsText" dxfId="307" priority="41" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="253" priority="41" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="42" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="252" priority="42" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5 F180:F224 F226:F300 F8:F178">
-    <cfRule type="cellIs" dxfId="305" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="251" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G6 G180:G224 G226:G1048576 G8:G178">
-    <cfRule type="cellIs" dxfId="304" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="250" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5 F180:F224 F226:F1048576 F8:F178">
-    <cfRule type="cellIs" dxfId="303" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="249" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="containsText" dxfId="302" priority="36" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="248" priority="36" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="37" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="247" priority="37" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A88">
-    <cfRule type="containsText" dxfId="300" priority="34" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="246" priority="34" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="35" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="245" priority="35" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:A94">
-    <cfRule type="containsText" dxfId="298" priority="32" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="244" priority="32" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="33" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="243" priority="33" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="cellIs" dxfId="296" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179">
-    <cfRule type="cellIs" dxfId="295" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="241" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="cellIs" dxfId="294" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="containsText" dxfId="293" priority="27" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="239" priority="27" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="28" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="238" priority="28" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A182)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="291" priority="25" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="237" priority="25" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="26" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="236" priority="26" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="containsText" dxfId="289" priority="23" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="235" priority="23" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="24" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="234" priority="24" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A215">
-    <cfRule type="containsText" dxfId="287" priority="21" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="233" priority="21" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="22" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="232" priority="22" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A167">
-    <cfRule type="containsText" dxfId="285" priority="19" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="231" priority="19" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A167)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="20" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="230" priority="20" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205">
-    <cfRule type="containsText" dxfId="283" priority="17" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="229" priority="17" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A205)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="18" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="228" priority="18" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">
-    <cfRule type="containsText" dxfId="281" priority="15" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="227" priority="15" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A221)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="16" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="226" priority="16" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A221)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="containsText" dxfId="279" priority="13" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="225" priority="13" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="14" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="224" priority="14" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="277" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="223" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G225">
-    <cfRule type="cellIs" dxfId="276" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="222" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="cellIs" dxfId="275" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="221" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="containsText" dxfId="274" priority="8" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="220" priority="8" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="9" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="219" priority="9" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="272" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="218" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="271" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="217" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="270" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="269" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="215" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="268" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="214" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="containsText" dxfId="267" priority="1" operator="containsText" text="Revenue (Cash-In)">
+    <cfRule type="containsText" dxfId="213" priority="1" operator="containsText" text="Revenue (Cash-In)">
       <formula>NOT(ISERROR(SEARCH("Revenue (Cash-In)",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="2" operator="containsText" text="Expense (Cash-Out)">
+    <cfRule type="containsText" dxfId="212" priority="2" operator="containsText" text="Expense (Cash-Out)">
       <formula>NOT(ISERROR(SEARCH("Expense (Cash-Out)",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56334,44 +56204,44 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C3:H26 J3:V26">
-    <cfRule type="cellIs" dxfId="265" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="10" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:AR5">
-    <cfRule type="cellIs" dxfId="264" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="9" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H26 J3:V26">
-    <cfRule type="cellIs" dxfId="263" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="208" priority="7" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I26">
-    <cfRule type="cellIs" dxfId="260" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="5" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I26">
-    <cfRule type="cellIs" dxfId="259" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X26">
-    <cfRule type="cellIs" dxfId="256" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="202" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
